--- a/frontend/public/BENPOS_UPLOAD_FORMAT.xlsx
+++ b/frontend/public/BENPOS_UPLOAD_FORMAT.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\CB-Intrade(Vesuvius)\CB-Intrade-Vesuvius\frontend\public\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="7884"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -88,33 +96,35 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="165" formatCode="D/M/YYYY"/>
+    <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF202124"/>
       <name val="Arial"/>
     </font>
@@ -124,7 +134,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -134,12 +144,19 @@
     </fill>
   </fills>
   <borders count="3">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -154,72 +171,70 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -409,20 +424,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,7 +514,7 @@
       <c r="AA1" s="7"/>
       <c r="AB1" s="8"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>21</v>
       </c>
@@ -502,7 +522,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="11">
-        <v>375.0</v>
+        <v>375</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -514,7 +534,7 @@
         <v>23</v>
       </c>
       <c r="K2" s="11">
-        <v>375.0</v>
+        <v>375</v>
       </c>
       <c r="L2" s="12"/>
       <c r="M2" s="12"/>
@@ -526,7 +546,7 @@
       <c r="S2" s="12"/>
       <c r="T2" s="12"/>
       <c r="U2" s="14">
-        <v>44435.0</v>
+        <v>44800</v>
       </c>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
@@ -536,7 +556,7 @@
       <c r="AA2" s="8"/>
       <c r="AB2" s="7"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -566,7 +586,7 @@
       <c r="AA3" s="8"/>
       <c r="AB3" s="7"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -596,7 +616,7 @@
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -626,7 +646,7 @@
       <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -656,7 +676,7 @@
       <c r="AA6" s="7"/>
       <c r="AB6" s="7"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -686,7 +706,7 @@
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -716,7 +736,7 @@
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -746,7 +766,7 @@
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -776,7 +796,7 @@
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -806,7 +826,7 @@
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -836,7 +856,7 @@
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -866,7 +886,7 @@
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -896,7 +916,7 @@
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -926,7 +946,7 @@
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -956,7 +976,7 @@
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -986,7 +1006,7 @@
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1016,7 +1036,7 @@
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1046,7 +1066,7 @@
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1076,7 +1096,7 @@
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1106,7 +1126,7 @@
       <c r="AA21" s="7"/>
       <c r="AB21" s="7"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1136,7 +1156,7 @@
       <c r="AA22" s="7"/>
       <c r="AB22" s="7"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1166,7 +1186,7 @@
       <c r="AA23" s="7"/>
       <c r="AB23" s="7"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1196,7 +1216,7 @@
       <c r="AA24" s="7"/>
       <c r="AB24" s="7"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1226,7 +1246,7 @@
       <c r="AA25" s="7"/>
       <c r="AB25" s="7"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1256,7 +1276,7 @@
       <c r="AA26" s="7"/>
       <c r="AB26" s="7"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1286,7 +1306,7 @@
       <c r="AA27" s="7"/>
       <c r="AB27" s="7"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1316,7 +1336,7 @@
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1346,7 +1366,7 @@
       <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1376,7 +1396,7 @@
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1406,7 +1426,7 @@
       <c r="AA31" s="7"/>
       <c r="AB31" s="7"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1436,7 +1456,7 @@
       <c r="AA32" s="7"/>
       <c r="AB32" s="7"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1466,7 +1486,7 @@
       <c r="AA33" s="7"/>
       <c r="AB33" s="7"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1496,7 +1516,7 @@
       <c r="AA34" s="7"/>
       <c r="AB34" s="7"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1526,7 +1546,7 @@
       <c r="AA35" s="7"/>
       <c r="AB35" s="7"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1556,7 +1576,7 @@
       <c r="AA36" s="7"/>
       <c r="AB36" s="7"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1586,7 +1606,7 @@
       <c r="AA37" s="7"/>
       <c r="AB37" s="7"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1616,7 +1636,7 @@
       <c r="AA38" s="7"/>
       <c r="AB38" s="7"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1646,7 +1666,7 @@
       <c r="AA39" s="7"/>
       <c r="AB39" s="7"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1676,7 +1696,7 @@
       <c r="AA40" s="7"/>
       <c r="AB40" s="7"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -1706,7 +1726,7 @@
       <c r="AA41" s="7"/>
       <c r="AB41" s="7"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1736,7 +1756,7 @@
       <c r="AA42" s="7"/>
       <c r="AB42" s="7"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -1766,7 +1786,7 @@
       <c r="AA43" s="7"/>
       <c r="AB43" s="7"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -1796,7 +1816,7 @@
       <c r="AA44" s="7"/>
       <c r="AB44" s="7"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -1826,7 +1846,7 @@
       <c r="AA45" s="7"/>
       <c r="AB45" s="7"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1856,7 +1876,7 @@
       <c r="AA46" s="7"/>
       <c r="AB46" s="7"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -1886,7 +1906,7 @@
       <c r="AA47" s="7"/>
       <c r="AB47" s="7"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -1916,7 +1936,7 @@
       <c r="AA48" s="7"/>
       <c r="AB48" s="7"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -1946,7 +1966,7 @@
       <c r="AA49" s="7"/>
       <c r="AB49" s="7"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -1976,7 +1996,7 @@
       <c r="AA50" s="7"/>
       <c r="AB50" s="7"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -2006,7 +2026,7 @@
       <c r="AA51" s="7"/>
       <c r="AB51" s="7"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -2036,7 +2056,7 @@
       <c r="AA52" s="7"/>
       <c r="AB52" s="7"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -2066,7 +2086,7 @@
       <c r="AA53" s="7"/>
       <c r="AB53" s="7"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -2096,7 +2116,7 @@
       <c r="AA54" s="7"/>
       <c r="AB54" s="7"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -2126,7 +2146,7 @@
       <c r="AA55" s="7"/>
       <c r="AB55" s="7"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -2156,7 +2176,7 @@
       <c r="AA56" s="7"/>
       <c r="AB56" s="7"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -2186,7 +2206,7 @@
       <c r="AA57" s="7"/>
       <c r="AB57" s="7"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -2216,7 +2236,7 @@
       <c r="AA58" s="7"/>
       <c r="AB58" s="7"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -2246,7 +2266,7 @@
       <c r="AA59" s="7"/>
       <c r="AB59" s="7"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -2276,7 +2296,7 @@
       <c r="AA60" s="7"/>
       <c r="AB60" s="7"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -2306,7 +2326,7 @@
       <c r="AA61" s="7"/>
       <c r="AB61" s="7"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -2336,7 +2356,7 @@
       <c r="AA62" s="7"/>
       <c r="AB62" s="7"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -2366,7 +2386,7 @@
       <c r="AA63" s="7"/>
       <c r="AB63" s="7"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -2396,7 +2416,7 @@
       <c r="AA64" s="7"/>
       <c r="AB64" s="7"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -2426,7 +2446,7 @@
       <c r="AA65" s="7"/>
       <c r="AB65" s="7"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -2456,7 +2476,7 @@
       <c r="AA66" s="7"/>
       <c r="AB66" s="7"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -2486,7 +2506,7 @@
       <c r="AA67" s="7"/>
       <c r="AB67" s="7"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -2516,7 +2536,7 @@
       <c r="AA68" s="7"/>
       <c r="AB68" s="7"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -2546,7 +2566,7 @@
       <c r="AA69" s="7"/>
       <c r="AB69" s="7"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -2576,7 +2596,7 @@
       <c r="AA70" s="7"/>
       <c r="AB70" s="7"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -2606,7 +2626,7 @@
       <c r="AA71" s="7"/>
       <c r="AB71" s="7"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -2636,7 +2656,7 @@
       <c r="AA72" s="7"/>
       <c r="AB72" s="7"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -2666,7 +2686,7 @@
       <c r="AA73" s="7"/>
       <c r="AB73" s="7"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -2696,7 +2716,7 @@
       <c r="AA74" s="7"/>
       <c r="AB74" s="7"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -2726,7 +2746,7 @@
       <c r="AA75" s="7"/>
       <c r="AB75" s="7"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -2756,7 +2776,7 @@
       <c r="AA76" s="7"/>
       <c r="AB76" s="7"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -2786,7 +2806,7 @@
       <c r="AA77" s="7"/>
       <c r="AB77" s="7"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -2816,7 +2836,7 @@
       <c r="AA78" s="7"/>
       <c r="AB78" s="7"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -2846,7 +2866,7 @@
       <c r="AA79" s="7"/>
       <c r="AB79" s="7"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -2876,7 +2896,7 @@
       <c r="AA80" s="7"/>
       <c r="AB80" s="7"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -2906,7 +2926,7 @@
       <c r="AA81" s="7"/>
       <c r="AB81" s="7"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -2936,7 +2956,7 @@
       <c r="AA82" s="7"/>
       <c r="AB82" s="7"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -2966,7 +2986,7 @@
       <c r="AA83" s="7"/>
       <c r="AB83" s="7"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -2996,7 +3016,7 @@
       <c r="AA84" s="7"/>
       <c r="AB84" s="7"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -3026,7 +3046,7 @@
       <c r="AA85" s="7"/>
       <c r="AB85" s="7"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -3056,7 +3076,7 @@
       <c r="AA86" s="7"/>
       <c r="AB86" s="7"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -3086,7 +3106,7 @@
       <c r="AA87" s="7"/>
       <c r="AB87" s="7"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -3116,7 +3136,7 @@
       <c r="AA88" s="7"/>
       <c r="AB88" s="7"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -3146,7 +3166,7 @@
       <c r="AA89" s="7"/>
       <c r="AB89" s="7"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -3176,7 +3196,7 @@
       <c r="AA90" s="7"/>
       <c r="AB90" s="7"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -3206,7 +3226,7 @@
       <c r="AA91" s="7"/>
       <c r="AB91" s="7"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -3236,7 +3256,7 @@
       <c r="AA92" s="7"/>
       <c r="AB92" s="7"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -3266,7 +3286,7 @@
       <c r="AA93" s="7"/>
       <c r="AB93" s="7"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -3296,7 +3316,7 @@
       <c r="AA94" s="7"/>
       <c r="AB94" s="7"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -3326,7 +3346,7 @@
       <c r="AA95" s="7"/>
       <c r="AB95" s="7"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -3356,7 +3376,7 @@
       <c r="AA96" s="7"/>
       <c r="AB96" s="7"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -3386,7 +3406,7 @@
       <c r="AA97" s="7"/>
       <c r="AB97" s="7"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -3416,7 +3436,7 @@
       <c r="AA98" s="7"/>
       <c r="AB98" s="7"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -3446,7 +3466,7 @@
       <c r="AA99" s="7"/>
       <c r="AB99" s="7"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -3476,7 +3496,7 @@
       <c r="AA100" s="7"/>
       <c r="AB100" s="7"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -3506,7 +3526,7 @@
       <c r="AA101" s="7"/>
       <c r="AB101" s="7"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -3536,7 +3556,7 @@
       <c r="AA102" s="7"/>
       <c r="AB102" s="7"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -3566,7 +3586,7 @@
       <c r="AA103" s="7"/>
       <c r="AB103" s="7"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -3596,7 +3616,7 @@
       <c r="AA104" s="7"/>
       <c r="AB104" s="7"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -3626,7 +3646,7 @@
       <c r="AA105" s="7"/>
       <c r="AB105" s="7"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -3656,7 +3676,7 @@
       <c r="AA106" s="7"/>
       <c r="AB106" s="7"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -3686,7 +3706,7 @@
       <c r="AA107" s="7"/>
       <c r="AB107" s="7"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -3716,7 +3736,7 @@
       <c r="AA108" s="7"/>
       <c r="AB108" s="7"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -3746,7 +3766,7 @@
       <c r="AA109" s="7"/>
       <c r="AB109" s="7"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -3776,7 +3796,7 @@
       <c r="AA110" s="7"/>
       <c r="AB110" s="7"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -3806,7 +3826,7 @@
       <c r="AA111" s="7"/>
       <c r="AB111" s="7"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -3836,7 +3856,7 @@
       <c r="AA112" s="7"/>
       <c r="AB112" s="7"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -3866,7 +3886,7 @@
       <c r="AA113" s="7"/>
       <c r="AB113" s="7"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -3896,7 +3916,7 @@
       <c r="AA114" s="7"/>
       <c r="AB114" s="7"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -3926,7 +3946,7 @@
       <c r="AA115" s="7"/>
       <c r="AB115" s="7"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -3956,7 +3976,7 @@
       <c r="AA116" s="7"/>
       <c r="AB116" s="7"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -3986,7 +4006,7 @@
       <c r="AA117" s="7"/>
       <c r="AB117" s="7"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -4016,7 +4036,7 @@
       <c r="AA118" s="7"/>
       <c r="AB118" s="7"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -4046,7 +4066,7 @@
       <c r="AA119" s="7"/>
       <c r="AB119" s="7"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -4076,7 +4096,7 @@
       <c r="AA120" s="7"/>
       <c r="AB120" s="7"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -4106,7 +4126,7 @@
       <c r="AA121" s="7"/>
       <c r="AB121" s="7"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -4136,7 +4156,7 @@
       <c r="AA122" s="7"/>
       <c r="AB122" s="7"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -4166,7 +4186,7 @@
       <c r="AA123" s="7"/>
       <c r="AB123" s="7"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -4196,7 +4216,7 @@
       <c r="AA124" s="7"/>
       <c r="AB124" s="7"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -4226,7 +4246,7 @@
       <c r="AA125" s="7"/>
       <c r="AB125" s="7"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -4256,7 +4276,7 @@
       <c r="AA126" s="7"/>
       <c r="AB126" s="7"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -4286,7 +4306,7 @@
       <c r="AA127" s="7"/>
       <c r="AB127" s="7"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -4316,7 +4336,7 @@
       <c r="AA128" s="7"/>
       <c r="AB128" s="7"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -4346,7 +4366,7 @@
       <c r="AA129" s="7"/>
       <c r="AB129" s="7"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -4376,7 +4396,7 @@
       <c r="AA130" s="7"/>
       <c r="AB130" s="7"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -4406,7 +4426,7 @@
       <c r="AA131" s="7"/>
       <c r="AB131" s="7"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -4436,7 +4456,7 @@
       <c r="AA132" s="7"/>
       <c r="AB132" s="7"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -4466,7 +4486,7 @@
       <c r="AA133" s="7"/>
       <c r="AB133" s="7"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -4496,7 +4516,7 @@
       <c r="AA134" s="7"/>
       <c r="AB134" s="7"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -4526,7 +4546,7 @@
       <c r="AA135" s="7"/>
       <c r="AB135" s="7"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -4556,7 +4576,7 @@
       <c r="AA136" s="7"/>
       <c r="AB136" s="7"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -4586,7 +4606,7 @@
       <c r="AA137" s="7"/>
       <c r="AB137" s="7"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
@@ -4616,7 +4636,7 @@
       <c r="AA138" s="7"/>
       <c r="AB138" s="7"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
@@ -4646,7 +4666,7 @@
       <c r="AA139" s="7"/>
       <c r="AB139" s="7"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
@@ -4676,7 +4696,7 @@
       <c r="AA140" s="7"/>
       <c r="AB140" s="7"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
@@ -4706,7 +4726,7 @@
       <c r="AA141" s="7"/>
       <c r="AB141" s="7"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
@@ -4736,7 +4756,7 @@
       <c r="AA142" s="7"/>
       <c r="AB142" s="7"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
@@ -4766,7 +4786,7 @@
       <c r="AA143" s="7"/>
       <c r="AB143" s="7"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
@@ -4796,7 +4816,7 @@
       <c r="AA144" s="7"/>
       <c r="AB144" s="7"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
@@ -4826,7 +4846,7 @@
       <c r="AA145" s="7"/>
       <c r="AB145" s="7"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
@@ -4856,7 +4876,7 @@
       <c r="AA146" s="7"/>
       <c r="AB146" s="7"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
@@ -4886,7 +4906,7 @@
       <c r="AA147" s="7"/>
       <c r="AB147" s="7"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
@@ -4916,7 +4936,7 @@
       <c r="AA148" s="7"/>
       <c r="AB148" s="7"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
@@ -4946,7 +4966,7 @@
       <c r="AA149" s="7"/>
       <c r="AB149" s="7"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A150" s="7"/>
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
@@ -4976,7 +4996,7 @@
       <c r="AA150" s="7"/>
       <c r="AB150" s="7"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
@@ -5006,7 +5026,7 @@
       <c r="AA151" s="7"/>
       <c r="AB151" s="7"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
@@ -5036,7 +5056,7 @@
       <c r="AA152" s="7"/>
       <c r="AB152" s="7"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
@@ -5066,7 +5086,7 @@
       <c r="AA153" s="7"/>
       <c r="AB153" s="7"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
@@ -5096,7 +5116,7 @@
       <c r="AA154" s="7"/>
       <c r="AB154" s="7"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
@@ -5126,7 +5146,7 @@
       <c r="AA155" s="7"/>
       <c r="AB155" s="7"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
@@ -5156,7 +5176,7 @@
       <c r="AA156" s="7"/>
       <c r="AB156" s="7"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
@@ -5186,7 +5206,7 @@
       <c r="AA157" s="7"/>
       <c r="AB157" s="7"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
@@ -5216,7 +5236,7 @@
       <c r="AA158" s="7"/>
       <c r="AB158" s="7"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A159" s="7"/>
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
@@ -5246,7 +5266,7 @@
       <c r="AA159" s="7"/>
       <c r="AB159" s="7"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A160" s="7"/>
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
@@ -5276,7 +5296,7 @@
       <c r="AA160" s="7"/>
       <c r="AB160" s="7"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A161" s="7"/>
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
@@ -5306,7 +5326,7 @@
       <c r="AA161" s="7"/>
       <c r="AB161" s="7"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
@@ -5336,7 +5356,7 @@
       <c r="AA162" s="7"/>
       <c r="AB162" s="7"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A163" s="7"/>
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
@@ -5366,7 +5386,7 @@
       <c r="AA163" s="7"/>
       <c r="AB163" s="7"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A164" s="7"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
@@ -5396,7 +5416,7 @@
       <c r="AA164" s="7"/>
       <c r="AB164" s="7"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A165" s="7"/>
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
@@ -5426,7 +5446,7 @@
       <c r="AA165" s="7"/>
       <c r="AB165" s="7"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A166" s="7"/>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
@@ -5456,7 +5476,7 @@
       <c r="AA166" s="7"/>
       <c r="AB166" s="7"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A167" s="7"/>
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
@@ -5486,7 +5506,7 @@
       <c r="AA167" s="7"/>
       <c r="AB167" s="7"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
@@ -5516,7 +5536,7 @@
       <c r="AA168" s="7"/>
       <c r="AB168" s="7"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A169" s="7"/>
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
@@ -5546,7 +5566,7 @@
       <c r="AA169" s="7"/>
       <c r="AB169" s="7"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A170" s="7"/>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
@@ -5576,7 +5596,7 @@
       <c r="AA170" s="7"/>
       <c r="AB170" s="7"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A171" s="7"/>
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
@@ -5606,7 +5626,7 @@
       <c r="AA171" s="7"/>
       <c r="AB171" s="7"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A172" s="7"/>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
@@ -5636,7 +5656,7 @@
       <c r="AA172" s="7"/>
       <c r="AB172" s="7"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A173" s="7"/>
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
@@ -5666,7 +5686,7 @@
       <c r="AA173" s="7"/>
       <c r="AB173" s="7"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A174" s="7"/>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
@@ -5696,7 +5716,7 @@
       <c r="AA174" s="7"/>
       <c r="AB174" s="7"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A175" s="7"/>
       <c r="B175" s="7"/>
       <c r="C175" s="7"/>
@@ -5726,7 +5746,7 @@
       <c r="AA175" s="7"/>
       <c r="AB175" s="7"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A176" s="7"/>
       <c r="B176" s="7"/>
       <c r="C176" s="7"/>
@@ -5756,7 +5776,7 @@
       <c r="AA176" s="7"/>
       <c r="AB176" s="7"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A177" s="7"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
@@ -5786,7 +5806,7 @@
       <c r="AA177" s="7"/>
       <c r="AB177" s="7"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A178" s="7"/>
       <c r="B178" s="7"/>
       <c r="C178" s="7"/>
@@ -5816,7 +5836,7 @@
       <c r="AA178" s="7"/>
       <c r="AB178" s="7"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A179" s="7"/>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
@@ -5846,7 +5866,7 @@
       <c r="AA179" s="7"/>
       <c r="AB179" s="7"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A180" s="7"/>
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
@@ -5876,7 +5896,7 @@
       <c r="AA180" s="7"/>
       <c r="AB180" s="7"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A181" s="7"/>
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
@@ -5906,7 +5926,7 @@
       <c r="AA181" s="7"/>
       <c r="AB181" s="7"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A182" s="7"/>
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
@@ -5936,7 +5956,7 @@
       <c r="AA182" s="7"/>
       <c r="AB182" s="7"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A183" s="7"/>
       <c r="B183" s="7"/>
       <c r="C183" s="7"/>
@@ -5966,7 +5986,7 @@
       <c r="AA183" s="7"/>
       <c r="AB183" s="7"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A184" s="7"/>
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
@@ -5996,7 +6016,7 @@
       <c r="AA184" s="7"/>
       <c r="AB184" s="7"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A185" s="7"/>
       <c r="B185" s="7"/>
       <c r="C185" s="7"/>
@@ -6026,7 +6046,7 @@
       <c r="AA185" s="7"/>
       <c r="AB185" s="7"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A186" s="7"/>
       <c r="B186" s="7"/>
       <c r="C186" s="7"/>
@@ -6056,7 +6076,7 @@
       <c r="AA186" s="7"/>
       <c r="AB186" s="7"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A187" s="7"/>
       <c r="B187" s="7"/>
       <c r="C187" s="7"/>
@@ -6086,7 +6106,7 @@
       <c r="AA187" s="7"/>
       <c r="AB187" s="7"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A188" s="7"/>
       <c r="B188" s="7"/>
       <c r="C188" s="7"/>
@@ -6116,7 +6136,7 @@
       <c r="AA188" s="7"/>
       <c r="AB188" s="7"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A189" s="7"/>
       <c r="B189" s="7"/>
       <c r="C189" s="7"/>
@@ -6146,7 +6166,7 @@
       <c r="AA189" s="7"/>
       <c r="AB189" s="7"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A190" s="7"/>
       <c r="B190" s="7"/>
       <c r="C190" s="7"/>
@@ -6176,7 +6196,7 @@
       <c r="AA190" s="7"/>
       <c r="AB190" s="7"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A191" s="7"/>
       <c r="B191" s="7"/>
       <c r="C191" s="7"/>
@@ -6206,7 +6226,7 @@
       <c r="AA191" s="7"/>
       <c r="AB191" s="7"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A192" s="7"/>
       <c r="B192" s="7"/>
       <c r="C192" s="7"/>
@@ -6236,7 +6256,7 @@
       <c r="AA192" s="7"/>
       <c r="AB192" s="7"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A193" s="7"/>
       <c r="B193" s="7"/>
       <c r="C193" s="7"/>
@@ -6266,7 +6286,7 @@
       <c r="AA193" s="7"/>
       <c r="AB193" s="7"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A194" s="7"/>
       <c r="B194" s="7"/>
       <c r="C194" s="7"/>
@@ -6296,7 +6316,7 @@
       <c r="AA194" s="7"/>
       <c r="AB194" s="7"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A195" s="7"/>
       <c r="B195" s="7"/>
       <c r="C195" s="7"/>
@@ -6326,7 +6346,7 @@
       <c r="AA195" s="7"/>
       <c r="AB195" s="7"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A196" s="7"/>
       <c r="B196" s="7"/>
       <c r="C196" s="7"/>
@@ -6356,7 +6376,7 @@
       <c r="AA196" s="7"/>
       <c r="AB196" s="7"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A197" s="7"/>
       <c r="B197" s="7"/>
       <c r="C197" s="7"/>
@@ -6386,7 +6406,7 @@
       <c r="AA197" s="7"/>
       <c r="AB197" s="7"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A198" s="7"/>
       <c r="B198" s="7"/>
       <c r="C198" s="7"/>
@@ -6416,7 +6436,7 @@
       <c r="AA198" s="7"/>
       <c r="AB198" s="7"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A199" s="7"/>
       <c r="B199" s="7"/>
       <c r="C199" s="7"/>
@@ -6446,7 +6466,7 @@
       <c r="AA199" s="7"/>
       <c r="AB199" s="7"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A200" s="7"/>
       <c r="B200" s="7"/>
       <c r="C200" s="7"/>
@@ -6476,7 +6496,7 @@
       <c r="AA200" s="7"/>
       <c r="AB200" s="7"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A201" s="7"/>
       <c r="B201" s="7"/>
       <c r="C201" s="7"/>
@@ -6506,7 +6526,7 @@
       <c r="AA201" s="7"/>
       <c r="AB201" s="7"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A202" s="7"/>
       <c r="B202" s="7"/>
       <c r="C202" s="7"/>
@@ -6536,7 +6556,7 @@
       <c r="AA202" s="7"/>
       <c r="AB202" s="7"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A203" s="7"/>
       <c r="B203" s="7"/>
       <c r="C203" s="7"/>
@@ -6566,7 +6586,7 @@
       <c r="AA203" s="7"/>
       <c r="AB203" s="7"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A204" s="7"/>
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
@@ -6596,7 +6616,7 @@
       <c r="AA204" s="7"/>
       <c r="AB204" s="7"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A205" s="7"/>
       <c r="B205" s="7"/>
       <c r="C205" s="7"/>
@@ -6626,7 +6646,7 @@
       <c r="AA205" s="7"/>
       <c r="AB205" s="7"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A206" s="7"/>
       <c r="B206" s="7"/>
       <c r="C206" s="7"/>
@@ -6656,7 +6676,7 @@
       <c r="AA206" s="7"/>
       <c r="AB206" s="7"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A207" s="7"/>
       <c r="B207" s="7"/>
       <c r="C207" s="7"/>
@@ -6686,7 +6706,7 @@
       <c r="AA207" s="7"/>
       <c r="AB207" s="7"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A208" s="7"/>
       <c r="B208" s="7"/>
       <c r="C208" s="7"/>
@@ -6716,7 +6736,7 @@
       <c r="AA208" s="7"/>
       <c r="AB208" s="7"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A209" s="7"/>
       <c r="B209" s="7"/>
       <c r="C209" s="7"/>
@@ -6746,7 +6766,7 @@
       <c r="AA209" s="7"/>
       <c r="AB209" s="7"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A210" s="7"/>
       <c r="B210" s="7"/>
       <c r="C210" s="7"/>
@@ -6776,7 +6796,7 @@
       <c r="AA210" s="7"/>
       <c r="AB210" s="7"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A211" s="7"/>
       <c r="B211" s="7"/>
       <c r="C211" s="7"/>
@@ -6806,7 +6826,7 @@
       <c r="AA211" s="7"/>
       <c r="AB211" s="7"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A212" s="7"/>
       <c r="B212" s="7"/>
       <c r="C212" s="7"/>
@@ -6836,7 +6856,7 @@
       <c r="AA212" s="7"/>
       <c r="AB212" s="7"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A213" s="7"/>
       <c r="B213" s="7"/>
       <c r="C213" s="7"/>
@@ -6866,7 +6886,7 @@
       <c r="AA213" s="7"/>
       <c r="AB213" s="7"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A214" s="7"/>
       <c r="B214" s="7"/>
       <c r="C214" s="7"/>
@@ -6896,7 +6916,7 @@
       <c r="AA214" s="7"/>
       <c r="AB214" s="7"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A215" s="7"/>
       <c r="B215" s="7"/>
       <c r="C215" s="7"/>
@@ -6926,7 +6946,7 @@
       <c r="AA215" s="7"/>
       <c r="AB215" s="7"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A216" s="7"/>
       <c r="B216" s="7"/>
       <c r="C216" s="7"/>
@@ -6956,7 +6976,7 @@
       <c r="AA216" s="7"/>
       <c r="AB216" s="7"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A217" s="7"/>
       <c r="B217" s="7"/>
       <c r="C217" s="7"/>
@@ -6986,7 +7006,7 @@
       <c r="AA217" s="7"/>
       <c r="AB217" s="7"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A218" s="7"/>
       <c r="B218" s="7"/>
       <c r="C218" s="7"/>
@@ -7016,7 +7036,7 @@
       <c r="AA218" s="7"/>
       <c r="AB218" s="7"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A219" s="7"/>
       <c r="B219" s="7"/>
       <c r="C219" s="7"/>
@@ -7046,7 +7066,7 @@
       <c r="AA219" s="7"/>
       <c r="AB219" s="7"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A220" s="7"/>
       <c r="B220" s="7"/>
       <c r="C220" s="7"/>
@@ -7076,7 +7096,7 @@
       <c r="AA220" s="7"/>
       <c r="AB220" s="7"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A221" s="7"/>
       <c r="B221" s="7"/>
       <c r="C221" s="7"/>
@@ -7106,7 +7126,7 @@
       <c r="AA221" s="7"/>
       <c r="AB221" s="7"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A222" s="7"/>
       <c r="B222" s="7"/>
       <c r="C222" s="7"/>
@@ -7136,7 +7156,7 @@
       <c r="AA222" s="7"/>
       <c r="AB222" s="7"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A223" s="7"/>
       <c r="B223" s="7"/>
       <c r="C223" s="7"/>
@@ -7166,7 +7186,7 @@
       <c r="AA223" s="7"/>
       <c r="AB223" s="7"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A224" s="7"/>
       <c r="B224" s="7"/>
       <c r="C224" s="7"/>
@@ -7196,7 +7216,7 @@
       <c r="AA224" s="7"/>
       <c r="AB224" s="7"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A225" s="7"/>
       <c r="B225" s="7"/>
       <c r="C225" s="7"/>
@@ -7226,7 +7246,7 @@
       <c r="AA225" s="7"/>
       <c r="AB225" s="7"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A226" s="7"/>
       <c r="B226" s="7"/>
       <c r="C226" s="7"/>
@@ -7256,7 +7276,7 @@
       <c r="AA226" s="7"/>
       <c r="AB226" s="7"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A227" s="7"/>
       <c r="B227" s="7"/>
       <c r="C227" s="7"/>
@@ -7286,7 +7306,7 @@
       <c r="AA227" s="7"/>
       <c r="AB227" s="7"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A228" s="7"/>
       <c r="B228" s="7"/>
       <c r="C228" s="7"/>
@@ -7316,7 +7336,7 @@
       <c r="AA228" s="7"/>
       <c r="AB228" s="7"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A229" s="7"/>
       <c r="B229" s="7"/>
       <c r="C229" s="7"/>
@@ -7346,7 +7366,7 @@
       <c r="AA229" s="7"/>
       <c r="AB229" s="7"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A230" s="7"/>
       <c r="B230" s="7"/>
       <c r="C230" s="7"/>
@@ -7376,7 +7396,7 @@
       <c r="AA230" s="7"/>
       <c r="AB230" s="7"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A231" s="7"/>
       <c r="B231" s="7"/>
       <c r="C231" s="7"/>
@@ -7406,7 +7426,7 @@
       <c r="AA231" s="7"/>
       <c r="AB231" s="7"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A232" s="7"/>
       <c r="B232" s="7"/>
       <c r="C232" s="7"/>
@@ -7436,7 +7456,7 @@
       <c r="AA232" s="7"/>
       <c r="AB232" s="7"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A233" s="7"/>
       <c r="B233" s="7"/>
       <c r="C233" s="7"/>
@@ -7466,7 +7486,7 @@
       <c r="AA233" s="7"/>
       <c r="AB233" s="7"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A234" s="7"/>
       <c r="B234" s="7"/>
       <c r="C234" s="7"/>
@@ -7496,7 +7516,7 @@
       <c r="AA234" s="7"/>
       <c r="AB234" s="7"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A235" s="7"/>
       <c r="B235" s="7"/>
       <c r="C235" s="7"/>
@@ -7526,7 +7546,7 @@
       <c r="AA235" s="7"/>
       <c r="AB235" s="7"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A236" s="7"/>
       <c r="B236" s="7"/>
       <c r="C236" s="7"/>
@@ -7556,7 +7576,7 @@
       <c r="AA236" s="7"/>
       <c r="AB236" s="7"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A237" s="7"/>
       <c r="B237" s="7"/>
       <c r="C237" s="7"/>
@@ -7586,7 +7606,7 @@
       <c r="AA237" s="7"/>
       <c r="AB237" s="7"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A238" s="7"/>
       <c r="B238" s="7"/>
       <c r="C238" s="7"/>
@@ -7616,7 +7636,7 @@
       <c r="AA238" s="7"/>
       <c r="AB238" s="7"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A239" s="7"/>
       <c r="B239" s="7"/>
       <c r="C239" s="7"/>
@@ -7646,7 +7666,7 @@
       <c r="AA239" s="7"/>
       <c r="AB239" s="7"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A240" s="7"/>
       <c r="B240" s="7"/>
       <c r="C240" s="7"/>
@@ -7676,7 +7696,7 @@
       <c r="AA240" s="7"/>
       <c r="AB240" s="7"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A241" s="7"/>
       <c r="B241" s="7"/>
       <c r="C241" s="7"/>
@@ -7706,7 +7726,7 @@
       <c r="AA241" s="7"/>
       <c r="AB241" s="7"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A242" s="7"/>
       <c r="B242" s="7"/>
       <c r="C242" s="7"/>
@@ -7736,7 +7756,7 @@
       <c r="AA242" s="7"/>
       <c r="AB242" s="7"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A243" s="7"/>
       <c r="B243" s="7"/>
       <c r="C243" s="7"/>
@@ -7766,7 +7786,7 @@
       <c r="AA243" s="7"/>
       <c r="AB243" s="7"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A244" s="7"/>
       <c r="B244" s="7"/>
       <c r="C244" s="7"/>
@@ -7796,7 +7816,7 @@
       <c r="AA244" s="7"/>
       <c r="AB244" s="7"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A245" s="7"/>
       <c r="B245" s="7"/>
       <c r="C245" s="7"/>
@@ -7826,7 +7846,7 @@
       <c r="AA245" s="7"/>
       <c r="AB245" s="7"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A246" s="7"/>
       <c r="B246" s="7"/>
       <c r="C246" s="7"/>
@@ -7856,7 +7876,7 @@
       <c r="AA246" s="7"/>
       <c r="AB246" s="7"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A247" s="7"/>
       <c r="B247" s="7"/>
       <c r="C247" s="7"/>
@@ -7886,7 +7906,7 @@
       <c r="AA247" s="7"/>
       <c r="AB247" s="7"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A248" s="7"/>
       <c r="B248" s="7"/>
       <c r="C248" s="7"/>
@@ -7916,7 +7936,7 @@
       <c r="AA248" s="7"/>
       <c r="AB248" s="7"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A249" s="7"/>
       <c r="B249" s="7"/>
       <c r="C249" s="7"/>
@@ -7946,7 +7966,7 @@
       <c r="AA249" s="7"/>
       <c r="AB249" s="7"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A250" s="7"/>
       <c r="B250" s="7"/>
       <c r="C250" s="7"/>
@@ -7976,7 +7996,7 @@
       <c r="AA250" s="7"/>
       <c r="AB250" s="7"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A251" s="7"/>
       <c r="B251" s="7"/>
       <c r="C251" s="7"/>
@@ -8006,7 +8026,7 @@
       <c r="AA251" s="7"/>
       <c r="AB251" s="7"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A252" s="7"/>
       <c r="B252" s="7"/>
       <c r="C252" s="7"/>
@@ -8036,7 +8056,7 @@
       <c r="AA252" s="7"/>
       <c r="AB252" s="7"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A253" s="7"/>
       <c r="B253" s="7"/>
       <c r="C253" s="7"/>
@@ -8066,7 +8086,7 @@
       <c r="AA253" s="7"/>
       <c r="AB253" s="7"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A254" s="7"/>
       <c r="B254" s="7"/>
       <c r="C254" s="7"/>
@@ -8096,7 +8116,7 @@
       <c r="AA254" s="7"/>
       <c r="AB254" s="7"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A255" s="7"/>
       <c r="B255" s="7"/>
       <c r="C255" s="7"/>
@@ -8126,7 +8146,7 @@
       <c r="AA255" s="7"/>
       <c r="AB255" s="7"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A256" s="7"/>
       <c r="B256" s="7"/>
       <c r="C256" s="7"/>
@@ -8156,7 +8176,7 @@
       <c r="AA256" s="7"/>
       <c r="AB256" s="7"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A257" s="7"/>
       <c r="B257" s="7"/>
       <c r="C257" s="7"/>
@@ -8186,7 +8206,7 @@
       <c r="AA257" s="7"/>
       <c r="AB257" s="7"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A258" s="7"/>
       <c r="B258" s="7"/>
       <c r="C258" s="7"/>
@@ -8216,7 +8236,7 @@
       <c r="AA258" s="7"/>
       <c r="AB258" s="7"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A259" s="7"/>
       <c r="B259" s="7"/>
       <c r="C259" s="7"/>
@@ -8246,7 +8266,7 @@
       <c r="AA259" s="7"/>
       <c r="AB259" s="7"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A260" s="7"/>
       <c r="B260" s="7"/>
       <c r="C260" s="7"/>
@@ -8276,7 +8296,7 @@
       <c r="AA260" s="7"/>
       <c r="AB260" s="7"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A261" s="7"/>
       <c r="B261" s="7"/>
       <c r="C261" s="7"/>
@@ -8306,7 +8326,7 @@
       <c r="AA261" s="7"/>
       <c r="AB261" s="7"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A262" s="7"/>
       <c r="B262" s="7"/>
       <c r="C262" s="7"/>
@@ -8336,7 +8356,7 @@
       <c r="AA262" s="7"/>
       <c r="AB262" s="7"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A263" s="7"/>
       <c r="B263" s="7"/>
       <c r="C263" s="7"/>
@@ -8366,7 +8386,7 @@
       <c r="AA263" s="7"/>
       <c r="AB263" s="7"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A264" s="7"/>
       <c r="B264" s="7"/>
       <c r="C264" s="7"/>
@@ -8396,7 +8416,7 @@
       <c r="AA264" s="7"/>
       <c r="AB264" s="7"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A265" s="7"/>
       <c r="B265" s="7"/>
       <c r="C265" s="7"/>
@@ -8426,7 +8446,7 @@
       <c r="AA265" s="7"/>
       <c r="AB265" s="7"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A266" s="7"/>
       <c r="B266" s="7"/>
       <c r="C266" s="7"/>
@@ -8456,7 +8476,7 @@
       <c r="AA266" s="7"/>
       <c r="AB266" s="7"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A267" s="7"/>
       <c r="B267" s="7"/>
       <c r="C267" s="7"/>
@@ -8486,7 +8506,7 @@
       <c r="AA267" s="7"/>
       <c r="AB267" s="7"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A268" s="7"/>
       <c r="B268" s="7"/>
       <c r="C268" s="7"/>
@@ -8516,7 +8536,7 @@
       <c r="AA268" s="7"/>
       <c r="AB268" s="7"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A269" s="7"/>
       <c r="B269" s="7"/>
       <c r="C269" s="7"/>
@@ -8546,7 +8566,7 @@
       <c r="AA269" s="7"/>
       <c r="AB269" s="7"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A270" s="7"/>
       <c r="B270" s="7"/>
       <c r="C270" s="7"/>
@@ -8576,7 +8596,7 @@
       <c r="AA270" s="7"/>
       <c r="AB270" s="7"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A271" s="7"/>
       <c r="B271" s="7"/>
       <c r="C271" s="7"/>
@@ -8606,7 +8626,7 @@
       <c r="AA271" s="7"/>
       <c r="AB271" s="7"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A272" s="7"/>
       <c r="B272" s="7"/>
       <c r="C272" s="7"/>
@@ -8636,7 +8656,7 @@
       <c r="AA272" s="7"/>
       <c r="AB272" s="7"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A273" s="7"/>
       <c r="B273" s="7"/>
       <c r="C273" s="7"/>
@@ -8666,7 +8686,7 @@
       <c r="AA273" s="7"/>
       <c r="AB273" s="7"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A274" s="7"/>
       <c r="B274" s="7"/>
       <c r="C274" s="7"/>
@@ -8696,7 +8716,7 @@
       <c r="AA274" s="7"/>
       <c r="AB274" s="7"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A275" s="7"/>
       <c r="B275" s="7"/>
       <c r="C275" s="7"/>
@@ -8726,7 +8746,7 @@
       <c r="AA275" s="7"/>
       <c r="AB275" s="7"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A276" s="7"/>
       <c r="B276" s="7"/>
       <c r="C276" s="7"/>
@@ -8756,7 +8776,7 @@
       <c r="AA276" s="7"/>
       <c r="AB276" s="7"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A277" s="7"/>
       <c r="B277" s="7"/>
       <c r="C277" s="7"/>
@@ -8786,7 +8806,7 @@
       <c r="AA277" s="7"/>
       <c r="AB277" s="7"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A278" s="7"/>
       <c r="B278" s="7"/>
       <c r="C278" s="7"/>
@@ -8816,7 +8836,7 @@
       <c r="AA278" s="7"/>
       <c r="AB278" s="7"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A279" s="7"/>
       <c r="B279" s="7"/>
       <c r="C279" s="7"/>
@@ -8846,7 +8866,7 @@
       <c r="AA279" s="7"/>
       <c r="AB279" s="7"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A280" s="7"/>
       <c r="B280" s="7"/>
       <c r="C280" s="7"/>
@@ -8876,7 +8896,7 @@
       <c r="AA280" s="7"/>
       <c r="AB280" s="7"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A281" s="7"/>
       <c r="B281" s="7"/>
       <c r="C281" s="7"/>
@@ -8906,7 +8926,7 @@
       <c r="AA281" s="7"/>
       <c r="AB281" s="7"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A282" s="7"/>
       <c r="B282" s="7"/>
       <c r="C282" s="7"/>
@@ -8936,7 +8956,7 @@
       <c r="AA282" s="7"/>
       <c r="AB282" s="7"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A283" s="7"/>
       <c r="B283" s="7"/>
       <c r="C283" s="7"/>
@@ -8966,7 +8986,7 @@
       <c r="AA283" s="7"/>
       <c r="AB283" s="7"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A284" s="7"/>
       <c r="B284" s="7"/>
       <c r="C284" s="7"/>
@@ -8996,7 +9016,7 @@
       <c r="AA284" s="7"/>
       <c r="AB284" s="7"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A285" s="7"/>
       <c r="B285" s="7"/>
       <c r="C285" s="7"/>
@@ -9026,7 +9046,7 @@
       <c r="AA285" s="7"/>
       <c r="AB285" s="7"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A286" s="7"/>
       <c r="B286" s="7"/>
       <c r="C286" s="7"/>
@@ -9056,7 +9076,7 @@
       <c r="AA286" s="7"/>
       <c r="AB286" s="7"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A287" s="7"/>
       <c r="B287" s="7"/>
       <c r="C287" s="7"/>
@@ -9086,7 +9106,7 @@
       <c r="AA287" s="7"/>
       <c r="AB287" s="7"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A288" s="7"/>
       <c r="B288" s="7"/>
       <c r="C288" s="7"/>
@@ -9116,7 +9136,7 @@
       <c r="AA288" s="7"/>
       <c r="AB288" s="7"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A289" s="7"/>
       <c r="B289" s="7"/>
       <c r="C289" s="7"/>
@@ -9146,7 +9166,7 @@
       <c r="AA289" s="7"/>
       <c r="AB289" s="7"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A290" s="7"/>
       <c r="B290" s="7"/>
       <c r="C290" s="7"/>
@@ -9176,7 +9196,7 @@
       <c r="AA290" s="7"/>
       <c r="AB290" s="7"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A291" s="7"/>
       <c r="B291" s="7"/>
       <c r="C291" s="7"/>
@@ -9206,7 +9226,7 @@
       <c r="AA291" s="7"/>
       <c r="AB291" s="7"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A292" s="7"/>
       <c r="B292" s="7"/>
       <c r="C292" s="7"/>
@@ -9236,7 +9256,7 @@
       <c r="AA292" s="7"/>
       <c r="AB292" s="7"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A293" s="7"/>
       <c r="B293" s="7"/>
       <c r="C293" s="7"/>
@@ -9266,7 +9286,7 @@
       <c r="AA293" s="7"/>
       <c r="AB293" s="7"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A294" s="7"/>
       <c r="B294" s="7"/>
       <c r="C294" s="7"/>
@@ -9296,7 +9316,7 @@
       <c r="AA294" s="7"/>
       <c r="AB294" s="7"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A295" s="7"/>
       <c r="B295" s="7"/>
       <c r="C295" s="7"/>
@@ -9326,7 +9346,7 @@
       <c r="AA295" s="7"/>
       <c r="AB295" s="7"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A296" s="7"/>
       <c r="B296" s="7"/>
       <c r="C296" s="7"/>
@@ -9356,7 +9376,7 @@
       <c r="AA296" s="7"/>
       <c r="AB296" s="7"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A297" s="7"/>
       <c r="B297" s="7"/>
       <c r="C297" s="7"/>
@@ -9386,7 +9406,7 @@
       <c r="AA297" s="7"/>
       <c r="AB297" s="7"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A298" s="7"/>
       <c r="B298" s="7"/>
       <c r="C298" s="7"/>
@@ -9416,7 +9436,7 @@
       <c r="AA298" s="7"/>
       <c r="AB298" s="7"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A299" s="7"/>
       <c r="B299" s="7"/>
       <c r="C299" s="7"/>
@@ -9446,7 +9466,7 @@
       <c r="AA299" s="7"/>
       <c r="AB299" s="7"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A300" s="7"/>
       <c r="B300" s="7"/>
       <c r="C300" s="7"/>
@@ -9476,7 +9496,7 @@
       <c r="AA300" s="7"/>
       <c r="AB300" s="7"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A301" s="7"/>
       <c r="B301" s="7"/>
       <c r="C301" s="7"/>
@@ -9506,7 +9526,7 @@
       <c r="AA301" s="7"/>
       <c r="AB301" s="7"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A302" s="7"/>
       <c r="B302" s="7"/>
       <c r="C302" s="7"/>
@@ -9536,7 +9556,7 @@
       <c r="AA302" s="7"/>
       <c r="AB302" s="7"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A303" s="7"/>
       <c r="B303" s="7"/>
       <c r="C303" s="7"/>
@@ -9566,7 +9586,7 @@
       <c r="AA303" s="7"/>
       <c r="AB303" s="7"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A304" s="7"/>
       <c r="B304" s="7"/>
       <c r="C304" s="7"/>
@@ -9596,7 +9616,7 @@
       <c r="AA304" s="7"/>
       <c r="AB304" s="7"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A305" s="7"/>
       <c r="B305" s="7"/>
       <c r="C305" s="7"/>
@@ -9626,7 +9646,7 @@
       <c r="AA305" s="7"/>
       <c r="AB305" s="7"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A306" s="7"/>
       <c r="B306" s="7"/>
       <c r="C306" s="7"/>
@@ -9656,7 +9676,7 @@
       <c r="AA306" s="7"/>
       <c r="AB306" s="7"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A307" s="7"/>
       <c r="B307" s="7"/>
       <c r="C307" s="7"/>
@@ -9686,7 +9706,7 @@
       <c r="AA307" s="7"/>
       <c r="AB307" s="7"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A308" s="7"/>
       <c r="B308" s="7"/>
       <c r="C308" s="7"/>
@@ -9716,7 +9736,7 @@
       <c r="AA308" s="7"/>
       <c r="AB308" s="7"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A309" s="7"/>
       <c r="B309" s="7"/>
       <c r="C309" s="7"/>
@@ -9746,7 +9766,7 @@
       <c r="AA309" s="7"/>
       <c r="AB309" s="7"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A310" s="7"/>
       <c r="B310" s="7"/>
       <c r="C310" s="7"/>
@@ -9776,7 +9796,7 @@
       <c r="AA310" s="7"/>
       <c r="AB310" s="7"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A311" s="7"/>
       <c r="B311" s="7"/>
       <c r="C311" s="7"/>
@@ -9806,7 +9826,7 @@
       <c r="AA311" s="7"/>
       <c r="AB311" s="7"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A312" s="7"/>
       <c r="B312" s="7"/>
       <c r="C312" s="7"/>
@@ -9836,7 +9856,7 @@
       <c r="AA312" s="7"/>
       <c r="AB312" s="7"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A313" s="7"/>
       <c r="B313" s="7"/>
       <c r="C313" s="7"/>
@@ -9866,7 +9886,7 @@
       <c r="AA313" s="7"/>
       <c r="AB313" s="7"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A314" s="7"/>
       <c r="B314" s="7"/>
       <c r="C314" s="7"/>
@@ -9896,7 +9916,7 @@
       <c r="AA314" s="7"/>
       <c r="AB314" s="7"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A315" s="7"/>
       <c r="B315" s="7"/>
       <c r="C315" s="7"/>
@@ -9926,7 +9946,7 @@
       <c r="AA315" s="7"/>
       <c r="AB315" s="7"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A316" s="7"/>
       <c r="B316" s="7"/>
       <c r="C316" s="7"/>
@@ -9956,7 +9976,7 @@
       <c r="AA316" s="7"/>
       <c r="AB316" s="7"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A317" s="7"/>
       <c r="B317" s="7"/>
       <c r="C317" s="7"/>
@@ -9986,7 +10006,7 @@
       <c r="AA317" s="7"/>
       <c r="AB317" s="7"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A318" s="7"/>
       <c r="B318" s="7"/>
       <c r="C318" s="7"/>
@@ -10016,7 +10036,7 @@
       <c r="AA318" s="7"/>
       <c r="AB318" s="7"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A319" s="7"/>
       <c r="B319" s="7"/>
       <c r="C319" s="7"/>
@@ -10046,7 +10066,7 @@
       <c r="AA319" s="7"/>
       <c r="AB319" s="7"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A320" s="7"/>
       <c r="B320" s="7"/>
       <c r="C320" s="7"/>
@@ -10076,7 +10096,7 @@
       <c r="AA320" s="7"/>
       <c r="AB320" s="7"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A321" s="7"/>
       <c r="B321" s="7"/>
       <c r="C321" s="7"/>
@@ -10106,7 +10126,7 @@
       <c r="AA321" s="7"/>
       <c r="AB321" s="7"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A322" s="7"/>
       <c r="B322" s="7"/>
       <c r="C322" s="7"/>
@@ -10136,7 +10156,7 @@
       <c r="AA322" s="7"/>
       <c r="AB322" s="7"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A323" s="7"/>
       <c r="B323" s="7"/>
       <c r="C323" s="7"/>
@@ -10166,7 +10186,7 @@
       <c r="AA323" s="7"/>
       <c r="AB323" s="7"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A324" s="7"/>
       <c r="B324" s="7"/>
       <c r="C324" s="7"/>
@@ -10196,7 +10216,7 @@
       <c r="AA324" s="7"/>
       <c r="AB324" s="7"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A325" s="7"/>
       <c r="B325" s="7"/>
       <c r="C325" s="7"/>
@@ -10226,7 +10246,7 @@
       <c r="AA325" s="7"/>
       <c r="AB325" s="7"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A326" s="7"/>
       <c r="B326" s="7"/>
       <c r="C326" s="7"/>
@@ -10256,7 +10276,7 @@
       <c r="AA326" s="7"/>
       <c r="AB326" s="7"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A327" s="7"/>
       <c r="B327" s="7"/>
       <c r="C327" s="7"/>
@@ -10286,7 +10306,7 @@
       <c r="AA327" s="7"/>
       <c r="AB327" s="7"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A328" s="7"/>
       <c r="B328" s="7"/>
       <c r="C328" s="7"/>
@@ -10316,7 +10336,7 @@
       <c r="AA328" s="7"/>
       <c r="AB328" s="7"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A329" s="7"/>
       <c r="B329" s="7"/>
       <c r="C329" s="7"/>
@@ -10346,7 +10366,7 @@
       <c r="AA329" s="7"/>
       <c r="AB329" s="7"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A330" s="7"/>
       <c r="B330" s="7"/>
       <c r="C330" s="7"/>
@@ -10376,7 +10396,7 @@
       <c r="AA330" s="7"/>
       <c r="AB330" s="7"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A331" s="7"/>
       <c r="B331" s="7"/>
       <c r="C331" s="7"/>
@@ -10406,7 +10426,7 @@
       <c r="AA331" s="7"/>
       <c r="AB331" s="7"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A332" s="7"/>
       <c r="B332" s="7"/>
       <c r="C332" s="7"/>
@@ -10436,7 +10456,7 @@
       <c r="AA332" s="7"/>
       <c r="AB332" s="7"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A333" s="7"/>
       <c r="B333" s="7"/>
       <c r="C333" s="7"/>
@@ -10466,7 +10486,7 @@
       <c r="AA333" s="7"/>
       <c r="AB333" s="7"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A334" s="7"/>
       <c r="B334" s="7"/>
       <c r="C334" s="7"/>
@@ -10496,7 +10516,7 @@
       <c r="AA334" s="7"/>
       <c r="AB334" s="7"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A335" s="7"/>
       <c r="B335" s="7"/>
       <c r="C335" s="7"/>
@@ -10526,7 +10546,7 @@
       <c r="AA335" s="7"/>
       <c r="AB335" s="7"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A336" s="7"/>
       <c r="B336" s="7"/>
       <c r="C336" s="7"/>
@@ -10556,7 +10576,7 @@
       <c r="AA336" s="7"/>
       <c r="AB336" s="7"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A337" s="7"/>
       <c r="B337" s="7"/>
       <c r="C337" s="7"/>
@@ -10586,7 +10606,7 @@
       <c r="AA337" s="7"/>
       <c r="AB337" s="7"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A338" s="7"/>
       <c r="B338" s="7"/>
       <c r="C338" s="7"/>
@@ -10616,7 +10636,7 @@
       <c r="AA338" s="7"/>
       <c r="AB338" s="7"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A339" s="7"/>
       <c r="B339" s="7"/>
       <c r="C339" s="7"/>
@@ -10646,7 +10666,7 @@
       <c r="AA339" s="7"/>
       <c r="AB339" s="7"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A340" s="7"/>
       <c r="B340" s="7"/>
       <c r="C340" s="7"/>
@@ -10676,7 +10696,7 @@
       <c r="AA340" s="7"/>
       <c r="AB340" s="7"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A341" s="7"/>
       <c r="B341" s="7"/>
       <c r="C341" s="7"/>
@@ -10706,7 +10726,7 @@
       <c r="AA341" s="7"/>
       <c r="AB341" s="7"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A342" s="7"/>
       <c r="B342" s="7"/>
       <c r="C342" s="7"/>
@@ -10736,7 +10756,7 @@
       <c r="AA342" s="7"/>
       <c r="AB342" s="7"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A343" s="7"/>
       <c r="B343" s="7"/>
       <c r="C343" s="7"/>
@@ -10766,7 +10786,7 @@
       <c r="AA343" s="7"/>
       <c r="AB343" s="7"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A344" s="7"/>
       <c r="B344" s="7"/>
       <c r="C344" s="7"/>
@@ -10796,7 +10816,7 @@
       <c r="AA344" s="7"/>
       <c r="AB344" s="7"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A345" s="7"/>
       <c r="B345" s="7"/>
       <c r="C345" s="7"/>
@@ -10826,7 +10846,7 @@
       <c r="AA345" s="7"/>
       <c r="AB345" s="7"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A346" s="7"/>
       <c r="B346" s="7"/>
       <c r="C346" s="7"/>
@@ -10856,7 +10876,7 @@
       <c r="AA346" s="7"/>
       <c r="AB346" s="7"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A347" s="7"/>
       <c r="B347" s="7"/>
       <c r="C347" s="7"/>
@@ -10886,7 +10906,7 @@
       <c r="AA347" s="7"/>
       <c r="AB347" s="7"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A348" s="7"/>
       <c r="B348" s="7"/>
       <c r="C348" s="7"/>
@@ -10916,7 +10936,7 @@
       <c r="AA348" s="7"/>
       <c r="AB348" s="7"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A349" s="7"/>
       <c r="B349" s="7"/>
       <c r="C349" s="7"/>
@@ -10946,7 +10966,7 @@
       <c r="AA349" s="7"/>
       <c r="AB349" s="7"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A350" s="7"/>
       <c r="B350" s="7"/>
       <c r="C350" s="7"/>
@@ -10976,7 +10996,7 @@
       <c r="AA350" s="7"/>
       <c r="AB350" s="7"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A351" s="7"/>
       <c r="B351" s="7"/>
       <c r="C351" s="7"/>
@@ -11006,7 +11026,7 @@
       <c r="AA351" s="7"/>
       <c r="AB351" s="7"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A352" s="7"/>
       <c r="B352" s="7"/>
       <c r="C352" s="7"/>
@@ -11036,7 +11056,7 @@
       <c r="AA352" s="7"/>
       <c r="AB352" s="7"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A353" s="7"/>
       <c r="B353" s="7"/>
       <c r="C353" s="7"/>
@@ -11066,7 +11086,7 @@
       <c r="AA353" s="7"/>
       <c r="AB353" s="7"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A354" s="7"/>
       <c r="B354" s="7"/>
       <c r="C354" s="7"/>
@@ -11096,7 +11116,7 @@
       <c r="AA354" s="7"/>
       <c r="AB354" s="7"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A355" s="7"/>
       <c r="B355" s="7"/>
       <c r="C355" s="7"/>
@@ -11126,7 +11146,7 @@
       <c r="AA355" s="7"/>
       <c r="AB355" s="7"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A356" s="7"/>
       <c r="B356" s="7"/>
       <c r="C356" s="7"/>
@@ -11156,7 +11176,7 @@
       <c r="AA356" s="7"/>
       <c r="AB356" s="7"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A357" s="7"/>
       <c r="B357" s="7"/>
       <c r="C357" s="7"/>
@@ -11186,7 +11206,7 @@
       <c r="AA357" s="7"/>
       <c r="AB357" s="7"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A358" s="7"/>
       <c r="B358" s="7"/>
       <c r="C358" s="7"/>
@@ -11216,7 +11236,7 @@
       <c r="AA358" s="7"/>
       <c r="AB358" s="7"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A359" s="7"/>
       <c r="B359" s="7"/>
       <c r="C359" s="7"/>
@@ -11246,7 +11266,7 @@
       <c r="AA359" s="7"/>
       <c r="AB359" s="7"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A360" s="7"/>
       <c r="B360" s="7"/>
       <c r="C360" s="7"/>
@@ -11276,7 +11296,7 @@
       <c r="AA360" s="7"/>
       <c r="AB360" s="7"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A361" s="7"/>
       <c r="B361" s="7"/>
       <c r="C361" s="7"/>
@@ -11306,7 +11326,7 @@
       <c r="AA361" s="7"/>
       <c r="AB361" s="7"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A362" s="7"/>
       <c r="B362" s="7"/>
       <c r="C362" s="7"/>
@@ -11336,7 +11356,7 @@
       <c r="AA362" s="7"/>
       <c r="AB362" s="7"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A363" s="7"/>
       <c r="B363" s="7"/>
       <c r="C363" s="7"/>
@@ -11366,7 +11386,7 @@
       <c r="AA363" s="7"/>
       <c r="AB363" s="7"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A364" s="7"/>
       <c r="B364" s="7"/>
       <c r="C364" s="7"/>
@@ -11396,7 +11416,7 @@
       <c r="AA364" s="7"/>
       <c r="AB364" s="7"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A365" s="7"/>
       <c r="B365" s="7"/>
       <c r="C365" s="7"/>
@@ -11426,7 +11446,7 @@
       <c r="AA365" s="7"/>
       <c r="AB365" s="7"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A366" s="7"/>
       <c r="B366" s="7"/>
       <c r="C366" s="7"/>
@@ -11456,7 +11476,7 @@
       <c r="AA366" s="7"/>
       <c r="AB366" s="7"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A367" s="7"/>
       <c r="B367" s="7"/>
       <c r="C367" s="7"/>
@@ -11486,7 +11506,7 @@
       <c r="AA367" s="7"/>
       <c r="AB367" s="7"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A368" s="7"/>
       <c r="B368" s="7"/>
       <c r="C368" s="7"/>
@@ -11516,7 +11536,7 @@
       <c r="AA368" s="7"/>
       <c r="AB368" s="7"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A369" s="7"/>
       <c r="B369" s="7"/>
       <c r="C369" s="7"/>
@@ -11546,7 +11566,7 @@
       <c r="AA369" s="7"/>
       <c r="AB369" s="7"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A370" s="7"/>
       <c r="B370" s="7"/>
       <c r="C370" s="7"/>
@@ -11576,7 +11596,7 @@
       <c r="AA370" s="7"/>
       <c r="AB370" s="7"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A371" s="7"/>
       <c r="B371" s="7"/>
       <c r="C371" s="7"/>
@@ -11606,7 +11626,7 @@
       <c r="AA371" s="7"/>
       <c r="AB371" s="7"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A372" s="7"/>
       <c r="B372" s="7"/>
       <c r="C372" s="7"/>
@@ -11636,7 +11656,7 @@
       <c r="AA372" s="7"/>
       <c r="AB372" s="7"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A373" s="7"/>
       <c r="B373" s="7"/>
       <c r="C373" s="7"/>
@@ -11666,7 +11686,7 @@
       <c r="AA373" s="7"/>
       <c r="AB373" s="7"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A374" s="7"/>
       <c r="B374" s="7"/>
       <c r="C374" s="7"/>
@@ -11696,7 +11716,7 @@
       <c r="AA374" s="7"/>
       <c r="AB374" s="7"/>
     </row>
-    <row r="375">
+    <row r="375" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A375" s="7"/>
       <c r="B375" s="7"/>
       <c r="C375" s="7"/>
@@ -11726,7 +11746,7 @@
       <c r="AA375" s="7"/>
       <c r="AB375" s="7"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A376" s="7"/>
       <c r="B376" s="7"/>
       <c r="C376" s="7"/>
@@ -11756,7 +11776,7 @@
       <c r="AA376" s="7"/>
       <c r="AB376" s="7"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A377" s="7"/>
       <c r="B377" s="7"/>
       <c r="C377" s="7"/>
@@ -11786,7 +11806,7 @@
       <c r="AA377" s="7"/>
       <c r="AB377" s="7"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A378" s="7"/>
       <c r="B378" s="7"/>
       <c r="C378" s="7"/>
@@ -11816,7 +11836,7 @@
       <c r="AA378" s="7"/>
       <c r="AB378" s="7"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A379" s="7"/>
       <c r="B379" s="7"/>
       <c r="C379" s="7"/>
@@ -11846,7 +11866,7 @@
       <c r="AA379" s="7"/>
       <c r="AB379" s="7"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A380" s="7"/>
       <c r="B380" s="7"/>
       <c r="C380" s="7"/>
@@ -11876,7 +11896,7 @@
       <c r="AA380" s="7"/>
       <c r="AB380" s="7"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A381" s="7"/>
       <c r="B381" s="7"/>
       <c r="C381" s="7"/>
@@ -11906,7 +11926,7 @@
       <c r="AA381" s="7"/>
       <c r="AB381" s="7"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A382" s="7"/>
       <c r="B382" s="7"/>
       <c r="C382" s="7"/>
@@ -11936,7 +11956,7 @@
       <c r="AA382" s="7"/>
       <c r="AB382" s="7"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A383" s="7"/>
       <c r="B383" s="7"/>
       <c r="C383" s="7"/>
@@ -11966,7 +11986,7 @@
       <c r="AA383" s="7"/>
       <c r="AB383" s="7"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A384" s="7"/>
       <c r="B384" s="7"/>
       <c r="C384" s="7"/>
@@ -11996,7 +12016,7 @@
       <c r="AA384" s="7"/>
       <c r="AB384" s="7"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A385" s="7"/>
       <c r="B385" s="7"/>
       <c r="C385" s="7"/>
@@ -12026,7 +12046,7 @@
       <c r="AA385" s="7"/>
       <c r="AB385" s="7"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A386" s="7"/>
       <c r="B386" s="7"/>
       <c r="C386" s="7"/>
@@ -12056,7 +12076,7 @@
       <c r="AA386" s="7"/>
       <c r="AB386" s="7"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A387" s="7"/>
       <c r="B387" s="7"/>
       <c r="C387" s="7"/>
@@ -12086,7 +12106,7 @@
       <c r="AA387" s="7"/>
       <c r="AB387" s="7"/>
     </row>
-    <row r="388">
+    <row r="388" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A388" s="7"/>
       <c r="B388" s="7"/>
       <c r="C388" s="7"/>
@@ -12116,7 +12136,7 @@
       <c r="AA388" s="7"/>
       <c r="AB388" s="7"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A389" s="7"/>
       <c r="B389" s="7"/>
       <c r="C389" s="7"/>
@@ -12146,7 +12166,7 @@
       <c r="AA389" s="7"/>
       <c r="AB389" s="7"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A390" s="7"/>
       <c r="B390" s="7"/>
       <c r="C390" s="7"/>
@@ -12176,7 +12196,7 @@
       <c r="AA390" s="7"/>
       <c r="AB390" s="7"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A391" s="7"/>
       <c r="B391" s="7"/>
       <c r="C391" s="7"/>
@@ -12206,7 +12226,7 @@
       <c r="AA391" s="7"/>
       <c r="AB391" s="7"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A392" s="7"/>
       <c r="B392" s="7"/>
       <c r="C392" s="7"/>
@@ -12236,7 +12256,7 @@
       <c r="AA392" s="7"/>
       <c r="AB392" s="7"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A393" s="7"/>
       <c r="B393" s="7"/>
       <c r="C393" s="7"/>
@@ -12266,7 +12286,7 @@
       <c r="AA393" s="7"/>
       <c r="AB393" s="7"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A394" s="7"/>
       <c r="B394" s="7"/>
       <c r="C394" s="7"/>
@@ -12296,7 +12316,7 @@
       <c r="AA394" s="7"/>
       <c r="AB394" s="7"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A395" s="7"/>
       <c r="B395" s="7"/>
       <c r="C395" s="7"/>
@@ -12326,7 +12346,7 @@
       <c r="AA395" s="7"/>
       <c r="AB395" s="7"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A396" s="7"/>
       <c r="B396" s="7"/>
       <c r="C396" s="7"/>
@@ -12356,7 +12376,7 @@
       <c r="AA396" s="7"/>
       <c r="AB396" s="7"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A397" s="7"/>
       <c r="B397" s="7"/>
       <c r="C397" s="7"/>
@@ -12386,7 +12406,7 @@
       <c r="AA397" s="7"/>
       <c r="AB397" s="7"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A398" s="7"/>
       <c r="B398" s="7"/>
       <c r="C398" s="7"/>
@@ -12416,7 +12436,7 @@
       <c r="AA398" s="7"/>
       <c r="AB398" s="7"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A399" s="7"/>
       <c r="B399" s="7"/>
       <c r="C399" s="7"/>
@@ -12446,7 +12466,7 @@
       <c r="AA399" s="7"/>
       <c r="AB399" s="7"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A400" s="7"/>
       <c r="B400" s="7"/>
       <c r="C400" s="7"/>
@@ -12476,7 +12496,7 @@
       <c r="AA400" s="7"/>
       <c r="AB400" s="7"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A401" s="7"/>
       <c r="B401" s="7"/>
       <c r="C401" s="7"/>
@@ -12506,7 +12526,7 @@
       <c r="AA401" s="7"/>
       <c r="AB401" s="7"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A402" s="7"/>
       <c r="B402" s="7"/>
       <c r="C402" s="7"/>
@@ -12536,7 +12556,7 @@
       <c r="AA402" s="7"/>
       <c r="AB402" s="7"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A403" s="7"/>
       <c r="B403" s="7"/>
       <c r="C403" s="7"/>
@@ -12566,7 +12586,7 @@
       <c r="AA403" s="7"/>
       <c r="AB403" s="7"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A404" s="7"/>
       <c r="B404" s="7"/>
       <c r="C404" s="7"/>
@@ -12596,7 +12616,7 @@
       <c r="AA404" s="7"/>
       <c r="AB404" s="7"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A405" s="7"/>
       <c r="B405" s="7"/>
       <c r="C405" s="7"/>
@@ -12626,7 +12646,7 @@
       <c r="AA405" s="7"/>
       <c r="AB405" s="7"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A406" s="7"/>
       <c r="B406" s="7"/>
       <c r="C406" s="7"/>
@@ -12656,7 +12676,7 @@
       <c r="AA406" s="7"/>
       <c r="AB406" s="7"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A407" s="7"/>
       <c r="B407" s="7"/>
       <c r="C407" s="7"/>
@@ -12686,7 +12706,7 @@
       <c r="AA407" s="7"/>
       <c r="AB407" s="7"/>
     </row>
-    <row r="408">
+    <row r="408" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A408" s="7"/>
       <c r="B408" s="7"/>
       <c r="C408" s="7"/>
@@ -12716,7 +12736,7 @@
       <c r="AA408" s="7"/>
       <c r="AB408" s="7"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A409" s="7"/>
       <c r="B409" s="7"/>
       <c r="C409" s="7"/>
@@ -12746,7 +12766,7 @@
       <c r="AA409" s="7"/>
       <c r="AB409" s="7"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A410" s="7"/>
       <c r="B410" s="7"/>
       <c r="C410" s="7"/>
@@ -12776,7 +12796,7 @@
       <c r="AA410" s="7"/>
       <c r="AB410" s="7"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A411" s="7"/>
       <c r="B411" s="7"/>
       <c r="C411" s="7"/>
@@ -12806,7 +12826,7 @@
       <c r="AA411" s="7"/>
       <c r="AB411" s="7"/>
     </row>
-    <row r="412">
+    <row r="412" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A412" s="7"/>
       <c r="B412" s="7"/>
       <c r="C412" s="7"/>
@@ -12836,7 +12856,7 @@
       <c r="AA412" s="7"/>
       <c r="AB412" s="7"/>
     </row>
-    <row r="413">
+    <row r="413" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A413" s="7"/>
       <c r="B413" s="7"/>
       <c r="C413" s="7"/>
@@ -12866,7 +12886,7 @@
       <c r="AA413" s="7"/>
       <c r="AB413" s="7"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A414" s="7"/>
       <c r="B414" s="7"/>
       <c r="C414" s="7"/>
@@ -12896,7 +12916,7 @@
       <c r="AA414" s="7"/>
       <c r="AB414" s="7"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A415" s="7"/>
       <c r="B415" s="7"/>
       <c r="C415" s="7"/>
@@ -12926,7 +12946,7 @@
       <c r="AA415" s="7"/>
       <c r="AB415" s="7"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A416" s="7"/>
       <c r="B416" s="7"/>
       <c r="C416" s="7"/>
@@ -12956,7 +12976,7 @@
       <c r="AA416" s="7"/>
       <c r="AB416" s="7"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A417" s="7"/>
       <c r="B417" s="7"/>
       <c r="C417" s="7"/>
@@ -12986,7 +13006,7 @@
       <c r="AA417" s="7"/>
       <c r="AB417" s="7"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A418" s="7"/>
       <c r="B418" s="7"/>
       <c r="C418" s="7"/>
@@ -13016,7 +13036,7 @@
       <c r="AA418" s="7"/>
       <c r="AB418" s="7"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A419" s="7"/>
       <c r="B419" s="7"/>
       <c r="C419" s="7"/>
@@ -13046,7 +13066,7 @@
       <c r="AA419" s="7"/>
       <c r="AB419" s="7"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A420" s="7"/>
       <c r="B420" s="7"/>
       <c r="C420" s="7"/>
@@ -13076,7 +13096,7 @@
       <c r="AA420" s="7"/>
       <c r="AB420" s="7"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A421" s="7"/>
       <c r="B421" s="7"/>
       <c r="C421" s="7"/>
@@ -13106,7 +13126,7 @@
       <c r="AA421" s="7"/>
       <c r="AB421" s="7"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A422" s="7"/>
       <c r="B422" s="7"/>
       <c r="C422" s="7"/>
@@ -13136,7 +13156,7 @@
       <c r="AA422" s="7"/>
       <c r="AB422" s="7"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A423" s="7"/>
       <c r="B423" s="7"/>
       <c r="C423" s="7"/>
@@ -13166,7 +13186,7 @@
       <c r="AA423" s="7"/>
       <c r="AB423" s="7"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A424" s="7"/>
       <c r="B424" s="7"/>
       <c r="C424" s="7"/>
@@ -13196,7 +13216,7 @@
       <c r="AA424" s="7"/>
       <c r="AB424" s="7"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A425" s="7"/>
       <c r="B425" s="7"/>
       <c r="C425" s="7"/>
@@ -13226,7 +13246,7 @@
       <c r="AA425" s="7"/>
       <c r="AB425" s="7"/>
     </row>
-    <row r="426">
+    <row r="426" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A426" s="7"/>
       <c r="B426" s="7"/>
       <c r="C426" s="7"/>
@@ -13256,7 +13276,7 @@
       <c r="AA426" s="7"/>
       <c r="AB426" s="7"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A427" s="7"/>
       <c r="B427" s="7"/>
       <c r="C427" s="7"/>
@@ -13286,7 +13306,7 @@
       <c r="AA427" s="7"/>
       <c r="AB427" s="7"/>
     </row>
-    <row r="428">
+    <row r="428" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A428" s="7"/>
       <c r="B428" s="7"/>
       <c r="C428" s="7"/>
@@ -13316,7 +13336,7 @@
       <c r="AA428" s="7"/>
       <c r="AB428" s="7"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A429" s="7"/>
       <c r="B429" s="7"/>
       <c r="C429" s="7"/>
@@ -13346,7 +13366,7 @@
       <c r="AA429" s="7"/>
       <c r="AB429" s="7"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A430" s="7"/>
       <c r="B430" s="7"/>
       <c r="C430" s="7"/>
@@ -13376,7 +13396,7 @@
       <c r="AA430" s="7"/>
       <c r="AB430" s="7"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A431" s="7"/>
       <c r="B431" s="7"/>
       <c r="C431" s="7"/>
@@ -13406,7 +13426,7 @@
       <c r="AA431" s="7"/>
       <c r="AB431" s="7"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A432" s="7"/>
       <c r="B432" s="7"/>
       <c r="C432" s="7"/>
@@ -13436,7 +13456,7 @@
       <c r="AA432" s="7"/>
       <c r="AB432" s="7"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A433" s="7"/>
       <c r="B433" s="7"/>
       <c r="C433" s="7"/>
@@ -13466,7 +13486,7 @@
       <c r="AA433" s="7"/>
       <c r="AB433" s="7"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A434" s="7"/>
       <c r="B434" s="7"/>
       <c r="C434" s="7"/>
@@ -13496,7 +13516,7 @@
       <c r="AA434" s="7"/>
       <c r="AB434" s="7"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A435" s="7"/>
       <c r="B435" s="7"/>
       <c r="C435" s="7"/>
@@ -13526,7 +13546,7 @@
       <c r="AA435" s="7"/>
       <c r="AB435" s="7"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A436" s="7"/>
       <c r="B436" s="7"/>
       <c r="C436" s="7"/>
@@ -13556,7 +13576,7 @@
       <c r="AA436" s="7"/>
       <c r="AB436" s="7"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A437" s="7"/>
       <c r="B437" s="7"/>
       <c r="C437" s="7"/>
@@ -13586,7 +13606,7 @@
       <c r="AA437" s="7"/>
       <c r="AB437" s="7"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A438" s="7"/>
       <c r="B438" s="7"/>
       <c r="C438" s="7"/>
@@ -13616,7 +13636,7 @@
       <c r="AA438" s="7"/>
       <c r="AB438" s="7"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A439" s="7"/>
       <c r="B439" s="7"/>
       <c r="C439" s="7"/>
@@ -13646,7 +13666,7 @@
       <c r="AA439" s="7"/>
       <c r="AB439" s="7"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A440" s="7"/>
       <c r="B440" s="7"/>
       <c r="C440" s="7"/>
@@ -13676,7 +13696,7 @@
       <c r="AA440" s="7"/>
       <c r="AB440" s="7"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A441" s="7"/>
       <c r="B441" s="7"/>
       <c r="C441" s="7"/>
@@ -13706,7 +13726,7 @@
       <c r="AA441" s="7"/>
       <c r="AB441" s="7"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A442" s="7"/>
       <c r="B442" s="7"/>
       <c r="C442" s="7"/>
@@ -13736,7 +13756,7 @@
       <c r="AA442" s="7"/>
       <c r="AB442" s="7"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A443" s="7"/>
       <c r="B443" s="7"/>
       <c r="C443" s="7"/>
@@ -13766,7 +13786,7 @@
       <c r="AA443" s="7"/>
       <c r="AB443" s="7"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A444" s="7"/>
       <c r="B444" s="7"/>
       <c r="C444" s="7"/>
@@ -13796,7 +13816,7 @@
       <c r="AA444" s="7"/>
       <c r="AB444" s="7"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A445" s="7"/>
       <c r="B445" s="7"/>
       <c r="C445" s="7"/>
@@ -13826,7 +13846,7 @@
       <c r="AA445" s="7"/>
       <c r="AB445" s="7"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A446" s="7"/>
       <c r="B446" s="7"/>
       <c r="C446" s="7"/>
@@ -13856,7 +13876,7 @@
       <c r="AA446" s="7"/>
       <c r="AB446" s="7"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A447" s="7"/>
       <c r="B447" s="7"/>
       <c r="C447" s="7"/>
@@ -13886,7 +13906,7 @@
       <c r="AA447" s="7"/>
       <c r="AB447" s="7"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A448" s="7"/>
       <c r="B448" s="7"/>
       <c r="C448" s="7"/>
@@ -13916,7 +13936,7 @@
       <c r="AA448" s="7"/>
       <c r="AB448" s="7"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A449" s="7"/>
       <c r="B449" s="7"/>
       <c r="C449" s="7"/>
@@ -13946,7 +13966,7 @@
       <c r="AA449" s="7"/>
       <c r="AB449" s="7"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A450" s="7"/>
       <c r="B450" s="7"/>
       <c r="C450" s="7"/>
@@ -13976,7 +13996,7 @@
       <c r="AA450" s="7"/>
       <c r="AB450" s="7"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A451" s="7"/>
       <c r="B451" s="7"/>
       <c r="C451" s="7"/>
@@ -14006,7 +14026,7 @@
       <c r="AA451" s="7"/>
       <c r="AB451" s="7"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A452" s="7"/>
       <c r="B452" s="7"/>
       <c r="C452" s="7"/>
@@ -14036,7 +14056,7 @@
       <c r="AA452" s="7"/>
       <c r="AB452" s="7"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A453" s="7"/>
       <c r="B453" s="7"/>
       <c r="C453" s="7"/>
@@ -14066,7 +14086,7 @@
       <c r="AA453" s="7"/>
       <c r="AB453" s="7"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A454" s="7"/>
       <c r="B454" s="7"/>
       <c r="C454" s="7"/>
@@ -14096,7 +14116,7 @@
       <c r="AA454" s="7"/>
       <c r="AB454" s="7"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A455" s="7"/>
       <c r="B455" s="7"/>
       <c r="C455" s="7"/>
@@ -14126,7 +14146,7 @@
       <c r="AA455" s="7"/>
       <c r="AB455" s="7"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A456" s="7"/>
       <c r="B456" s="7"/>
       <c r="C456" s="7"/>
@@ -14156,7 +14176,7 @@
       <c r="AA456" s="7"/>
       <c r="AB456" s="7"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A457" s="7"/>
       <c r="B457" s="7"/>
       <c r="C457" s="7"/>
@@ -14186,7 +14206,7 @@
       <c r="AA457" s="7"/>
       <c r="AB457" s="7"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A458" s="7"/>
       <c r="B458" s="7"/>
       <c r="C458" s="7"/>
@@ -14216,7 +14236,7 @@
       <c r="AA458" s="7"/>
       <c r="AB458" s="7"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A459" s="7"/>
       <c r="B459" s="7"/>
       <c r="C459" s="7"/>
@@ -14246,7 +14266,7 @@
       <c r="AA459" s="7"/>
       <c r="AB459" s="7"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A460" s="7"/>
       <c r="B460" s="7"/>
       <c r="C460" s="7"/>
@@ -14276,7 +14296,7 @@
       <c r="AA460" s="7"/>
       <c r="AB460" s="7"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A461" s="7"/>
       <c r="B461" s="7"/>
       <c r="C461" s="7"/>
@@ -14306,7 +14326,7 @@
       <c r="AA461" s="7"/>
       <c r="AB461" s="7"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A462" s="7"/>
       <c r="B462" s="7"/>
       <c r="C462" s="7"/>
@@ -14336,7 +14356,7 @@
       <c r="AA462" s="7"/>
       <c r="AB462" s="7"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A463" s="7"/>
       <c r="B463" s="7"/>
       <c r="C463" s="7"/>
@@ -14366,7 +14386,7 @@
       <c r="AA463" s="7"/>
       <c r="AB463" s="7"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A464" s="7"/>
       <c r="B464" s="7"/>
       <c r="C464" s="7"/>
@@ -14396,7 +14416,7 @@
       <c r="AA464" s="7"/>
       <c r="AB464" s="7"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A465" s="7"/>
       <c r="B465" s="7"/>
       <c r="C465" s="7"/>
@@ -14426,7 +14446,7 @@
       <c r="AA465" s="7"/>
       <c r="AB465" s="7"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A466" s="7"/>
       <c r="B466" s="7"/>
       <c r="C466" s="7"/>
@@ -14456,7 +14476,7 @@
       <c r="AA466" s="7"/>
       <c r="AB466" s="7"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A467" s="7"/>
       <c r="B467" s="7"/>
       <c r="C467" s="7"/>
@@ -14486,7 +14506,7 @@
       <c r="AA467" s="7"/>
       <c r="AB467" s="7"/>
     </row>
-    <row r="468">
+    <row r="468" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A468" s="7"/>
       <c r="B468" s="7"/>
       <c r="C468" s="7"/>
@@ -14516,7 +14536,7 @@
       <c r="AA468" s="7"/>
       <c r="AB468" s="7"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A469" s="7"/>
       <c r="B469" s="7"/>
       <c r="C469" s="7"/>
@@ -14546,7 +14566,7 @@
       <c r="AA469" s="7"/>
       <c r="AB469" s="7"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A470" s="7"/>
       <c r="B470" s="7"/>
       <c r="C470" s="7"/>
@@ -14576,7 +14596,7 @@
       <c r="AA470" s="7"/>
       <c r="AB470" s="7"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A471" s="7"/>
       <c r="B471" s="7"/>
       <c r="C471" s="7"/>
@@ -14606,7 +14626,7 @@
       <c r="AA471" s="7"/>
       <c r="AB471" s="7"/>
     </row>
-    <row r="472">
+    <row r="472" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A472" s="7"/>
       <c r="B472" s="7"/>
       <c r="C472" s="7"/>
@@ -14636,7 +14656,7 @@
       <c r="AA472" s="7"/>
       <c r="AB472" s="7"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A473" s="7"/>
       <c r="B473" s="7"/>
       <c r="C473" s="7"/>
@@ -14666,7 +14686,7 @@
       <c r="AA473" s="7"/>
       <c r="AB473" s="7"/>
     </row>
-    <row r="474">
+    <row r="474" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A474" s="7"/>
       <c r="B474" s="7"/>
       <c r="C474" s="7"/>
@@ -14696,7 +14716,7 @@
       <c r="AA474" s="7"/>
       <c r="AB474" s="7"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A475" s="7"/>
       <c r="B475" s="7"/>
       <c r="C475" s="7"/>
@@ -14726,7 +14746,7 @@
       <c r="AA475" s="7"/>
       <c r="AB475" s="7"/>
     </row>
-    <row r="476">
+    <row r="476" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A476" s="7"/>
       <c r="B476" s="7"/>
       <c r="C476" s="7"/>
@@ -14756,7 +14776,7 @@
       <c r="AA476" s="7"/>
       <c r="AB476" s="7"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A477" s="7"/>
       <c r="B477" s="7"/>
       <c r="C477" s="7"/>
@@ -14786,7 +14806,7 @@
       <c r="AA477" s="7"/>
       <c r="AB477" s="7"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A478" s="7"/>
       <c r="B478" s="7"/>
       <c r="C478" s="7"/>
@@ -14816,7 +14836,7 @@
       <c r="AA478" s="7"/>
       <c r="AB478" s="7"/>
     </row>
-    <row r="479">
+    <row r="479" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A479" s="7"/>
       <c r="B479" s="7"/>
       <c r="C479" s="7"/>
@@ -14846,7 +14866,7 @@
       <c r="AA479" s="7"/>
       <c r="AB479" s="7"/>
     </row>
-    <row r="480">
+    <row r="480" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A480" s="7"/>
       <c r="B480" s="7"/>
       <c r="C480" s="7"/>
@@ -14876,7 +14896,7 @@
       <c r="AA480" s="7"/>
       <c r="AB480" s="7"/>
     </row>
-    <row r="481">
+    <row r="481" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A481" s="7"/>
       <c r="B481" s="7"/>
       <c r="C481" s="7"/>
@@ -14906,7 +14926,7 @@
       <c r="AA481" s="7"/>
       <c r="AB481" s="7"/>
     </row>
-    <row r="482">
+    <row r="482" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A482" s="7"/>
       <c r="B482" s="7"/>
       <c r="C482" s="7"/>
@@ -14936,7 +14956,7 @@
       <c r="AA482" s="7"/>
       <c r="AB482" s="7"/>
     </row>
-    <row r="483">
+    <row r="483" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A483" s="7"/>
       <c r="B483" s="7"/>
       <c r="C483" s="7"/>
@@ -14966,7 +14986,7 @@
       <c r="AA483" s="7"/>
       <c r="AB483" s="7"/>
     </row>
-    <row r="484">
+    <row r="484" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A484" s="7"/>
       <c r="B484" s="7"/>
       <c r="C484" s="7"/>
@@ -14996,7 +15016,7 @@
       <c r="AA484" s="7"/>
       <c r="AB484" s="7"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A485" s="7"/>
       <c r="B485" s="7"/>
       <c r="C485" s="7"/>
@@ -15026,7 +15046,7 @@
       <c r="AA485" s="7"/>
       <c r="AB485" s="7"/>
     </row>
-    <row r="486">
+    <row r="486" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A486" s="7"/>
       <c r="B486" s="7"/>
       <c r="C486" s="7"/>
@@ -15056,7 +15076,7 @@
       <c r="AA486" s="7"/>
       <c r="AB486" s="7"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A487" s="7"/>
       <c r="B487" s="7"/>
       <c r="C487" s="7"/>
@@ -15086,7 +15106,7 @@
       <c r="AA487" s="7"/>
       <c r="AB487" s="7"/>
     </row>
-    <row r="488">
+    <row r="488" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A488" s="7"/>
       <c r="B488" s="7"/>
       <c r="C488" s="7"/>
@@ -15116,7 +15136,7 @@
       <c r="AA488" s="7"/>
       <c r="AB488" s="7"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A489" s="7"/>
       <c r="B489" s="7"/>
       <c r="C489" s="7"/>
@@ -15146,7 +15166,7 @@
       <c r="AA489" s="7"/>
       <c r="AB489" s="7"/>
     </row>
-    <row r="490">
+    <row r="490" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A490" s="7"/>
       <c r="B490" s="7"/>
       <c r="C490" s="7"/>
@@ -15176,7 +15196,7 @@
       <c r="AA490" s="7"/>
       <c r="AB490" s="7"/>
     </row>
-    <row r="491">
+    <row r="491" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A491" s="7"/>
       <c r="B491" s="7"/>
       <c r="C491" s="7"/>
@@ -15206,7 +15226,7 @@
       <c r="AA491" s="7"/>
       <c r="AB491" s="7"/>
     </row>
-    <row r="492">
+    <row r="492" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A492" s="7"/>
       <c r="B492" s="7"/>
       <c r="C492" s="7"/>
@@ -15236,7 +15256,7 @@
       <c r="AA492" s="7"/>
       <c r="AB492" s="7"/>
     </row>
-    <row r="493">
+    <row r="493" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A493" s="7"/>
       <c r="B493" s="7"/>
       <c r="C493" s="7"/>
@@ -15266,7 +15286,7 @@
       <c r="AA493" s="7"/>
       <c r="AB493" s="7"/>
     </row>
-    <row r="494">
+    <row r="494" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A494" s="7"/>
       <c r="B494" s="7"/>
       <c r="C494" s="7"/>
@@ -15296,7 +15316,7 @@
       <c r="AA494" s="7"/>
       <c r="AB494" s="7"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A495" s="7"/>
       <c r="B495" s="7"/>
       <c r="C495" s="7"/>
@@ -15326,7 +15346,7 @@
       <c r="AA495" s="7"/>
       <c r="AB495" s="7"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A496" s="7"/>
       <c r="B496" s="7"/>
       <c r="C496" s="7"/>
@@ -15356,7 +15376,7 @@
       <c r="AA496" s="7"/>
       <c r="AB496" s="7"/>
     </row>
-    <row r="497">
+    <row r="497" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A497" s="7"/>
       <c r="B497" s="7"/>
       <c r="C497" s="7"/>
@@ -15386,7 +15406,7 @@
       <c r="AA497" s="7"/>
       <c r="AB497" s="7"/>
     </row>
-    <row r="498">
+    <row r="498" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A498" s="7"/>
       <c r="B498" s="7"/>
       <c r="C498" s="7"/>
@@ -15416,7 +15436,7 @@
       <c r="AA498" s="7"/>
       <c r="AB498" s="7"/>
     </row>
-    <row r="499">
+    <row r="499" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A499" s="7"/>
       <c r="B499" s="7"/>
       <c r="C499" s="7"/>
@@ -15446,7 +15466,7 @@
       <c r="AA499" s="7"/>
       <c r="AB499" s="7"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A500" s="7"/>
       <c r="B500" s="7"/>
       <c r="C500" s="7"/>
@@ -15476,7 +15496,7 @@
       <c r="AA500" s="7"/>
       <c r="AB500" s="7"/>
     </row>
-    <row r="501">
+    <row r="501" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A501" s="7"/>
       <c r="B501" s="7"/>
       <c r="C501" s="7"/>
@@ -15506,7 +15526,7 @@
       <c r="AA501" s="7"/>
       <c r="AB501" s="7"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A502" s="7"/>
       <c r="B502" s="7"/>
       <c r="C502" s="7"/>
@@ -15536,7 +15556,7 @@
       <c r="AA502" s="7"/>
       <c r="AB502" s="7"/>
     </row>
-    <row r="503">
+    <row r="503" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A503" s="7"/>
       <c r="B503" s="7"/>
       <c r="C503" s="7"/>
@@ -15566,7 +15586,7 @@
       <c r="AA503" s="7"/>
       <c r="AB503" s="7"/>
     </row>
-    <row r="504">
+    <row r="504" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A504" s="7"/>
       <c r="B504" s="7"/>
       <c r="C504" s="7"/>
@@ -15596,7 +15616,7 @@
       <c r="AA504" s="7"/>
       <c r="AB504" s="7"/>
     </row>
-    <row r="505">
+    <row r="505" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A505" s="7"/>
       <c r="B505" s="7"/>
       <c r="C505" s="7"/>
@@ -15626,7 +15646,7 @@
       <c r="AA505" s="7"/>
       <c r="AB505" s="7"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A506" s="7"/>
       <c r="B506" s="7"/>
       <c r="C506" s="7"/>
@@ -15656,7 +15676,7 @@
       <c r="AA506" s="7"/>
       <c r="AB506" s="7"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A507" s="7"/>
       <c r="B507" s="7"/>
       <c r="C507" s="7"/>
@@ -15686,7 +15706,7 @@
       <c r="AA507" s="7"/>
       <c r="AB507" s="7"/>
     </row>
-    <row r="508">
+    <row r="508" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A508" s="7"/>
       <c r="B508" s="7"/>
       <c r="C508" s="7"/>
@@ -15716,7 +15736,7 @@
       <c r="AA508" s="7"/>
       <c r="AB508" s="7"/>
     </row>
-    <row r="509">
+    <row r="509" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A509" s="7"/>
       <c r="B509" s="7"/>
       <c r="C509" s="7"/>
@@ -15746,7 +15766,7 @@
       <c r="AA509" s="7"/>
       <c r="AB509" s="7"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A510" s="7"/>
       <c r="B510" s="7"/>
       <c r="C510" s="7"/>
@@ -15776,7 +15796,7 @@
       <c r="AA510" s="7"/>
       <c r="AB510" s="7"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A511" s="7"/>
       <c r="B511" s="7"/>
       <c r="C511" s="7"/>
@@ -15806,7 +15826,7 @@
       <c r="AA511" s="7"/>
       <c r="AB511" s="7"/>
     </row>
-    <row r="512">
+    <row r="512" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A512" s="7"/>
       <c r="B512" s="7"/>
       <c r="C512" s="7"/>
@@ -15836,7 +15856,7 @@
       <c r="AA512" s="7"/>
       <c r="AB512" s="7"/>
     </row>
-    <row r="513">
+    <row r="513" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A513" s="7"/>
       <c r="B513" s="7"/>
       <c r="C513" s="7"/>
@@ -15866,7 +15886,7 @@
       <c r="AA513" s="7"/>
       <c r="AB513" s="7"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A514" s="7"/>
       <c r="B514" s="7"/>
       <c r="C514" s="7"/>
@@ -15896,7 +15916,7 @@
       <c r="AA514" s="7"/>
       <c r="AB514" s="7"/>
     </row>
-    <row r="515">
+    <row r="515" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A515" s="7"/>
       <c r="B515" s="7"/>
       <c r="C515" s="7"/>
@@ -15926,7 +15946,7 @@
       <c r="AA515" s="7"/>
       <c r="AB515" s="7"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A516" s="7"/>
       <c r="B516" s="7"/>
       <c r="C516" s="7"/>
@@ -15956,7 +15976,7 @@
       <c r="AA516" s="7"/>
       <c r="AB516" s="7"/>
     </row>
-    <row r="517">
+    <row r="517" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A517" s="7"/>
       <c r="B517" s="7"/>
       <c r="C517" s="7"/>
@@ -15986,7 +16006,7 @@
       <c r="AA517" s="7"/>
       <c r="AB517" s="7"/>
     </row>
-    <row r="518">
+    <row r="518" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A518" s="7"/>
       <c r="B518" s="7"/>
       <c r="C518" s="7"/>
@@ -16016,7 +16036,7 @@
       <c r="AA518" s="7"/>
       <c r="AB518" s="7"/>
     </row>
-    <row r="519">
+    <row r="519" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A519" s="7"/>
       <c r="B519" s="7"/>
       <c r="C519" s="7"/>
@@ -16046,7 +16066,7 @@
       <c r="AA519" s="7"/>
       <c r="AB519" s="7"/>
     </row>
-    <row r="520">
+    <row r="520" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A520" s="7"/>
       <c r="B520" s="7"/>
       <c r="C520" s="7"/>
@@ -16076,7 +16096,7 @@
       <c r="AA520" s="7"/>
       <c r="AB520" s="7"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A521" s="7"/>
       <c r="B521" s="7"/>
       <c r="C521" s="7"/>
@@ -16106,7 +16126,7 @@
       <c r="AA521" s="7"/>
       <c r="AB521" s="7"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A522" s="7"/>
       <c r="B522" s="7"/>
       <c r="C522" s="7"/>
@@ -16136,7 +16156,7 @@
       <c r="AA522" s="7"/>
       <c r="AB522" s="7"/>
     </row>
-    <row r="523">
+    <row r="523" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A523" s="7"/>
       <c r="B523" s="7"/>
       <c r="C523" s="7"/>
@@ -16166,7 +16186,7 @@
       <c r="AA523" s="7"/>
       <c r="AB523" s="7"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A524" s="7"/>
       <c r="B524" s="7"/>
       <c r="C524" s="7"/>
@@ -16196,7 +16216,7 @@
       <c r="AA524" s="7"/>
       <c r="AB524" s="7"/>
     </row>
-    <row r="525">
+    <row r="525" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A525" s="7"/>
       <c r="B525" s="7"/>
       <c r="C525" s="7"/>
@@ -16226,7 +16246,7 @@
       <c r="AA525" s="7"/>
       <c r="AB525" s="7"/>
     </row>
-    <row r="526">
+    <row r="526" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A526" s="7"/>
       <c r="B526" s="7"/>
       <c r="C526" s="7"/>
@@ -16256,7 +16276,7 @@
       <c r="AA526" s="7"/>
       <c r="AB526" s="7"/>
     </row>
-    <row r="527">
+    <row r="527" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A527" s="7"/>
       <c r="B527" s="7"/>
       <c r="C527" s="7"/>
@@ -16286,7 +16306,7 @@
       <c r="AA527" s="7"/>
       <c r="AB527" s="7"/>
     </row>
-    <row r="528">
+    <row r="528" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A528" s="7"/>
       <c r="B528" s="7"/>
       <c r="C528" s="7"/>
@@ -16316,7 +16336,7 @@
       <c r="AA528" s="7"/>
       <c r="AB528" s="7"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A529" s="7"/>
       <c r="B529" s="7"/>
       <c r="C529" s="7"/>
@@ -16346,7 +16366,7 @@
       <c r="AA529" s="7"/>
       <c r="AB529" s="7"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A530" s="7"/>
       <c r="B530" s="7"/>
       <c r="C530" s="7"/>
@@ -16376,7 +16396,7 @@
       <c r="AA530" s="7"/>
       <c r="AB530" s="7"/>
     </row>
-    <row r="531">
+    <row r="531" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A531" s="7"/>
       <c r="B531" s="7"/>
       <c r="C531" s="7"/>
@@ -16406,7 +16426,7 @@
       <c r="AA531" s="7"/>
       <c r="AB531" s="7"/>
     </row>
-    <row r="532">
+    <row r="532" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A532" s="7"/>
       <c r="B532" s="7"/>
       <c r="C532" s="7"/>
@@ -16436,7 +16456,7 @@
       <c r="AA532" s="7"/>
       <c r="AB532" s="7"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A533" s="7"/>
       <c r="B533" s="7"/>
       <c r="C533" s="7"/>
@@ -16466,7 +16486,7 @@
       <c r="AA533" s="7"/>
       <c r="AB533" s="7"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A534" s="7"/>
       <c r="B534" s="7"/>
       <c r="C534" s="7"/>
@@ -16496,7 +16516,7 @@
       <c r="AA534" s="7"/>
       <c r="AB534" s="7"/>
     </row>
-    <row r="535">
+    <row r="535" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A535" s="7"/>
       <c r="B535" s="7"/>
       <c r="C535" s="7"/>
@@ -16526,7 +16546,7 @@
       <c r="AA535" s="7"/>
       <c r="AB535" s="7"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A536" s="7"/>
       <c r="B536" s="7"/>
       <c r="C536" s="7"/>
@@ -16556,7 +16576,7 @@
       <c r="AA536" s="7"/>
       <c r="AB536" s="7"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A537" s="7"/>
       <c r="B537" s="7"/>
       <c r="C537" s="7"/>
@@ -16586,7 +16606,7 @@
       <c r="AA537" s="7"/>
       <c r="AB537" s="7"/>
     </row>
-    <row r="538">
+    <row r="538" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A538" s="7"/>
       <c r="B538" s="7"/>
       <c r="C538" s="7"/>
@@ -16616,7 +16636,7 @@
       <c r="AA538" s="7"/>
       <c r="AB538" s="7"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A539" s="7"/>
       <c r="B539" s="7"/>
       <c r="C539" s="7"/>
@@ -16646,7 +16666,7 @@
       <c r="AA539" s="7"/>
       <c r="AB539" s="7"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A540" s="7"/>
       <c r="B540" s="7"/>
       <c r="C540" s="7"/>
@@ -16676,7 +16696,7 @@
       <c r="AA540" s="7"/>
       <c r="AB540" s="7"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A541" s="7"/>
       <c r="B541" s="7"/>
       <c r="C541" s="7"/>
@@ -16706,7 +16726,7 @@
       <c r="AA541" s="7"/>
       <c r="AB541" s="7"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A542" s="7"/>
       <c r="B542" s="7"/>
       <c r="C542" s="7"/>
@@ -16736,7 +16756,7 @@
       <c r="AA542" s="7"/>
       <c r="AB542" s="7"/>
     </row>
-    <row r="543">
+    <row r="543" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A543" s="7"/>
       <c r="B543" s="7"/>
       <c r="C543" s="7"/>
@@ -16766,7 +16786,7 @@
       <c r="AA543" s="7"/>
       <c r="AB543" s="7"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A544" s="7"/>
       <c r="B544" s="7"/>
       <c r="C544" s="7"/>
@@ -16796,7 +16816,7 @@
       <c r="AA544" s="7"/>
       <c r="AB544" s="7"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A545" s="7"/>
       <c r="B545" s="7"/>
       <c r="C545" s="7"/>
@@ -16826,7 +16846,7 @@
       <c r="AA545" s="7"/>
       <c r="AB545" s="7"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A546" s="7"/>
       <c r="B546" s="7"/>
       <c r="C546" s="7"/>
@@ -16856,7 +16876,7 @@
       <c r="AA546" s="7"/>
       <c r="AB546" s="7"/>
     </row>
-    <row r="547">
+    <row r="547" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A547" s="7"/>
       <c r="B547" s="7"/>
       <c r="C547" s="7"/>
@@ -16886,7 +16906,7 @@
       <c r="AA547" s="7"/>
       <c r="AB547" s="7"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A548" s="7"/>
       <c r="B548" s="7"/>
       <c r="C548" s="7"/>
@@ -16916,7 +16936,7 @@
       <c r="AA548" s="7"/>
       <c r="AB548" s="7"/>
     </row>
-    <row r="549">
+    <row r="549" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A549" s="7"/>
       <c r="B549" s="7"/>
       <c r="C549" s="7"/>
@@ -16946,7 +16966,7 @@
       <c r="AA549" s="7"/>
       <c r="AB549" s="7"/>
     </row>
-    <row r="550">
+    <row r="550" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A550" s="7"/>
       <c r="B550" s="7"/>
       <c r="C550" s="7"/>
@@ -16976,7 +16996,7 @@
       <c r="AA550" s="7"/>
       <c r="AB550" s="7"/>
     </row>
-    <row r="551">
+    <row r="551" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A551" s="7"/>
       <c r="B551" s="7"/>
       <c r="C551" s="7"/>
@@ -17006,7 +17026,7 @@
       <c r="AA551" s="7"/>
       <c r="AB551" s="7"/>
     </row>
-    <row r="552">
+    <row r="552" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A552" s="7"/>
       <c r="B552" s="7"/>
       <c r="C552" s="7"/>
@@ -17036,7 +17056,7 @@
       <c r="AA552" s="7"/>
       <c r="AB552" s="7"/>
     </row>
-    <row r="553">
+    <row r="553" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A553" s="7"/>
       <c r="B553" s="7"/>
       <c r="C553" s="7"/>
@@ -17066,7 +17086,7 @@
       <c r="AA553" s="7"/>
       <c r="AB553" s="7"/>
     </row>
-    <row r="554">
+    <row r="554" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A554" s="7"/>
       <c r="B554" s="7"/>
       <c r="C554" s="7"/>
@@ -17096,7 +17116,7 @@
       <c r="AA554" s="7"/>
       <c r="AB554" s="7"/>
     </row>
-    <row r="555">
+    <row r="555" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A555" s="7"/>
       <c r="B555" s="7"/>
       <c r="C555" s="7"/>
@@ -17126,7 +17146,7 @@
       <c r="AA555" s="7"/>
       <c r="AB555" s="7"/>
     </row>
-    <row r="556">
+    <row r="556" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A556" s="7"/>
       <c r="B556" s="7"/>
       <c r="C556" s="7"/>
@@ -17156,7 +17176,7 @@
       <c r="AA556" s="7"/>
       <c r="AB556" s="7"/>
     </row>
-    <row r="557">
+    <row r="557" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A557" s="7"/>
       <c r="B557" s="7"/>
       <c r="C557" s="7"/>
@@ -17186,7 +17206,7 @@
       <c r="AA557" s="7"/>
       <c r="AB557" s="7"/>
     </row>
-    <row r="558">
+    <row r="558" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A558" s="7"/>
       <c r="B558" s="7"/>
       <c r="C558" s="7"/>
@@ -17216,7 +17236,7 @@
       <c r="AA558" s="7"/>
       <c r="AB558" s="7"/>
     </row>
-    <row r="559">
+    <row r="559" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A559" s="7"/>
       <c r="B559" s="7"/>
       <c r="C559" s="7"/>
@@ -17246,7 +17266,7 @@
       <c r="AA559" s="7"/>
       <c r="AB559" s="7"/>
     </row>
-    <row r="560">
+    <row r="560" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A560" s="7"/>
       <c r="B560" s="7"/>
       <c r="C560" s="7"/>
@@ -17276,7 +17296,7 @@
       <c r="AA560" s="7"/>
       <c r="AB560" s="7"/>
     </row>
-    <row r="561">
+    <row r="561" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A561" s="7"/>
       <c r="B561" s="7"/>
       <c r="C561" s="7"/>
@@ -17306,7 +17326,7 @@
       <c r="AA561" s="7"/>
       <c r="AB561" s="7"/>
     </row>
-    <row r="562">
+    <row r="562" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A562" s="7"/>
       <c r="B562" s="7"/>
       <c r="C562" s="7"/>
@@ -17336,7 +17356,7 @@
       <c r="AA562" s="7"/>
       <c r="AB562" s="7"/>
     </row>
-    <row r="563">
+    <row r="563" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A563" s="7"/>
       <c r="B563" s="7"/>
       <c r="C563" s="7"/>
@@ -17366,7 +17386,7 @@
       <c r="AA563" s="7"/>
       <c r="AB563" s="7"/>
     </row>
-    <row r="564">
+    <row r="564" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A564" s="7"/>
       <c r="B564" s="7"/>
       <c r="C564" s="7"/>
@@ -17396,7 +17416,7 @@
       <c r="AA564" s="7"/>
       <c r="AB564" s="7"/>
     </row>
-    <row r="565">
+    <row r="565" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A565" s="7"/>
       <c r="B565" s="7"/>
       <c r="C565" s="7"/>
@@ -17426,7 +17446,7 @@
       <c r="AA565" s="7"/>
       <c r="AB565" s="7"/>
     </row>
-    <row r="566">
+    <row r="566" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A566" s="7"/>
       <c r="B566" s="7"/>
       <c r="C566" s="7"/>
@@ -17456,7 +17476,7 @@
       <c r="AA566" s="7"/>
       <c r="AB566" s="7"/>
     </row>
-    <row r="567">
+    <row r="567" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A567" s="7"/>
       <c r="B567" s="7"/>
       <c r="C567" s="7"/>
@@ -17486,7 +17506,7 @@
       <c r="AA567" s="7"/>
       <c r="AB567" s="7"/>
     </row>
-    <row r="568">
+    <row r="568" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A568" s="7"/>
       <c r="B568" s="7"/>
       <c r="C568" s="7"/>
@@ -17516,7 +17536,7 @@
       <c r="AA568" s="7"/>
       <c r="AB568" s="7"/>
     </row>
-    <row r="569">
+    <row r="569" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A569" s="7"/>
       <c r="B569" s="7"/>
       <c r="C569" s="7"/>
@@ -17546,7 +17566,7 @@
       <c r="AA569" s="7"/>
       <c r="AB569" s="7"/>
     </row>
-    <row r="570">
+    <row r="570" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A570" s="7"/>
       <c r="B570" s="7"/>
       <c r="C570" s="7"/>
@@ -17576,7 +17596,7 @@
       <c r="AA570" s="7"/>
       <c r="AB570" s="7"/>
     </row>
-    <row r="571">
+    <row r="571" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A571" s="7"/>
       <c r="B571" s="7"/>
       <c r="C571" s="7"/>
@@ -17606,7 +17626,7 @@
       <c r="AA571" s="7"/>
       <c r="AB571" s="7"/>
     </row>
-    <row r="572">
+    <row r="572" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A572" s="7"/>
       <c r="B572" s="7"/>
       <c r="C572" s="7"/>
@@ -17636,7 +17656,7 @@
       <c r="AA572" s="7"/>
       <c r="AB572" s="7"/>
     </row>
-    <row r="573">
+    <row r="573" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A573" s="7"/>
       <c r="B573" s="7"/>
       <c r="C573" s="7"/>
@@ -17666,7 +17686,7 @@
       <c r="AA573" s="7"/>
       <c r="AB573" s="7"/>
     </row>
-    <row r="574">
+    <row r="574" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A574" s="7"/>
       <c r="B574" s="7"/>
       <c r="C574" s="7"/>
@@ -17696,7 +17716,7 @@
       <c r="AA574" s="7"/>
       <c r="AB574" s="7"/>
     </row>
-    <row r="575">
+    <row r="575" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A575" s="7"/>
       <c r="B575" s="7"/>
       <c r="C575" s="7"/>
@@ -17726,7 +17746,7 @@
       <c r="AA575" s="7"/>
       <c r="AB575" s="7"/>
     </row>
-    <row r="576">
+    <row r="576" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A576" s="7"/>
       <c r="B576" s="7"/>
       <c r="C576" s="7"/>
@@ -17756,7 +17776,7 @@
       <c r="AA576" s="7"/>
       <c r="AB576" s="7"/>
     </row>
-    <row r="577">
+    <row r="577" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A577" s="7"/>
       <c r="B577" s="7"/>
       <c r="C577" s="7"/>
@@ -17786,7 +17806,7 @@
       <c r="AA577" s="7"/>
       <c r="AB577" s="7"/>
     </row>
-    <row r="578">
+    <row r="578" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A578" s="7"/>
       <c r="B578" s="7"/>
       <c r="C578" s="7"/>
@@ -17816,7 +17836,7 @@
       <c r="AA578" s="7"/>
       <c r="AB578" s="7"/>
     </row>
-    <row r="579">
+    <row r="579" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A579" s="7"/>
       <c r="B579" s="7"/>
       <c r="C579" s="7"/>
@@ -17846,7 +17866,7 @@
       <c r="AA579" s="7"/>
       <c r="AB579" s="7"/>
     </row>
-    <row r="580">
+    <row r="580" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A580" s="7"/>
       <c r="B580" s="7"/>
       <c r="C580" s="7"/>
@@ -17876,7 +17896,7 @@
       <c r="AA580" s="7"/>
       <c r="AB580" s="7"/>
     </row>
-    <row r="581">
+    <row r="581" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A581" s="7"/>
       <c r="B581" s="7"/>
       <c r="C581" s="7"/>
@@ -17906,7 +17926,7 @@
       <c r="AA581" s="7"/>
       <c r="AB581" s="7"/>
     </row>
-    <row r="582">
+    <row r="582" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A582" s="7"/>
       <c r="B582" s="7"/>
       <c r="C582" s="7"/>
@@ -17936,7 +17956,7 @@
       <c r="AA582" s="7"/>
       <c r="AB582" s="7"/>
     </row>
-    <row r="583">
+    <row r="583" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A583" s="7"/>
       <c r="B583" s="7"/>
       <c r="C583" s="7"/>
@@ -17966,7 +17986,7 @@
       <c r="AA583" s="7"/>
       <c r="AB583" s="7"/>
     </row>
-    <row r="584">
+    <row r="584" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A584" s="7"/>
       <c r="B584" s="7"/>
       <c r="C584" s="7"/>
@@ -17996,7 +18016,7 @@
       <c r="AA584" s="7"/>
       <c r="AB584" s="7"/>
     </row>
-    <row r="585">
+    <row r="585" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A585" s="7"/>
       <c r="B585" s="7"/>
       <c r="C585" s="7"/>
@@ -18026,7 +18046,7 @@
       <c r="AA585" s="7"/>
       <c r="AB585" s="7"/>
     </row>
-    <row r="586">
+    <row r="586" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A586" s="7"/>
       <c r="B586" s="7"/>
       <c r="C586" s="7"/>
@@ -18056,7 +18076,7 @@
       <c r="AA586" s="7"/>
       <c r="AB586" s="7"/>
     </row>
-    <row r="587">
+    <row r="587" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A587" s="7"/>
       <c r="B587" s="7"/>
       <c r="C587" s="7"/>
@@ -18086,7 +18106,7 @@
       <c r="AA587" s="7"/>
       <c r="AB587" s="7"/>
     </row>
-    <row r="588">
+    <row r="588" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A588" s="7"/>
       <c r="B588" s="7"/>
       <c r="C588" s="7"/>
@@ -18116,7 +18136,7 @@
       <c r="AA588" s="7"/>
       <c r="AB588" s="7"/>
     </row>
-    <row r="589">
+    <row r="589" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A589" s="7"/>
       <c r="B589" s="7"/>
       <c r="C589" s="7"/>
@@ -18146,7 +18166,7 @@
       <c r="AA589" s="7"/>
       <c r="AB589" s="7"/>
     </row>
-    <row r="590">
+    <row r="590" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A590" s="7"/>
       <c r="B590" s="7"/>
       <c r="C590" s="7"/>
@@ -18176,7 +18196,7 @@
       <c r="AA590" s="7"/>
       <c r="AB590" s="7"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A591" s="7"/>
       <c r="B591" s="7"/>
       <c r="C591" s="7"/>
@@ -18206,7 +18226,7 @@
       <c r="AA591" s="7"/>
       <c r="AB591" s="7"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A592" s="7"/>
       <c r="B592" s="7"/>
       <c r="C592" s="7"/>
@@ -18236,7 +18256,7 @@
       <c r="AA592" s="7"/>
       <c r="AB592" s="7"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A593" s="7"/>
       <c r="B593" s="7"/>
       <c r="C593" s="7"/>
@@ -18266,7 +18286,7 @@
       <c r="AA593" s="7"/>
       <c r="AB593" s="7"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A594" s="7"/>
       <c r="B594" s="7"/>
       <c r="C594" s="7"/>
@@ -18296,7 +18316,7 @@
       <c r="AA594" s="7"/>
       <c r="AB594" s="7"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A595" s="7"/>
       <c r="B595" s="7"/>
       <c r="C595" s="7"/>
@@ -18326,7 +18346,7 @@
       <c r="AA595" s="7"/>
       <c r="AB595" s="7"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A596" s="7"/>
       <c r="B596" s="7"/>
       <c r="C596" s="7"/>
@@ -18356,7 +18376,7 @@
       <c r="AA596" s="7"/>
       <c r="AB596" s="7"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A597" s="7"/>
       <c r="B597" s="7"/>
       <c r="C597" s="7"/>
@@ -18386,7 +18406,7 @@
       <c r="AA597" s="7"/>
       <c r="AB597" s="7"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A598" s="7"/>
       <c r="B598" s="7"/>
       <c r="C598" s="7"/>
@@ -18416,7 +18436,7 @@
       <c r="AA598" s="7"/>
       <c r="AB598" s="7"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A599" s="7"/>
       <c r="B599" s="7"/>
       <c r="C599" s="7"/>
@@ -18446,7 +18466,7 @@
       <c r="AA599" s="7"/>
       <c r="AB599" s="7"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A600" s="7"/>
       <c r="B600" s="7"/>
       <c r="C600" s="7"/>
@@ -18476,7 +18496,7 @@
       <c r="AA600" s="7"/>
       <c r="AB600" s="7"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A601" s="7"/>
       <c r="B601" s="7"/>
       <c r="C601" s="7"/>
@@ -18506,7 +18526,7 @@
       <c r="AA601" s="7"/>
       <c r="AB601" s="7"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A602" s="7"/>
       <c r="B602" s="7"/>
       <c r="C602" s="7"/>
@@ -18536,7 +18556,7 @@
       <c r="AA602" s="7"/>
       <c r="AB602" s="7"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A603" s="7"/>
       <c r="B603" s="7"/>
       <c r="C603" s="7"/>
@@ -18566,7 +18586,7 @@
       <c r="AA603" s="7"/>
       <c r="AB603" s="7"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A604" s="7"/>
       <c r="B604" s="7"/>
       <c r="C604" s="7"/>
@@ -18596,7 +18616,7 @@
       <c r="AA604" s="7"/>
       <c r="AB604" s="7"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A605" s="7"/>
       <c r="B605" s="7"/>
       <c r="C605" s="7"/>
@@ -18626,7 +18646,7 @@
       <c r="AA605" s="7"/>
       <c r="AB605" s="7"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A606" s="7"/>
       <c r="B606" s="7"/>
       <c r="C606" s="7"/>
@@ -18656,7 +18676,7 @@
       <c r="AA606" s="7"/>
       <c r="AB606" s="7"/>
     </row>
-    <row r="607">
+    <row r="607" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A607" s="7"/>
       <c r="B607" s="7"/>
       <c r="C607" s="7"/>
@@ -18686,7 +18706,7 @@
       <c r="AA607" s="7"/>
       <c r="AB607" s="7"/>
     </row>
-    <row r="608">
+    <row r="608" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A608" s="7"/>
       <c r="B608" s="7"/>
       <c r="C608" s="7"/>
@@ -18716,7 +18736,7 @@
       <c r="AA608" s="7"/>
       <c r="AB608" s="7"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A609" s="7"/>
       <c r="B609" s="7"/>
       <c r="C609" s="7"/>
@@ -18746,7 +18766,7 @@
       <c r="AA609" s="7"/>
       <c r="AB609" s="7"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A610" s="7"/>
       <c r="B610" s="7"/>
       <c r="C610" s="7"/>
@@ -18776,7 +18796,7 @@
       <c r="AA610" s="7"/>
       <c r="AB610" s="7"/>
     </row>
-    <row r="611">
+    <row r="611" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A611" s="7"/>
       <c r="B611" s="7"/>
       <c r="C611" s="7"/>
@@ -18806,7 +18826,7 @@
       <c r="AA611" s="7"/>
       <c r="AB611" s="7"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A612" s="7"/>
       <c r="B612" s="7"/>
       <c r="C612" s="7"/>
@@ -18836,7 +18856,7 @@
       <c r="AA612" s="7"/>
       <c r="AB612" s="7"/>
     </row>
-    <row r="613">
+    <row r="613" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A613" s="7"/>
       <c r="B613" s="7"/>
       <c r="C613" s="7"/>
@@ -18866,7 +18886,7 @@
       <c r="AA613" s="7"/>
       <c r="AB613" s="7"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A614" s="7"/>
       <c r="B614" s="7"/>
       <c r="C614" s="7"/>
@@ -18896,7 +18916,7 @@
       <c r="AA614" s="7"/>
       <c r="AB614" s="7"/>
     </row>
-    <row r="615">
+    <row r="615" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A615" s="7"/>
       <c r="B615" s="7"/>
       <c r="C615" s="7"/>
@@ -18926,7 +18946,7 @@
       <c r="AA615" s="7"/>
       <c r="AB615" s="7"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A616" s="7"/>
       <c r="B616" s="7"/>
       <c r="C616" s="7"/>
@@ -18956,7 +18976,7 @@
       <c r="AA616" s="7"/>
       <c r="AB616" s="7"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A617" s="7"/>
       <c r="B617" s="7"/>
       <c r="C617" s="7"/>
@@ -18986,7 +19006,7 @@
       <c r="AA617" s="7"/>
       <c r="AB617" s="7"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A618" s="7"/>
       <c r="B618" s="7"/>
       <c r="C618" s="7"/>
@@ -19016,7 +19036,7 @@
       <c r="AA618" s="7"/>
       <c r="AB618" s="7"/>
     </row>
-    <row r="619">
+    <row r="619" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A619" s="7"/>
       <c r="B619" s="7"/>
       <c r="C619" s="7"/>
@@ -19046,7 +19066,7 @@
       <c r="AA619" s="7"/>
       <c r="AB619" s="7"/>
     </row>
-    <row r="620">
+    <row r="620" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A620" s="7"/>
       <c r="B620" s="7"/>
       <c r="C620" s="7"/>
@@ -19076,7 +19096,7 @@
       <c r="AA620" s="7"/>
       <c r="AB620" s="7"/>
     </row>
-    <row r="621">
+    <row r="621" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A621" s="7"/>
       <c r="B621" s="7"/>
       <c r="C621" s="7"/>
@@ -19106,7 +19126,7 @@
       <c r="AA621" s="7"/>
       <c r="AB621" s="7"/>
     </row>
-    <row r="622">
+    <row r="622" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A622" s="7"/>
       <c r="B622" s="7"/>
       <c r="C622" s="7"/>
@@ -19136,7 +19156,7 @@
       <c r="AA622" s="7"/>
       <c r="AB622" s="7"/>
     </row>
-    <row r="623">
+    <row r="623" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A623" s="7"/>
       <c r="B623" s="7"/>
       <c r="C623" s="7"/>
@@ -19166,7 +19186,7 @@
       <c r="AA623" s="7"/>
       <c r="AB623" s="7"/>
     </row>
-    <row r="624">
+    <row r="624" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A624" s="7"/>
       <c r="B624" s="7"/>
       <c r="C624" s="7"/>
@@ -19196,7 +19216,7 @@
       <c r="AA624" s="7"/>
       <c r="AB624" s="7"/>
     </row>
-    <row r="625">
+    <row r="625" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A625" s="7"/>
       <c r="B625" s="7"/>
       <c r="C625" s="7"/>
@@ -19226,7 +19246,7 @@
       <c r="AA625" s="7"/>
       <c r="AB625" s="7"/>
     </row>
-    <row r="626">
+    <row r="626" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A626" s="7"/>
       <c r="B626" s="7"/>
       <c r="C626" s="7"/>
@@ -19256,7 +19276,7 @@
       <c r="AA626" s="7"/>
       <c r="AB626" s="7"/>
     </row>
-    <row r="627">
+    <row r="627" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A627" s="7"/>
       <c r="B627" s="7"/>
       <c r="C627" s="7"/>
@@ -19286,7 +19306,7 @@
       <c r="AA627" s="7"/>
       <c r="AB627" s="7"/>
     </row>
-    <row r="628">
+    <row r="628" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A628" s="7"/>
       <c r="B628" s="7"/>
       <c r="C628" s="7"/>
@@ -19316,7 +19336,7 @@
       <c r="AA628" s="7"/>
       <c r="AB628" s="7"/>
     </row>
-    <row r="629">
+    <row r="629" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A629" s="7"/>
       <c r="B629" s="7"/>
       <c r="C629" s="7"/>
@@ -19346,7 +19366,7 @@
       <c r="AA629" s="7"/>
       <c r="AB629" s="7"/>
     </row>
-    <row r="630">
+    <row r="630" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A630" s="7"/>
       <c r="B630" s="7"/>
       <c r="C630" s="7"/>
@@ -19376,7 +19396,7 @@
       <c r="AA630" s="7"/>
       <c r="AB630" s="7"/>
     </row>
-    <row r="631">
+    <row r="631" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A631" s="7"/>
       <c r="B631" s="7"/>
       <c r="C631" s="7"/>
@@ -19406,7 +19426,7 @@
       <c r="AA631" s="7"/>
       <c r="AB631" s="7"/>
     </row>
-    <row r="632">
+    <row r="632" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A632" s="7"/>
       <c r="B632" s="7"/>
       <c r="C632" s="7"/>
@@ -19436,7 +19456,7 @@
       <c r="AA632" s="7"/>
       <c r="AB632" s="7"/>
     </row>
-    <row r="633">
+    <row r="633" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A633" s="7"/>
       <c r="B633" s="7"/>
       <c r="C633" s="7"/>
@@ -19466,7 +19486,7 @@
       <c r="AA633" s="7"/>
       <c r="AB633" s="7"/>
     </row>
-    <row r="634">
+    <row r="634" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A634" s="7"/>
       <c r="B634" s="7"/>
       <c r="C634" s="7"/>
@@ -19496,7 +19516,7 @@
       <c r="AA634" s="7"/>
       <c r="AB634" s="7"/>
     </row>
-    <row r="635">
+    <row r="635" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A635" s="7"/>
       <c r="B635" s="7"/>
       <c r="C635" s="7"/>
@@ -19526,7 +19546,7 @@
       <c r="AA635" s="7"/>
       <c r="AB635" s="7"/>
     </row>
-    <row r="636">
+    <row r="636" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A636" s="7"/>
       <c r="B636" s="7"/>
       <c r="C636" s="7"/>
@@ -19556,7 +19576,7 @@
       <c r="AA636" s="7"/>
       <c r="AB636" s="7"/>
     </row>
-    <row r="637">
+    <row r="637" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A637" s="7"/>
       <c r="B637" s="7"/>
       <c r="C637" s="7"/>
@@ -19586,7 +19606,7 @@
       <c r="AA637" s="7"/>
       <c r="AB637" s="7"/>
     </row>
-    <row r="638">
+    <row r="638" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A638" s="7"/>
       <c r="B638" s="7"/>
       <c r="C638" s="7"/>
@@ -19616,7 +19636,7 @@
       <c r="AA638" s="7"/>
       <c r="AB638" s="7"/>
     </row>
-    <row r="639">
+    <row r="639" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A639" s="7"/>
       <c r="B639" s="7"/>
       <c r="C639" s="7"/>
@@ -19646,7 +19666,7 @@
       <c r="AA639" s="7"/>
       <c r="AB639" s="7"/>
     </row>
-    <row r="640">
+    <row r="640" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A640" s="7"/>
       <c r="B640" s="7"/>
       <c r="C640" s="7"/>
@@ -19676,7 +19696,7 @@
       <c r="AA640" s="7"/>
       <c r="AB640" s="7"/>
     </row>
-    <row r="641">
+    <row r="641" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A641" s="7"/>
       <c r="B641" s="7"/>
       <c r="C641" s="7"/>
@@ -19706,7 +19726,7 @@
       <c r="AA641" s="7"/>
       <c r="AB641" s="7"/>
     </row>
-    <row r="642">
+    <row r="642" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A642" s="7"/>
       <c r="B642" s="7"/>
       <c r="C642" s="7"/>
@@ -19736,7 +19756,7 @@
       <c r="AA642" s="7"/>
       <c r="AB642" s="7"/>
     </row>
-    <row r="643">
+    <row r="643" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A643" s="7"/>
       <c r="B643" s="7"/>
       <c r="C643" s="7"/>
@@ -19766,7 +19786,7 @@
       <c r="AA643" s="7"/>
       <c r="AB643" s="7"/>
     </row>
-    <row r="644">
+    <row r="644" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A644" s="7"/>
       <c r="B644" s="7"/>
       <c r="C644" s="7"/>
@@ -19796,7 +19816,7 @@
       <c r="AA644" s="7"/>
       <c r="AB644" s="7"/>
     </row>
-    <row r="645">
+    <row r="645" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A645" s="7"/>
       <c r="B645" s="7"/>
       <c r="C645" s="7"/>
@@ -19826,7 +19846,7 @@
       <c r="AA645" s="7"/>
       <c r="AB645" s="7"/>
     </row>
-    <row r="646">
+    <row r="646" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A646" s="7"/>
       <c r="B646" s="7"/>
       <c r="C646" s="7"/>
@@ -19856,7 +19876,7 @@
       <c r="AA646" s="7"/>
       <c r="AB646" s="7"/>
     </row>
-    <row r="647">
+    <row r="647" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A647" s="7"/>
       <c r="B647" s="7"/>
       <c r="C647" s="7"/>
@@ -19886,7 +19906,7 @@
       <c r="AA647" s="7"/>
       <c r="AB647" s="7"/>
     </row>
-    <row r="648">
+    <row r="648" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A648" s="7"/>
       <c r="B648" s="7"/>
       <c r="C648" s="7"/>
@@ -19916,7 +19936,7 @@
       <c r="AA648" s="7"/>
       <c r="AB648" s="7"/>
     </row>
-    <row r="649">
+    <row r="649" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A649" s="7"/>
       <c r="B649" s="7"/>
       <c r="C649" s="7"/>
@@ -19946,7 +19966,7 @@
       <c r="AA649" s="7"/>
       <c r="AB649" s="7"/>
     </row>
-    <row r="650">
+    <row r="650" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A650" s="7"/>
       <c r="B650" s="7"/>
       <c r="C650" s="7"/>
@@ -19976,7 +19996,7 @@
       <c r="AA650" s="7"/>
       <c r="AB650" s="7"/>
     </row>
-    <row r="651">
+    <row r="651" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A651" s="7"/>
       <c r="B651" s="7"/>
       <c r="C651" s="7"/>
@@ -20006,7 +20026,7 @@
       <c r="AA651" s="7"/>
       <c r="AB651" s="7"/>
     </row>
-    <row r="652">
+    <row r="652" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A652" s="7"/>
       <c r="B652" s="7"/>
       <c r="C652" s="7"/>
@@ -20036,7 +20056,7 @@
       <c r="AA652" s="7"/>
       <c r="AB652" s="7"/>
     </row>
-    <row r="653">
+    <row r="653" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A653" s="7"/>
       <c r="B653" s="7"/>
       <c r="C653" s="7"/>
@@ -20066,7 +20086,7 @@
       <c r="AA653" s="7"/>
       <c r="AB653" s="7"/>
     </row>
-    <row r="654">
+    <row r="654" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A654" s="7"/>
       <c r="B654" s="7"/>
       <c r="C654" s="7"/>
@@ -20096,7 +20116,7 @@
       <c r="AA654" s="7"/>
       <c r="AB654" s="7"/>
     </row>
-    <row r="655">
+    <row r="655" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A655" s="7"/>
       <c r="B655" s="7"/>
       <c r="C655" s="7"/>
@@ -20126,7 +20146,7 @@
       <c r="AA655" s="7"/>
       <c r="AB655" s="7"/>
     </row>
-    <row r="656">
+    <row r="656" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A656" s="7"/>
       <c r="B656" s="7"/>
       <c r="C656" s="7"/>
@@ -20156,7 +20176,7 @@
       <c r="AA656" s="7"/>
       <c r="AB656" s="7"/>
     </row>
-    <row r="657">
+    <row r="657" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A657" s="7"/>
       <c r="B657" s="7"/>
       <c r="C657" s="7"/>
@@ -20186,7 +20206,7 @@
       <c r="AA657" s="7"/>
       <c r="AB657" s="7"/>
     </row>
-    <row r="658">
+    <row r="658" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A658" s="7"/>
       <c r="B658" s="7"/>
       <c r="C658" s="7"/>
@@ -20216,7 +20236,7 @@
       <c r="AA658" s="7"/>
       <c r="AB658" s="7"/>
     </row>
-    <row r="659">
+    <row r="659" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A659" s="7"/>
       <c r="B659" s="7"/>
       <c r="C659" s="7"/>
@@ -20246,7 +20266,7 @@
       <c r="AA659" s="7"/>
       <c r="AB659" s="7"/>
     </row>
-    <row r="660">
+    <row r="660" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A660" s="7"/>
       <c r="B660" s="7"/>
       <c r="C660" s="7"/>
@@ -20276,7 +20296,7 @@
       <c r="AA660" s="7"/>
       <c r="AB660" s="7"/>
     </row>
-    <row r="661">
+    <row r="661" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A661" s="7"/>
       <c r="B661" s="7"/>
       <c r="C661" s="7"/>
@@ -20306,7 +20326,7 @@
       <c r="AA661" s="7"/>
       <c r="AB661" s="7"/>
     </row>
-    <row r="662">
+    <row r="662" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A662" s="7"/>
       <c r="B662" s="7"/>
       <c r="C662" s="7"/>
@@ -20336,7 +20356,7 @@
       <c r="AA662" s="7"/>
       <c r="AB662" s="7"/>
     </row>
-    <row r="663">
+    <row r="663" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A663" s="7"/>
       <c r="B663" s="7"/>
       <c r="C663" s="7"/>
@@ -20366,7 +20386,7 @@
       <c r="AA663" s="7"/>
       <c r="AB663" s="7"/>
     </row>
-    <row r="664">
+    <row r="664" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A664" s="7"/>
       <c r="B664" s="7"/>
       <c r="C664" s="7"/>
@@ -20396,7 +20416,7 @@
       <c r="AA664" s="7"/>
       <c r="AB664" s="7"/>
     </row>
-    <row r="665">
+    <row r="665" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A665" s="7"/>
       <c r="B665" s="7"/>
       <c r="C665" s="7"/>
@@ -20426,7 +20446,7 @@
       <c r="AA665" s="7"/>
       <c r="AB665" s="7"/>
     </row>
-    <row r="666">
+    <row r="666" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A666" s="7"/>
       <c r="B666" s="7"/>
       <c r="C666" s="7"/>
@@ -20456,7 +20476,7 @@
       <c r="AA666" s="7"/>
       <c r="AB666" s="7"/>
     </row>
-    <row r="667">
+    <row r="667" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A667" s="7"/>
       <c r="B667" s="7"/>
       <c r="C667" s="7"/>
@@ -20486,7 +20506,7 @@
       <c r="AA667" s="7"/>
       <c r="AB667" s="7"/>
     </row>
-    <row r="668">
+    <row r="668" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A668" s="7"/>
       <c r="B668" s="7"/>
       <c r="C668" s="7"/>
@@ -20516,7 +20536,7 @@
       <c r="AA668" s="7"/>
       <c r="AB668" s="7"/>
     </row>
-    <row r="669">
+    <row r="669" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A669" s="7"/>
       <c r="B669" s="7"/>
       <c r="C669" s="7"/>
@@ -20546,7 +20566,7 @@
       <c r="AA669" s="7"/>
       <c r="AB669" s="7"/>
     </row>
-    <row r="670">
+    <row r="670" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A670" s="7"/>
       <c r="B670" s="7"/>
       <c r="C670" s="7"/>
@@ -20576,7 +20596,7 @@
       <c r="AA670" s="7"/>
       <c r="AB670" s="7"/>
     </row>
-    <row r="671">
+    <row r="671" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A671" s="7"/>
       <c r="B671" s="7"/>
       <c r="C671" s="7"/>
@@ -20606,7 +20626,7 @@
       <c r="AA671" s="7"/>
       <c r="AB671" s="7"/>
     </row>
-    <row r="672">
+    <row r="672" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A672" s="7"/>
       <c r="B672" s="7"/>
       <c r="C672" s="7"/>
@@ -20636,7 +20656,7 @@
       <c r="AA672" s="7"/>
       <c r="AB672" s="7"/>
     </row>
-    <row r="673">
+    <row r="673" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A673" s="7"/>
       <c r="B673" s="7"/>
       <c r="C673" s="7"/>
@@ -20666,7 +20686,7 @@
       <c r="AA673" s="7"/>
       <c r="AB673" s="7"/>
     </row>
-    <row r="674">
+    <row r="674" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A674" s="7"/>
       <c r="B674" s="7"/>
       <c r="C674" s="7"/>
@@ -20696,7 +20716,7 @@
       <c r="AA674" s="7"/>
       <c r="AB674" s="7"/>
     </row>
-    <row r="675">
+    <row r="675" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A675" s="7"/>
       <c r="B675" s="7"/>
       <c r="C675" s="7"/>
@@ -20726,7 +20746,7 @@
       <c r="AA675" s="7"/>
       <c r="AB675" s="7"/>
     </row>
-    <row r="676">
+    <row r="676" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A676" s="7"/>
       <c r="B676" s="7"/>
       <c r="C676" s="7"/>
@@ -20756,7 +20776,7 @@
       <c r="AA676" s="7"/>
       <c r="AB676" s="7"/>
     </row>
-    <row r="677">
+    <row r="677" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A677" s="7"/>
       <c r="B677" s="7"/>
       <c r="C677" s="7"/>
@@ -20786,7 +20806,7 @@
       <c r="AA677" s="7"/>
       <c r="AB677" s="7"/>
     </row>
-    <row r="678">
+    <row r="678" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A678" s="7"/>
       <c r="B678" s="7"/>
       <c r="C678" s="7"/>
@@ -20816,7 +20836,7 @@
       <c r="AA678" s="7"/>
       <c r="AB678" s="7"/>
     </row>
-    <row r="679">
+    <row r="679" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A679" s="7"/>
       <c r="B679" s="7"/>
       <c r="C679" s="7"/>
@@ -20846,7 +20866,7 @@
       <c r="AA679" s="7"/>
       <c r="AB679" s="7"/>
     </row>
-    <row r="680">
+    <row r="680" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A680" s="7"/>
       <c r="B680" s="7"/>
       <c r="C680" s="7"/>
@@ -20876,7 +20896,7 @@
       <c r="AA680" s="7"/>
       <c r="AB680" s="7"/>
     </row>
-    <row r="681">
+    <row r="681" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A681" s="7"/>
       <c r="B681" s="7"/>
       <c r="C681" s="7"/>
@@ -20906,7 +20926,7 @@
       <c r="AA681" s="7"/>
       <c r="AB681" s="7"/>
     </row>
-    <row r="682">
+    <row r="682" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A682" s="7"/>
       <c r="B682" s="7"/>
       <c r="C682" s="7"/>
@@ -20936,7 +20956,7 @@
       <c r="AA682" s="7"/>
       <c r="AB682" s="7"/>
     </row>
-    <row r="683">
+    <row r="683" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A683" s="7"/>
       <c r="B683" s="7"/>
       <c r="C683" s="7"/>
@@ -20966,7 +20986,7 @@
       <c r="AA683" s="7"/>
       <c r="AB683" s="7"/>
     </row>
-    <row r="684">
+    <row r="684" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A684" s="7"/>
       <c r="B684" s="7"/>
       <c r="C684" s="7"/>
@@ -20996,7 +21016,7 @@
       <c r="AA684" s="7"/>
       <c r="AB684" s="7"/>
     </row>
-    <row r="685">
+    <row r="685" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A685" s="7"/>
       <c r="B685" s="7"/>
       <c r="C685" s="7"/>
@@ -21026,7 +21046,7 @@
       <c r="AA685" s="7"/>
       <c r="AB685" s="7"/>
     </row>
-    <row r="686">
+    <row r="686" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A686" s="7"/>
       <c r="B686" s="7"/>
       <c r="C686" s="7"/>
@@ -21056,7 +21076,7 @@
       <c r="AA686" s="7"/>
       <c r="AB686" s="7"/>
     </row>
-    <row r="687">
+    <row r="687" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A687" s="7"/>
       <c r="B687" s="7"/>
       <c r="C687" s="7"/>
@@ -21086,7 +21106,7 @@
       <c r="AA687" s="7"/>
       <c r="AB687" s="7"/>
     </row>
-    <row r="688">
+    <row r="688" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A688" s="7"/>
       <c r="B688" s="7"/>
       <c r="C688" s="7"/>
@@ -21116,7 +21136,7 @@
       <c r="AA688" s="7"/>
       <c r="AB688" s="7"/>
     </row>
-    <row r="689">
+    <row r="689" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A689" s="7"/>
       <c r="B689" s="7"/>
       <c r="C689" s="7"/>
@@ -21146,7 +21166,7 @@
       <c r="AA689" s="7"/>
       <c r="AB689" s="7"/>
     </row>
-    <row r="690">
+    <row r="690" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A690" s="7"/>
       <c r="B690" s="7"/>
       <c r="C690" s="7"/>
@@ -21176,7 +21196,7 @@
       <c r="AA690" s="7"/>
       <c r="AB690" s="7"/>
     </row>
-    <row r="691">
+    <row r="691" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A691" s="7"/>
       <c r="B691" s="7"/>
       <c r="C691" s="7"/>
@@ -21206,7 +21226,7 @@
       <c r="AA691" s="7"/>
       <c r="AB691" s="7"/>
     </row>
-    <row r="692">
+    <row r="692" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A692" s="7"/>
       <c r="B692" s="7"/>
       <c r="C692" s="7"/>
@@ -21236,7 +21256,7 @@
       <c r="AA692" s="7"/>
       <c r="AB692" s="7"/>
     </row>
-    <row r="693">
+    <row r="693" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A693" s="7"/>
       <c r="B693" s="7"/>
       <c r="C693" s="7"/>
@@ -21266,7 +21286,7 @@
       <c r="AA693" s="7"/>
       <c r="AB693" s="7"/>
     </row>
-    <row r="694">
+    <row r="694" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A694" s="7"/>
       <c r="B694" s="7"/>
       <c r="C694" s="7"/>
@@ -21296,7 +21316,7 @@
       <c r="AA694" s="7"/>
       <c r="AB694" s="7"/>
     </row>
-    <row r="695">
+    <row r="695" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A695" s="7"/>
       <c r="B695" s="7"/>
       <c r="C695" s="7"/>
@@ -21326,7 +21346,7 @@
       <c r="AA695" s="7"/>
       <c r="AB695" s="7"/>
     </row>
-    <row r="696">
+    <row r="696" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A696" s="7"/>
       <c r="B696" s="7"/>
       <c r="C696" s="7"/>
@@ -21356,7 +21376,7 @@
       <c r="AA696" s="7"/>
       <c r="AB696" s="7"/>
     </row>
-    <row r="697">
+    <row r="697" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A697" s="7"/>
       <c r="B697" s="7"/>
       <c r="C697" s="7"/>
@@ -21386,7 +21406,7 @@
       <c r="AA697" s="7"/>
       <c r="AB697" s="7"/>
     </row>
-    <row r="698">
+    <row r="698" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A698" s="7"/>
       <c r="B698" s="7"/>
       <c r="C698" s="7"/>
@@ -21416,7 +21436,7 @@
       <c r="AA698" s="7"/>
       <c r="AB698" s="7"/>
     </row>
-    <row r="699">
+    <row r="699" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A699" s="7"/>
       <c r="B699" s="7"/>
       <c r="C699" s="7"/>
@@ -21446,7 +21466,7 @@
       <c r="AA699" s="7"/>
       <c r="AB699" s="7"/>
     </row>
-    <row r="700">
+    <row r="700" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A700" s="7"/>
       <c r="B700" s="7"/>
       <c r="C700" s="7"/>
@@ -21476,7 +21496,7 @@
       <c r="AA700" s="7"/>
       <c r="AB700" s="7"/>
     </row>
-    <row r="701">
+    <row r="701" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A701" s="7"/>
       <c r="B701" s="7"/>
       <c r="C701" s="7"/>
@@ -21506,7 +21526,7 @@
       <c r="AA701" s="7"/>
       <c r="AB701" s="7"/>
     </row>
-    <row r="702">
+    <row r="702" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A702" s="7"/>
       <c r="B702" s="7"/>
       <c r="C702" s="7"/>
@@ -21536,7 +21556,7 @@
       <c r="AA702" s="7"/>
       <c r="AB702" s="7"/>
     </row>
-    <row r="703">
+    <row r="703" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A703" s="7"/>
       <c r="B703" s="7"/>
       <c r="C703" s="7"/>
@@ -21566,7 +21586,7 @@
       <c r="AA703" s="7"/>
       <c r="AB703" s="7"/>
     </row>
-    <row r="704">
+    <row r="704" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A704" s="7"/>
       <c r="B704" s="7"/>
       <c r="C704" s="7"/>
@@ -21596,7 +21616,7 @@
       <c r="AA704" s="7"/>
       <c r="AB704" s="7"/>
     </row>
-    <row r="705">
+    <row r="705" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A705" s="7"/>
       <c r="B705" s="7"/>
       <c r="C705" s="7"/>
@@ -21626,7 +21646,7 @@
       <c r="AA705" s="7"/>
       <c r="AB705" s="7"/>
     </row>
-    <row r="706">
+    <row r="706" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A706" s="7"/>
       <c r="B706" s="7"/>
       <c r="C706" s="7"/>
@@ -21656,7 +21676,7 @@
       <c r="AA706" s="7"/>
       <c r="AB706" s="7"/>
     </row>
-    <row r="707">
+    <row r="707" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A707" s="7"/>
       <c r="B707" s="7"/>
       <c r="C707" s="7"/>
@@ -21686,7 +21706,7 @@
       <c r="AA707" s="7"/>
       <c r="AB707" s="7"/>
     </row>
-    <row r="708">
+    <row r="708" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A708" s="7"/>
       <c r="B708" s="7"/>
       <c r="C708" s="7"/>
@@ -21716,7 +21736,7 @@
       <c r="AA708" s="7"/>
       <c r="AB708" s="7"/>
     </row>
-    <row r="709">
+    <row r="709" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A709" s="7"/>
       <c r="B709" s="7"/>
       <c r="C709" s="7"/>
@@ -21746,7 +21766,7 @@
       <c r="AA709" s="7"/>
       <c r="AB709" s="7"/>
     </row>
-    <row r="710">
+    <row r="710" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A710" s="7"/>
       <c r="B710" s="7"/>
       <c r="C710" s="7"/>
@@ -21776,7 +21796,7 @@
       <c r="AA710" s="7"/>
       <c r="AB710" s="7"/>
     </row>
-    <row r="711">
+    <row r="711" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A711" s="7"/>
       <c r="B711" s="7"/>
       <c r="C711" s="7"/>
@@ -21806,7 +21826,7 @@
       <c r="AA711" s="7"/>
       <c r="AB711" s="7"/>
     </row>
-    <row r="712">
+    <row r="712" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A712" s="7"/>
       <c r="B712" s="7"/>
       <c r="C712" s="7"/>
@@ -21836,7 +21856,7 @@
       <c r="AA712" s="7"/>
       <c r="AB712" s="7"/>
     </row>
-    <row r="713">
+    <row r="713" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A713" s="7"/>
       <c r="B713" s="7"/>
       <c r="C713" s="7"/>
@@ -21866,7 +21886,7 @@
       <c r="AA713" s="7"/>
       <c r="AB713" s="7"/>
     </row>
-    <row r="714">
+    <row r="714" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A714" s="7"/>
       <c r="B714" s="7"/>
       <c r="C714" s="7"/>
@@ -21896,7 +21916,7 @@
       <c r="AA714" s="7"/>
       <c r="AB714" s="7"/>
     </row>
-    <row r="715">
+    <row r="715" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A715" s="7"/>
       <c r="B715" s="7"/>
       <c r="C715" s="7"/>
@@ -21926,7 +21946,7 @@
       <c r="AA715" s="7"/>
       <c r="AB715" s="7"/>
     </row>
-    <row r="716">
+    <row r="716" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A716" s="7"/>
       <c r="B716" s="7"/>
       <c r="C716" s="7"/>
@@ -21956,7 +21976,7 @@
       <c r="AA716" s="7"/>
       <c r="AB716" s="7"/>
     </row>
-    <row r="717">
+    <row r="717" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A717" s="7"/>
       <c r="B717" s="7"/>
       <c r="C717" s="7"/>
@@ -21986,7 +22006,7 @@
       <c r="AA717" s="7"/>
       <c r="AB717" s="7"/>
     </row>
-    <row r="718">
+    <row r="718" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A718" s="7"/>
       <c r="B718" s="7"/>
       <c r="C718" s="7"/>
@@ -22016,7 +22036,7 @@
       <c r="AA718" s="7"/>
       <c r="AB718" s="7"/>
     </row>
-    <row r="719">
+    <row r="719" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A719" s="7"/>
       <c r="B719" s="7"/>
       <c r="C719" s="7"/>
@@ -22046,7 +22066,7 @@
       <c r="AA719" s="7"/>
       <c r="AB719" s="7"/>
     </row>
-    <row r="720">
+    <row r="720" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A720" s="7"/>
       <c r="B720" s="7"/>
       <c r="C720" s="7"/>
@@ -22076,7 +22096,7 @@
       <c r="AA720" s="7"/>
       <c r="AB720" s="7"/>
     </row>
-    <row r="721">
+    <row r="721" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A721" s="7"/>
       <c r="B721" s="7"/>
       <c r="C721" s="7"/>
@@ -22106,7 +22126,7 @@
       <c r="AA721" s="7"/>
       <c r="AB721" s="7"/>
     </row>
-    <row r="722">
+    <row r="722" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A722" s="7"/>
       <c r="B722" s="7"/>
       <c r="C722" s="7"/>
@@ -22136,7 +22156,7 @@
       <c r="AA722" s="7"/>
       <c r="AB722" s="7"/>
     </row>
-    <row r="723">
+    <row r="723" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A723" s="7"/>
       <c r="B723" s="7"/>
       <c r="C723" s="7"/>
@@ -22166,7 +22186,7 @@
       <c r="AA723" s="7"/>
       <c r="AB723" s="7"/>
     </row>
-    <row r="724">
+    <row r="724" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A724" s="7"/>
       <c r="B724" s="7"/>
       <c r="C724" s="7"/>
@@ -22196,7 +22216,7 @@
       <c r="AA724" s="7"/>
       <c r="AB724" s="7"/>
     </row>
-    <row r="725">
+    <row r="725" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A725" s="7"/>
       <c r="B725" s="7"/>
       <c r="C725" s="7"/>
@@ -22226,7 +22246,7 @@
       <c r="AA725" s="7"/>
       <c r="AB725" s="7"/>
     </row>
-    <row r="726">
+    <row r="726" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A726" s="7"/>
       <c r="B726" s="7"/>
       <c r="C726" s="7"/>
@@ -22256,7 +22276,7 @@
       <c r="AA726" s="7"/>
       <c r="AB726" s="7"/>
     </row>
-    <row r="727">
+    <row r="727" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A727" s="7"/>
       <c r="B727" s="7"/>
       <c r="C727" s="7"/>
@@ -22286,7 +22306,7 @@
       <c r="AA727" s="7"/>
       <c r="AB727" s="7"/>
     </row>
-    <row r="728">
+    <row r="728" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A728" s="7"/>
       <c r="B728" s="7"/>
       <c r="C728" s="7"/>
@@ -22316,7 +22336,7 @@
       <c r="AA728" s="7"/>
       <c r="AB728" s="7"/>
     </row>
-    <row r="729">
+    <row r="729" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A729" s="7"/>
       <c r="B729" s="7"/>
       <c r="C729" s="7"/>
@@ -22346,7 +22366,7 @@
       <c r="AA729" s="7"/>
       <c r="AB729" s="7"/>
     </row>
-    <row r="730">
+    <row r="730" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A730" s="7"/>
       <c r="B730" s="7"/>
       <c r="C730" s="7"/>
@@ -22376,7 +22396,7 @@
       <c r="AA730" s="7"/>
       <c r="AB730" s="7"/>
     </row>
-    <row r="731">
+    <row r="731" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A731" s="7"/>
       <c r="B731" s="7"/>
       <c r="C731" s="7"/>
@@ -22406,7 +22426,7 @@
       <c r="AA731" s="7"/>
       <c r="AB731" s="7"/>
     </row>
-    <row r="732">
+    <row r="732" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A732" s="7"/>
       <c r="B732" s="7"/>
       <c r="C732" s="7"/>
@@ -22436,7 +22456,7 @@
       <c r="AA732" s="7"/>
       <c r="AB732" s="7"/>
     </row>
-    <row r="733">
+    <row r="733" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A733" s="7"/>
       <c r="B733" s="7"/>
       <c r="C733" s="7"/>
@@ -22466,7 +22486,7 @@
       <c r="AA733" s="7"/>
       <c r="AB733" s="7"/>
     </row>
-    <row r="734">
+    <row r="734" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A734" s="7"/>
       <c r="B734" s="7"/>
       <c r="C734" s="7"/>
@@ -22496,7 +22516,7 @@
       <c r="AA734" s="7"/>
       <c r="AB734" s="7"/>
     </row>
-    <row r="735">
+    <row r="735" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A735" s="7"/>
       <c r="B735" s="7"/>
       <c r="C735" s="7"/>
@@ -22526,7 +22546,7 @@
       <c r="AA735" s="7"/>
       <c r="AB735" s="7"/>
     </row>
-    <row r="736">
+    <row r="736" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A736" s="7"/>
       <c r="B736" s="7"/>
       <c r="C736" s="7"/>
@@ -22556,7 +22576,7 @@
       <c r="AA736" s="7"/>
       <c r="AB736" s="7"/>
     </row>
-    <row r="737">
+    <row r="737" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A737" s="7"/>
       <c r="B737" s="7"/>
       <c r="C737" s="7"/>
@@ -22586,7 +22606,7 @@
       <c r="AA737" s="7"/>
       <c r="AB737" s="7"/>
     </row>
-    <row r="738">
+    <row r="738" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A738" s="7"/>
       <c r="B738" s="7"/>
       <c r="C738" s="7"/>
@@ -22616,7 +22636,7 @@
       <c r="AA738" s="7"/>
       <c r="AB738" s="7"/>
     </row>
-    <row r="739">
+    <row r="739" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A739" s="7"/>
       <c r="B739" s="7"/>
       <c r="C739" s="7"/>
@@ -22646,7 +22666,7 @@
       <c r="AA739" s="7"/>
       <c r="AB739" s="7"/>
     </row>
-    <row r="740">
+    <row r="740" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A740" s="7"/>
       <c r="B740" s="7"/>
       <c r="C740" s="7"/>
@@ -22676,7 +22696,7 @@
       <c r="AA740" s="7"/>
       <c r="AB740" s="7"/>
     </row>
-    <row r="741">
+    <row r="741" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A741" s="7"/>
       <c r="B741" s="7"/>
       <c r="C741" s="7"/>
@@ -22706,7 +22726,7 @@
       <c r="AA741" s="7"/>
       <c r="AB741" s="7"/>
     </row>
-    <row r="742">
+    <row r="742" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A742" s="7"/>
       <c r="B742" s="7"/>
       <c r="C742" s="7"/>
@@ -22736,7 +22756,7 @@
       <c r="AA742" s="7"/>
       <c r="AB742" s="7"/>
     </row>
-    <row r="743">
+    <row r="743" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A743" s="7"/>
       <c r="B743" s="7"/>
       <c r="C743" s="7"/>
@@ -22766,7 +22786,7 @@
       <c r="AA743" s="7"/>
       <c r="AB743" s="7"/>
     </row>
-    <row r="744">
+    <row r="744" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A744" s="7"/>
       <c r="B744" s="7"/>
       <c r="C744" s="7"/>
@@ -22796,7 +22816,7 @@
       <c r="AA744" s="7"/>
       <c r="AB744" s="7"/>
     </row>
-    <row r="745">
+    <row r="745" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A745" s="7"/>
       <c r="B745" s="7"/>
       <c r="C745" s="7"/>
@@ -22826,7 +22846,7 @@
       <c r="AA745" s="7"/>
       <c r="AB745" s="7"/>
     </row>
-    <row r="746">
+    <row r="746" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A746" s="7"/>
       <c r="B746" s="7"/>
       <c r="C746" s="7"/>
@@ -22856,7 +22876,7 @@
       <c r="AA746" s="7"/>
       <c r="AB746" s="7"/>
     </row>
-    <row r="747">
+    <row r="747" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A747" s="7"/>
       <c r="B747" s="7"/>
       <c r="C747" s="7"/>
@@ -22886,7 +22906,7 @@
       <c r="AA747" s="7"/>
       <c r="AB747" s="7"/>
     </row>
-    <row r="748">
+    <row r="748" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A748" s="7"/>
       <c r="B748" s="7"/>
       <c r="C748" s="7"/>
@@ -22916,7 +22936,7 @@
       <c r="AA748" s="7"/>
       <c r="AB748" s="7"/>
     </row>
-    <row r="749">
+    <row r="749" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A749" s="7"/>
       <c r="B749" s="7"/>
       <c r="C749" s="7"/>
@@ -22946,7 +22966,7 @@
       <c r="AA749" s="7"/>
       <c r="AB749" s="7"/>
     </row>
-    <row r="750">
+    <row r="750" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A750" s="7"/>
       <c r="B750" s="7"/>
       <c r="C750" s="7"/>
@@ -22976,7 +22996,7 @@
       <c r="AA750" s="7"/>
       <c r="AB750" s="7"/>
     </row>
-    <row r="751">
+    <row r="751" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A751" s="7"/>
       <c r="B751" s="7"/>
       <c r="C751" s="7"/>
@@ -23006,7 +23026,7 @@
       <c r="AA751" s="7"/>
       <c r="AB751" s="7"/>
     </row>
-    <row r="752">
+    <row r="752" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A752" s="7"/>
       <c r="B752" s="7"/>
       <c r="C752" s="7"/>
@@ -23036,7 +23056,7 @@
       <c r="AA752" s="7"/>
       <c r="AB752" s="7"/>
     </row>
-    <row r="753">
+    <row r="753" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A753" s="7"/>
       <c r="B753" s="7"/>
       <c r="C753" s="7"/>
@@ -23066,7 +23086,7 @@
       <c r="AA753" s="7"/>
       <c r="AB753" s="7"/>
     </row>
-    <row r="754">
+    <row r="754" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A754" s="7"/>
       <c r="B754" s="7"/>
       <c r="C754" s="7"/>
@@ -23096,7 +23116,7 @@
       <c r="AA754" s="7"/>
       <c r="AB754" s="7"/>
     </row>
-    <row r="755">
+    <row r="755" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A755" s="7"/>
       <c r="B755" s="7"/>
       <c r="C755" s="7"/>
@@ -23126,7 +23146,7 @@
       <c r="AA755" s="7"/>
       <c r="AB755" s="7"/>
     </row>
-    <row r="756">
+    <row r="756" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A756" s="7"/>
       <c r="B756" s="7"/>
       <c r="C756" s="7"/>
@@ -23156,7 +23176,7 @@
       <c r="AA756" s="7"/>
       <c r="AB756" s="7"/>
     </row>
-    <row r="757">
+    <row r="757" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A757" s="7"/>
       <c r="B757" s="7"/>
       <c r="C757" s="7"/>
@@ -23186,7 +23206,7 @@
       <c r="AA757" s="7"/>
       <c r="AB757" s="7"/>
     </row>
-    <row r="758">
+    <row r="758" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A758" s="7"/>
       <c r="B758" s="7"/>
       <c r="C758" s="7"/>
@@ -23216,7 +23236,7 @@
       <c r="AA758" s="7"/>
       <c r="AB758" s="7"/>
     </row>
-    <row r="759">
+    <row r="759" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A759" s="7"/>
       <c r="B759" s="7"/>
       <c r="C759" s="7"/>
@@ -23246,7 +23266,7 @@
       <c r="AA759" s="7"/>
       <c r="AB759" s="7"/>
     </row>
-    <row r="760">
+    <row r="760" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A760" s="7"/>
       <c r="B760" s="7"/>
       <c r="C760" s="7"/>
@@ -23276,7 +23296,7 @@
       <c r="AA760" s="7"/>
       <c r="AB760" s="7"/>
     </row>
-    <row r="761">
+    <row r="761" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A761" s="7"/>
       <c r="B761" s="7"/>
       <c r="C761" s="7"/>
@@ -23306,7 +23326,7 @@
       <c r="AA761" s="7"/>
       <c r="AB761" s="7"/>
     </row>
-    <row r="762">
+    <row r="762" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A762" s="7"/>
       <c r="B762" s="7"/>
       <c r="C762" s="7"/>
@@ -23336,7 +23356,7 @@
       <c r="AA762" s="7"/>
       <c r="AB762" s="7"/>
     </row>
-    <row r="763">
+    <row r="763" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A763" s="7"/>
       <c r="B763" s="7"/>
       <c r="C763" s="7"/>
@@ -23366,7 +23386,7 @@
       <c r="AA763" s="7"/>
       <c r="AB763" s="7"/>
     </row>
-    <row r="764">
+    <row r="764" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A764" s="7"/>
       <c r="B764" s="7"/>
       <c r="C764" s="7"/>
@@ -23396,7 +23416,7 @@
       <c r="AA764" s="7"/>
       <c r="AB764" s="7"/>
     </row>
-    <row r="765">
+    <row r="765" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A765" s="7"/>
       <c r="B765" s="7"/>
       <c r="C765" s="7"/>
@@ -23426,7 +23446,7 @@
       <c r="AA765" s="7"/>
       <c r="AB765" s="7"/>
     </row>
-    <row r="766">
+    <row r="766" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A766" s="7"/>
       <c r="B766" s="7"/>
       <c r="C766" s="7"/>
@@ -23456,7 +23476,7 @@
       <c r="AA766" s="7"/>
       <c r="AB766" s="7"/>
     </row>
-    <row r="767">
+    <row r="767" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A767" s="7"/>
       <c r="B767" s="7"/>
       <c r="C767" s="7"/>
@@ -23486,7 +23506,7 @@
       <c r="AA767" s="7"/>
       <c r="AB767" s="7"/>
     </row>
-    <row r="768">
+    <row r="768" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A768" s="7"/>
       <c r="B768" s="7"/>
       <c r="C768" s="7"/>
@@ -23516,7 +23536,7 @@
       <c r="AA768" s="7"/>
       <c r="AB768" s="7"/>
     </row>
-    <row r="769">
+    <row r="769" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A769" s="7"/>
       <c r="B769" s="7"/>
       <c r="C769" s="7"/>
@@ -23546,7 +23566,7 @@
       <c r="AA769" s="7"/>
       <c r="AB769" s="7"/>
     </row>
-    <row r="770">
+    <row r="770" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A770" s="7"/>
       <c r="B770" s="7"/>
       <c r="C770" s="7"/>
@@ -23576,7 +23596,7 @@
       <c r="AA770" s="7"/>
       <c r="AB770" s="7"/>
     </row>
-    <row r="771">
+    <row r="771" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A771" s="7"/>
       <c r="B771" s="7"/>
       <c r="C771" s="7"/>
@@ -23606,7 +23626,7 @@
       <c r="AA771" s="7"/>
       <c r="AB771" s="7"/>
     </row>
-    <row r="772">
+    <row r="772" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A772" s="7"/>
       <c r="B772" s="7"/>
       <c r="C772" s="7"/>
@@ -23636,7 +23656,7 @@
       <c r="AA772" s="7"/>
       <c r="AB772" s="7"/>
     </row>
-    <row r="773">
+    <row r="773" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A773" s="7"/>
       <c r="B773" s="7"/>
       <c r="C773" s="7"/>
@@ -23666,7 +23686,7 @@
       <c r="AA773" s="7"/>
       <c r="AB773" s="7"/>
     </row>
-    <row r="774">
+    <row r="774" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A774" s="7"/>
       <c r="B774" s="7"/>
       <c r="C774" s="7"/>
@@ -23696,7 +23716,7 @@
       <c r="AA774" s="7"/>
       <c r="AB774" s="7"/>
     </row>
-    <row r="775">
+    <row r="775" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A775" s="7"/>
       <c r="B775" s="7"/>
       <c r="C775" s="7"/>
@@ -23726,7 +23746,7 @@
       <c r="AA775" s="7"/>
       <c r="AB775" s="7"/>
     </row>
-    <row r="776">
+    <row r="776" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A776" s="7"/>
       <c r="B776" s="7"/>
       <c r="C776" s="7"/>
@@ -23756,7 +23776,7 @@
       <c r="AA776" s="7"/>
       <c r="AB776" s="7"/>
     </row>
-    <row r="777">
+    <row r="777" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A777" s="7"/>
       <c r="B777" s="7"/>
       <c r="C777" s="7"/>
@@ -23786,7 +23806,7 @@
       <c r="AA777" s="7"/>
       <c r="AB777" s="7"/>
     </row>
-    <row r="778">
+    <row r="778" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A778" s="7"/>
       <c r="B778" s="7"/>
       <c r="C778" s="7"/>
@@ -23816,7 +23836,7 @@
       <c r="AA778" s="7"/>
       <c r="AB778" s="7"/>
     </row>
-    <row r="779">
+    <row r="779" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A779" s="7"/>
       <c r="B779" s="7"/>
       <c r="C779" s="7"/>
@@ -23846,7 +23866,7 @@
       <c r="AA779" s="7"/>
       <c r="AB779" s="7"/>
     </row>
-    <row r="780">
+    <row r="780" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A780" s="7"/>
       <c r="B780" s="7"/>
       <c r="C780" s="7"/>
@@ -23876,7 +23896,7 @@
       <c r="AA780" s="7"/>
       <c r="AB780" s="7"/>
     </row>
-    <row r="781">
+    <row r="781" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A781" s="7"/>
       <c r="B781" s="7"/>
       <c r="C781" s="7"/>
@@ -23906,7 +23926,7 @@
       <c r="AA781" s="7"/>
       <c r="AB781" s="7"/>
     </row>
-    <row r="782">
+    <row r="782" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A782" s="7"/>
       <c r="B782" s="7"/>
       <c r="C782" s="7"/>
@@ -23936,7 +23956,7 @@
       <c r="AA782" s="7"/>
       <c r="AB782" s="7"/>
     </row>
-    <row r="783">
+    <row r="783" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A783" s="7"/>
       <c r="B783" s="7"/>
       <c r="C783" s="7"/>
@@ -23966,7 +23986,7 @@
       <c r="AA783" s="7"/>
       <c r="AB783" s="7"/>
     </row>
-    <row r="784">
+    <row r="784" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A784" s="7"/>
       <c r="B784" s="7"/>
       <c r="C784" s="7"/>
@@ -23996,7 +24016,7 @@
       <c r="AA784" s="7"/>
       <c r="AB784" s="7"/>
     </row>
-    <row r="785">
+    <row r="785" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A785" s="7"/>
       <c r="B785" s="7"/>
       <c r="C785" s="7"/>
@@ -24026,7 +24046,7 @@
       <c r="AA785" s="7"/>
       <c r="AB785" s="7"/>
     </row>
-    <row r="786">
+    <row r="786" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A786" s="7"/>
       <c r="B786" s="7"/>
       <c r="C786" s="7"/>
@@ -24056,7 +24076,7 @@
       <c r="AA786" s="7"/>
       <c r="AB786" s="7"/>
     </row>
-    <row r="787">
+    <row r="787" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A787" s="7"/>
       <c r="B787" s="7"/>
       <c r="C787" s="7"/>
@@ -24086,7 +24106,7 @@
       <c r="AA787" s="7"/>
       <c r="AB787" s="7"/>
     </row>
-    <row r="788">
+    <row r="788" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A788" s="7"/>
       <c r="B788" s="7"/>
       <c r="C788" s="7"/>
@@ -24116,7 +24136,7 @@
       <c r="AA788" s="7"/>
       <c r="AB788" s="7"/>
     </row>
-    <row r="789">
+    <row r="789" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A789" s="7"/>
       <c r="B789" s="7"/>
       <c r="C789" s="7"/>
@@ -24146,7 +24166,7 @@
       <c r="AA789" s="7"/>
       <c r="AB789" s="7"/>
     </row>
-    <row r="790">
+    <row r="790" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A790" s="7"/>
       <c r="B790" s="7"/>
       <c r="C790" s="7"/>
@@ -24176,7 +24196,7 @@
       <c r="AA790" s="7"/>
       <c r="AB790" s="7"/>
     </row>
-    <row r="791">
+    <row r="791" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A791" s="7"/>
       <c r="B791" s="7"/>
       <c r="C791" s="7"/>
@@ -24206,7 +24226,7 @@
       <c r="AA791" s="7"/>
       <c r="AB791" s="7"/>
     </row>
-    <row r="792">
+    <row r="792" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A792" s="7"/>
       <c r="B792" s="7"/>
       <c r="C792" s="7"/>
@@ -24236,7 +24256,7 @@
       <c r="AA792" s="7"/>
       <c r="AB792" s="7"/>
     </row>
-    <row r="793">
+    <row r="793" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A793" s="7"/>
       <c r="B793" s="7"/>
       <c r="C793" s="7"/>
@@ -24266,7 +24286,7 @@
       <c r="AA793" s="7"/>
       <c r="AB793" s="7"/>
     </row>
-    <row r="794">
+    <row r="794" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A794" s="7"/>
       <c r="B794" s="7"/>
       <c r="C794" s="7"/>
@@ -24296,7 +24316,7 @@
       <c r="AA794" s="7"/>
       <c r="AB794" s="7"/>
     </row>
-    <row r="795">
+    <row r="795" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A795" s="7"/>
       <c r="B795" s="7"/>
       <c r="C795" s="7"/>
@@ -24326,7 +24346,7 @@
       <c r="AA795" s="7"/>
       <c r="AB795" s="7"/>
     </row>
-    <row r="796">
+    <row r="796" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A796" s="7"/>
       <c r="B796" s="7"/>
       <c r="C796" s="7"/>
@@ -24356,7 +24376,7 @@
       <c r="AA796" s="7"/>
       <c r="AB796" s="7"/>
     </row>
-    <row r="797">
+    <row r="797" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A797" s="7"/>
       <c r="B797" s="7"/>
       <c r="C797" s="7"/>
@@ -24386,7 +24406,7 @@
       <c r="AA797" s="7"/>
       <c r="AB797" s="7"/>
     </row>
-    <row r="798">
+    <row r="798" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A798" s="7"/>
       <c r="B798" s="7"/>
       <c r="C798" s="7"/>
@@ -24416,7 +24436,7 @@
       <c r="AA798" s="7"/>
       <c r="AB798" s="7"/>
     </row>
-    <row r="799">
+    <row r="799" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A799" s="7"/>
       <c r="B799" s="7"/>
       <c r="C799" s="7"/>
@@ -24446,7 +24466,7 @@
       <c r="AA799" s="7"/>
       <c r="AB799" s="7"/>
     </row>
-    <row r="800">
+    <row r="800" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A800" s="7"/>
       <c r="B800" s="7"/>
       <c r="C800" s="7"/>
@@ -24476,7 +24496,7 @@
       <c r="AA800" s="7"/>
       <c r="AB800" s="7"/>
     </row>
-    <row r="801">
+    <row r="801" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A801" s="7"/>
       <c r="B801" s="7"/>
       <c r="C801" s="7"/>
@@ -24506,7 +24526,7 @@
       <c r="AA801" s="7"/>
       <c r="AB801" s="7"/>
     </row>
-    <row r="802">
+    <row r="802" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A802" s="7"/>
       <c r="B802" s="7"/>
       <c r="C802" s="7"/>
@@ -24536,7 +24556,7 @@
       <c r="AA802" s="7"/>
       <c r="AB802" s="7"/>
     </row>
-    <row r="803">
+    <row r="803" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A803" s="7"/>
       <c r="B803" s="7"/>
       <c r="C803" s="7"/>
@@ -24566,7 +24586,7 @@
       <c r="AA803" s="7"/>
       <c r="AB803" s="7"/>
     </row>
-    <row r="804">
+    <row r="804" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A804" s="7"/>
       <c r="B804" s="7"/>
       <c r="C804" s="7"/>
@@ -24596,7 +24616,7 @@
       <c r="AA804" s="7"/>
       <c r="AB804" s="7"/>
     </row>
-    <row r="805">
+    <row r="805" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A805" s="7"/>
       <c r="B805" s="7"/>
       <c r="C805" s="7"/>
@@ -24626,7 +24646,7 @@
       <c r="AA805" s="7"/>
       <c r="AB805" s="7"/>
     </row>
-    <row r="806">
+    <row r="806" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A806" s="7"/>
       <c r="B806" s="7"/>
       <c r="C806" s="7"/>
@@ -24656,7 +24676,7 @@
       <c r="AA806" s="7"/>
       <c r="AB806" s="7"/>
     </row>
-    <row r="807">
+    <row r="807" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A807" s="7"/>
       <c r="B807" s="7"/>
       <c r="C807" s="7"/>
@@ -24686,7 +24706,7 @@
       <c r="AA807" s="7"/>
       <c r="AB807" s="7"/>
     </row>
-    <row r="808">
+    <row r="808" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A808" s="7"/>
       <c r="B808" s="7"/>
       <c r="C808" s="7"/>
@@ -24716,7 +24736,7 @@
       <c r="AA808" s="7"/>
       <c r="AB808" s="7"/>
     </row>
-    <row r="809">
+    <row r="809" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A809" s="7"/>
       <c r="B809" s="7"/>
       <c r="C809" s="7"/>
@@ -24746,7 +24766,7 @@
       <c r="AA809" s="7"/>
       <c r="AB809" s="7"/>
     </row>
-    <row r="810">
+    <row r="810" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A810" s="7"/>
       <c r="B810" s="7"/>
       <c r="C810" s="7"/>
@@ -24776,7 +24796,7 @@
       <c r="AA810" s="7"/>
       <c r="AB810" s="7"/>
     </row>
-    <row r="811">
+    <row r="811" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A811" s="7"/>
       <c r="B811" s="7"/>
       <c r="C811" s="7"/>
@@ -24806,7 +24826,7 @@
       <c r="AA811" s="7"/>
       <c r="AB811" s="7"/>
     </row>
-    <row r="812">
+    <row r="812" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A812" s="7"/>
       <c r="B812" s="7"/>
       <c r="C812" s="7"/>
@@ -24836,7 +24856,7 @@
       <c r="AA812" s="7"/>
       <c r="AB812" s="7"/>
     </row>
-    <row r="813">
+    <row r="813" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A813" s="7"/>
       <c r="B813" s="7"/>
       <c r="C813" s="7"/>
@@ -24866,7 +24886,7 @@
       <c r="AA813" s="7"/>
       <c r="AB813" s="7"/>
     </row>
-    <row r="814">
+    <row r="814" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A814" s="7"/>
       <c r="B814" s="7"/>
       <c r="C814" s="7"/>
@@ -24896,7 +24916,7 @@
       <c r="AA814" s="7"/>
       <c r="AB814" s="7"/>
     </row>
-    <row r="815">
+    <row r="815" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A815" s="7"/>
       <c r="B815" s="7"/>
       <c r="C815" s="7"/>
@@ -24926,7 +24946,7 @@
       <c r="AA815" s="7"/>
       <c r="AB815" s="7"/>
     </row>
-    <row r="816">
+    <row r="816" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A816" s="7"/>
       <c r="B816" s="7"/>
       <c r="C816" s="7"/>
@@ -24956,7 +24976,7 @@
       <c r="AA816" s="7"/>
       <c r="AB816" s="7"/>
     </row>
-    <row r="817">
+    <row r="817" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A817" s="7"/>
       <c r="B817" s="7"/>
       <c r="C817" s="7"/>
@@ -24986,7 +25006,7 @@
       <c r="AA817" s="7"/>
       <c r="AB817" s="7"/>
     </row>
-    <row r="818">
+    <row r="818" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A818" s="7"/>
       <c r="B818" s="7"/>
       <c r="C818" s="7"/>
@@ -25016,7 +25036,7 @@
       <c r="AA818" s="7"/>
       <c r="AB818" s="7"/>
     </row>
-    <row r="819">
+    <row r="819" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A819" s="7"/>
       <c r="B819" s="7"/>
       <c r="C819" s="7"/>
@@ -25046,7 +25066,7 @@
       <c r="AA819" s="7"/>
       <c r="AB819" s="7"/>
     </row>
-    <row r="820">
+    <row r="820" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A820" s="7"/>
       <c r="B820" s="7"/>
       <c r="C820" s="7"/>
@@ -25076,7 +25096,7 @@
       <c r="AA820" s="7"/>
       <c r="AB820" s="7"/>
     </row>
-    <row r="821">
+    <row r="821" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A821" s="7"/>
       <c r="B821" s="7"/>
       <c r="C821" s="7"/>
@@ -25106,7 +25126,7 @@
       <c r="AA821" s="7"/>
       <c r="AB821" s="7"/>
     </row>
-    <row r="822">
+    <row r="822" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A822" s="7"/>
       <c r="B822" s="7"/>
       <c r="C822" s="7"/>
@@ -25136,7 +25156,7 @@
       <c r="AA822" s="7"/>
       <c r="AB822" s="7"/>
     </row>
-    <row r="823">
+    <row r="823" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A823" s="7"/>
       <c r="B823" s="7"/>
       <c r="C823" s="7"/>
@@ -25166,7 +25186,7 @@
       <c r="AA823" s="7"/>
       <c r="AB823" s="7"/>
     </row>
-    <row r="824">
+    <row r="824" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A824" s="7"/>
       <c r="B824" s="7"/>
       <c r="C824" s="7"/>
@@ -25196,7 +25216,7 @@
       <c r="AA824" s="7"/>
       <c r="AB824" s="7"/>
     </row>
-    <row r="825">
+    <row r="825" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A825" s="7"/>
       <c r="B825" s="7"/>
       <c r="C825" s="7"/>
@@ -25226,7 +25246,7 @@
       <c r="AA825" s="7"/>
       <c r="AB825" s="7"/>
     </row>
-    <row r="826">
+    <row r="826" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A826" s="7"/>
       <c r="B826" s="7"/>
       <c r="C826" s="7"/>
@@ -25256,7 +25276,7 @@
       <c r="AA826" s="7"/>
       <c r="AB826" s="7"/>
     </row>
-    <row r="827">
+    <row r="827" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A827" s="7"/>
       <c r="B827" s="7"/>
       <c r="C827" s="7"/>
@@ -25286,7 +25306,7 @@
       <c r="AA827" s="7"/>
       <c r="AB827" s="7"/>
     </row>
-    <row r="828">
+    <row r="828" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A828" s="7"/>
       <c r="B828" s="7"/>
       <c r="C828" s="7"/>
@@ -25316,7 +25336,7 @@
       <c r="AA828" s="7"/>
       <c r="AB828" s="7"/>
     </row>
-    <row r="829">
+    <row r="829" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A829" s="7"/>
       <c r="B829" s="7"/>
       <c r="C829" s="7"/>
@@ -25346,7 +25366,7 @@
       <c r="AA829" s="7"/>
       <c r="AB829" s="7"/>
     </row>
-    <row r="830">
+    <row r="830" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A830" s="7"/>
       <c r="B830" s="7"/>
       <c r="C830" s="7"/>
@@ -25376,7 +25396,7 @@
       <c r="AA830" s="7"/>
       <c r="AB830" s="7"/>
     </row>
-    <row r="831">
+    <row r="831" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A831" s="7"/>
       <c r="B831" s="7"/>
       <c r="C831" s="7"/>
@@ -25406,7 +25426,7 @@
       <c r="AA831" s="7"/>
       <c r="AB831" s="7"/>
     </row>
-    <row r="832">
+    <row r="832" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A832" s="7"/>
       <c r="B832" s="7"/>
       <c r="C832" s="7"/>
@@ -25436,7 +25456,7 @@
       <c r="AA832" s="7"/>
       <c r="AB832" s="7"/>
     </row>
-    <row r="833">
+    <row r="833" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A833" s="7"/>
       <c r="B833" s="7"/>
       <c r="C833" s="7"/>
@@ -25466,7 +25486,7 @@
       <c r="AA833" s="7"/>
       <c r="AB833" s="7"/>
     </row>
-    <row r="834">
+    <row r="834" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A834" s="7"/>
       <c r="B834" s="7"/>
       <c r="C834" s="7"/>
@@ -25496,7 +25516,7 @@
       <c r="AA834" s="7"/>
       <c r="AB834" s="7"/>
     </row>
-    <row r="835">
+    <row r="835" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A835" s="7"/>
       <c r="B835" s="7"/>
       <c r="C835" s="7"/>
@@ -25526,7 +25546,7 @@
       <c r="AA835" s="7"/>
       <c r="AB835" s="7"/>
     </row>
-    <row r="836">
+    <row r="836" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A836" s="7"/>
       <c r="B836" s="7"/>
       <c r="C836" s="7"/>
@@ -25556,7 +25576,7 @@
       <c r="AA836" s="7"/>
       <c r="AB836" s="7"/>
     </row>
-    <row r="837">
+    <row r="837" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A837" s="7"/>
       <c r="B837" s="7"/>
       <c r="C837" s="7"/>
@@ -25586,7 +25606,7 @@
       <c r="AA837" s="7"/>
       <c r="AB837" s="7"/>
     </row>
-    <row r="838">
+    <row r="838" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A838" s="7"/>
       <c r="B838" s="7"/>
       <c r="C838" s="7"/>
@@ -25616,7 +25636,7 @@
       <c r="AA838" s="7"/>
       <c r="AB838" s="7"/>
     </row>
-    <row r="839">
+    <row r="839" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A839" s="7"/>
       <c r="B839" s="7"/>
       <c r="C839" s="7"/>
@@ -25646,7 +25666,7 @@
       <c r="AA839" s="7"/>
       <c r="AB839" s="7"/>
     </row>
-    <row r="840">
+    <row r="840" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A840" s="7"/>
       <c r="B840" s="7"/>
       <c r="C840" s="7"/>
@@ -25676,7 +25696,7 @@
       <c r="AA840" s="7"/>
       <c r="AB840" s="7"/>
     </row>
-    <row r="841">
+    <row r="841" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A841" s="7"/>
       <c r="B841" s="7"/>
       <c r="C841" s="7"/>
@@ -25706,7 +25726,7 @@
       <c r="AA841" s="7"/>
       <c r="AB841" s="7"/>
     </row>
-    <row r="842">
+    <row r="842" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A842" s="7"/>
       <c r="B842" s="7"/>
       <c r="C842" s="7"/>
@@ -25736,7 +25756,7 @@
       <c r="AA842" s="7"/>
       <c r="AB842" s="7"/>
     </row>
-    <row r="843">
+    <row r="843" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A843" s="7"/>
       <c r="B843" s="7"/>
       <c r="C843" s="7"/>
@@ -25766,7 +25786,7 @@
       <c r="AA843" s="7"/>
       <c r="AB843" s="7"/>
     </row>
-    <row r="844">
+    <row r="844" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A844" s="7"/>
       <c r="B844" s="7"/>
       <c r="C844" s="7"/>
@@ -25796,7 +25816,7 @@
       <c r="AA844" s="7"/>
       <c r="AB844" s="7"/>
     </row>
-    <row r="845">
+    <row r="845" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A845" s="7"/>
       <c r="B845" s="7"/>
       <c r="C845" s="7"/>
@@ -25826,7 +25846,7 @@
       <c r="AA845" s="7"/>
       <c r="AB845" s="7"/>
     </row>
-    <row r="846">
+    <row r="846" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A846" s="7"/>
       <c r="B846" s="7"/>
       <c r="C846" s="7"/>
@@ -25856,7 +25876,7 @@
       <c r="AA846" s="7"/>
       <c r="AB846" s="7"/>
     </row>
-    <row r="847">
+    <row r="847" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A847" s="7"/>
       <c r="B847" s="7"/>
       <c r="C847" s="7"/>
@@ -25886,7 +25906,7 @@
       <c r="AA847" s="7"/>
       <c r="AB847" s="7"/>
     </row>
-    <row r="848">
+    <row r="848" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A848" s="7"/>
       <c r="B848" s="7"/>
       <c r="C848" s="7"/>
@@ -25916,7 +25936,7 @@
       <c r="AA848" s="7"/>
       <c r="AB848" s="7"/>
     </row>
-    <row r="849">
+    <row r="849" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A849" s="7"/>
       <c r="B849" s="7"/>
       <c r="C849" s="7"/>
@@ -25946,7 +25966,7 @@
       <c r="AA849" s="7"/>
       <c r="AB849" s="7"/>
     </row>
-    <row r="850">
+    <row r="850" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A850" s="7"/>
       <c r="B850" s="7"/>
       <c r="C850" s="7"/>
@@ -25976,7 +25996,7 @@
       <c r="AA850" s="7"/>
       <c r="AB850" s="7"/>
     </row>
-    <row r="851">
+    <row r="851" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A851" s="7"/>
       <c r="B851" s="7"/>
       <c r="C851" s="7"/>
@@ -26006,7 +26026,7 @@
       <c r="AA851" s="7"/>
       <c r="AB851" s="7"/>
     </row>
-    <row r="852">
+    <row r="852" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A852" s="7"/>
       <c r="B852" s="7"/>
       <c r="C852" s="7"/>
@@ -26036,7 +26056,7 @@
       <c r="AA852" s="7"/>
       <c r="AB852" s="7"/>
     </row>
-    <row r="853">
+    <row r="853" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A853" s="7"/>
       <c r="B853" s="7"/>
       <c r="C853" s="7"/>
@@ -26066,7 +26086,7 @@
       <c r="AA853" s="7"/>
       <c r="AB853" s="7"/>
     </row>
-    <row r="854">
+    <row r="854" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A854" s="7"/>
       <c r="B854" s="7"/>
       <c r="C854" s="7"/>
@@ -26096,7 +26116,7 @@
       <c r="AA854" s="7"/>
       <c r="AB854" s="7"/>
     </row>
-    <row r="855">
+    <row r="855" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A855" s="7"/>
       <c r="B855" s="7"/>
       <c r="C855" s="7"/>
@@ -26126,7 +26146,7 @@
       <c r="AA855" s="7"/>
       <c r="AB855" s="7"/>
     </row>
-    <row r="856">
+    <row r="856" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A856" s="7"/>
       <c r="B856" s="7"/>
       <c r="C856" s="7"/>
@@ -26156,7 +26176,7 @@
       <c r="AA856" s="7"/>
       <c r="AB856" s="7"/>
     </row>
-    <row r="857">
+    <row r="857" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A857" s="7"/>
       <c r="B857" s="7"/>
       <c r="C857" s="7"/>
@@ -26186,7 +26206,7 @@
       <c r="AA857" s="7"/>
       <c r="AB857" s="7"/>
     </row>
-    <row r="858">
+    <row r="858" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A858" s="7"/>
       <c r="B858" s="7"/>
       <c r="C858" s="7"/>
@@ -26216,7 +26236,7 @@
       <c r="AA858" s="7"/>
       <c r="AB858" s="7"/>
     </row>
-    <row r="859">
+    <row r="859" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A859" s="7"/>
       <c r="B859" s="7"/>
       <c r="C859" s="7"/>
@@ -26246,7 +26266,7 @@
       <c r="AA859" s="7"/>
       <c r="AB859" s="7"/>
     </row>
-    <row r="860">
+    <row r="860" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A860" s="7"/>
       <c r="B860" s="7"/>
       <c r="C860" s="7"/>
@@ -26276,7 +26296,7 @@
       <c r="AA860" s="7"/>
       <c r="AB860" s="7"/>
     </row>
-    <row r="861">
+    <row r="861" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A861" s="7"/>
       <c r="B861" s="7"/>
       <c r="C861" s="7"/>
@@ -26306,7 +26326,7 @@
       <c r="AA861" s="7"/>
       <c r="AB861" s="7"/>
     </row>
-    <row r="862">
+    <row r="862" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A862" s="7"/>
       <c r="B862" s="7"/>
       <c r="C862" s="7"/>
@@ -26336,7 +26356,7 @@
       <c r="AA862" s="7"/>
       <c r="AB862" s="7"/>
     </row>
-    <row r="863">
+    <row r="863" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A863" s="7"/>
       <c r="B863" s="7"/>
       <c r="C863" s="7"/>
@@ -26366,7 +26386,7 @@
       <c r="AA863" s="7"/>
       <c r="AB863" s="7"/>
     </row>
-    <row r="864">
+    <row r="864" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A864" s="7"/>
       <c r="B864" s="7"/>
       <c r="C864" s="7"/>
@@ -26396,7 +26416,7 @@
       <c r="AA864" s="7"/>
       <c r="AB864" s="7"/>
     </row>
-    <row r="865">
+    <row r="865" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A865" s="7"/>
       <c r="B865" s="7"/>
       <c r="C865" s="7"/>
@@ -26426,7 +26446,7 @@
       <c r="AA865" s="7"/>
       <c r="AB865" s="7"/>
     </row>
-    <row r="866">
+    <row r="866" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A866" s="7"/>
       <c r="B866" s="7"/>
       <c r="C866" s="7"/>
@@ -26456,7 +26476,7 @@
       <c r="AA866" s="7"/>
       <c r="AB866" s="7"/>
     </row>
-    <row r="867">
+    <row r="867" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A867" s="7"/>
       <c r="B867" s="7"/>
       <c r="C867" s="7"/>
@@ -26486,7 +26506,7 @@
       <c r="AA867" s="7"/>
       <c r="AB867" s="7"/>
     </row>
-    <row r="868">
+    <row r="868" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A868" s="7"/>
       <c r="B868" s="7"/>
       <c r="C868" s="7"/>
@@ -26516,7 +26536,7 @@
       <c r="AA868" s="7"/>
       <c r="AB868" s="7"/>
     </row>
-    <row r="869">
+    <row r="869" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A869" s="7"/>
       <c r="B869" s="7"/>
       <c r="C869" s="7"/>
@@ -26546,7 +26566,7 @@
       <c r="AA869" s="7"/>
       <c r="AB869" s="7"/>
     </row>
-    <row r="870">
+    <row r="870" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A870" s="7"/>
       <c r="B870" s="7"/>
       <c r="C870" s="7"/>
@@ -26576,7 +26596,7 @@
       <c r="AA870" s="7"/>
       <c r="AB870" s="7"/>
     </row>
-    <row r="871">
+    <row r="871" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A871" s="7"/>
       <c r="B871" s="7"/>
       <c r="C871" s="7"/>
@@ -26606,7 +26626,7 @@
       <c r="AA871" s="7"/>
       <c r="AB871" s="7"/>
     </row>
-    <row r="872">
+    <row r="872" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A872" s="7"/>
       <c r="B872" s="7"/>
       <c r="C872" s="7"/>
@@ -26636,7 +26656,7 @@
       <c r="AA872" s="7"/>
       <c r="AB872" s="7"/>
     </row>
-    <row r="873">
+    <row r="873" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A873" s="7"/>
       <c r="B873" s="7"/>
       <c r="C873" s="7"/>
@@ -26666,7 +26686,7 @@
       <c r="AA873" s="7"/>
       <c r="AB873" s="7"/>
     </row>
-    <row r="874">
+    <row r="874" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A874" s="7"/>
       <c r="B874" s="7"/>
       <c r="C874" s="7"/>
@@ -26696,7 +26716,7 @@
       <c r="AA874" s="7"/>
       <c r="AB874" s="7"/>
     </row>
-    <row r="875">
+    <row r="875" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A875" s="7"/>
       <c r="B875" s="7"/>
       <c r="C875" s="7"/>
@@ -26726,7 +26746,7 @@
       <c r="AA875" s="7"/>
       <c r="AB875" s="7"/>
     </row>
-    <row r="876">
+    <row r="876" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A876" s="7"/>
       <c r="B876" s="7"/>
       <c r="C876" s="7"/>
@@ -26756,7 +26776,7 @@
       <c r="AA876" s="7"/>
       <c r="AB876" s="7"/>
     </row>
-    <row r="877">
+    <row r="877" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A877" s="7"/>
       <c r="B877" s="7"/>
       <c r="C877" s="7"/>
@@ -26786,7 +26806,7 @@
       <c r="AA877" s="7"/>
       <c r="AB877" s="7"/>
     </row>
-    <row r="878">
+    <row r="878" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A878" s="7"/>
       <c r="B878" s="7"/>
       <c r="C878" s="7"/>
@@ -26816,7 +26836,7 @@
       <c r="AA878" s="7"/>
       <c r="AB878" s="7"/>
     </row>
-    <row r="879">
+    <row r="879" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A879" s="7"/>
       <c r="B879" s="7"/>
       <c r="C879" s="7"/>
@@ -26846,7 +26866,7 @@
       <c r="AA879" s="7"/>
       <c r="AB879" s="7"/>
     </row>
-    <row r="880">
+    <row r="880" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A880" s="7"/>
       <c r="B880" s="7"/>
       <c r="C880" s="7"/>
@@ -26876,7 +26896,7 @@
       <c r="AA880" s="7"/>
       <c r="AB880" s="7"/>
     </row>
-    <row r="881">
+    <row r="881" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A881" s="7"/>
       <c r="B881" s="7"/>
       <c r="C881" s="7"/>
@@ -26906,7 +26926,7 @@
       <c r="AA881" s="7"/>
       <c r="AB881" s="7"/>
     </row>
-    <row r="882">
+    <row r="882" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A882" s="7"/>
       <c r="B882" s="7"/>
       <c r="C882" s="7"/>
@@ -26936,7 +26956,7 @@
       <c r="AA882" s="7"/>
       <c r="AB882" s="7"/>
     </row>
-    <row r="883">
+    <row r="883" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A883" s="7"/>
       <c r="B883" s="7"/>
       <c r="C883" s="7"/>
@@ -26966,7 +26986,7 @@
       <c r="AA883" s="7"/>
       <c r="AB883" s="7"/>
     </row>
-    <row r="884">
+    <row r="884" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A884" s="7"/>
       <c r="B884" s="7"/>
       <c r="C884" s="7"/>
@@ -26996,7 +27016,7 @@
       <c r="AA884" s="7"/>
       <c r="AB884" s="7"/>
     </row>
-    <row r="885">
+    <row r="885" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A885" s="7"/>
       <c r="B885" s="7"/>
       <c r="C885" s="7"/>
@@ -27026,7 +27046,7 @@
       <c r="AA885" s="7"/>
       <c r="AB885" s="7"/>
     </row>
-    <row r="886">
+    <row r="886" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A886" s="7"/>
       <c r="B886" s="7"/>
       <c r="C886" s="7"/>
@@ -27056,7 +27076,7 @@
       <c r="AA886" s="7"/>
       <c r="AB886" s="7"/>
     </row>
-    <row r="887">
+    <row r="887" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A887" s="7"/>
       <c r="B887" s="7"/>
       <c r="C887" s="7"/>
@@ -27086,7 +27106,7 @@
       <c r="AA887" s="7"/>
       <c r="AB887" s="7"/>
     </row>
-    <row r="888">
+    <row r="888" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A888" s="7"/>
       <c r="B888" s="7"/>
       <c r="C888" s="7"/>
@@ -27116,7 +27136,7 @@
       <c r="AA888" s="7"/>
       <c r="AB888" s="7"/>
     </row>
-    <row r="889">
+    <row r="889" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A889" s="7"/>
       <c r="B889" s="7"/>
       <c r="C889" s="7"/>
@@ -27146,7 +27166,7 @@
       <c r="AA889" s="7"/>
       <c r="AB889" s="7"/>
     </row>
-    <row r="890">
+    <row r="890" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A890" s="7"/>
       <c r="B890" s="7"/>
       <c r="C890" s="7"/>
@@ -27176,7 +27196,7 @@
       <c r="AA890" s="7"/>
       <c r="AB890" s="7"/>
     </row>
-    <row r="891">
+    <row r="891" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A891" s="7"/>
       <c r="B891" s="7"/>
       <c r="C891" s="7"/>
@@ -27206,7 +27226,7 @@
       <c r="AA891" s="7"/>
       <c r="AB891" s="7"/>
     </row>
-    <row r="892">
+    <row r="892" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A892" s="7"/>
       <c r="B892" s="7"/>
       <c r="C892" s="7"/>
@@ -27236,7 +27256,7 @@
       <c r="AA892" s="7"/>
       <c r="AB892" s="7"/>
     </row>
-    <row r="893">
+    <row r="893" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A893" s="7"/>
       <c r="B893" s="7"/>
       <c r="C893" s="7"/>
@@ -27266,7 +27286,7 @@
       <c r="AA893" s="7"/>
       <c r="AB893" s="7"/>
     </row>
-    <row r="894">
+    <row r="894" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A894" s="7"/>
       <c r="B894" s="7"/>
       <c r="C894" s="7"/>
@@ -27296,7 +27316,7 @@
       <c r="AA894" s="7"/>
       <c r="AB894" s="7"/>
     </row>
-    <row r="895">
+    <row r="895" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A895" s="7"/>
       <c r="B895" s="7"/>
       <c r="C895" s="7"/>
@@ -27326,7 +27346,7 @@
       <c r="AA895" s="7"/>
       <c r="AB895" s="7"/>
     </row>
-    <row r="896">
+    <row r="896" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A896" s="7"/>
       <c r="B896" s="7"/>
       <c r="C896" s="7"/>
@@ -27356,7 +27376,7 @@
       <c r="AA896" s="7"/>
       <c r="AB896" s="7"/>
     </row>
-    <row r="897">
+    <row r="897" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A897" s="7"/>
       <c r="B897" s="7"/>
       <c r="C897" s="7"/>
@@ -27386,7 +27406,7 @@
       <c r="AA897" s="7"/>
       <c r="AB897" s="7"/>
     </row>
-    <row r="898">
+    <row r="898" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A898" s="7"/>
       <c r="B898" s="7"/>
       <c r="C898" s="7"/>
@@ -27416,7 +27436,7 @@
       <c r="AA898" s="7"/>
       <c r="AB898" s="7"/>
     </row>
-    <row r="899">
+    <row r="899" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A899" s="7"/>
       <c r="B899" s="7"/>
       <c r="C899" s="7"/>
@@ -27446,7 +27466,7 @@
       <c r="AA899" s="7"/>
       <c r="AB899" s="7"/>
     </row>
-    <row r="900">
+    <row r="900" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A900" s="7"/>
       <c r="B900" s="7"/>
       <c r="C900" s="7"/>
@@ -27476,7 +27496,7 @@
       <c r="AA900" s="7"/>
       <c r="AB900" s="7"/>
     </row>
-    <row r="901">
+    <row r="901" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A901" s="7"/>
       <c r="B901" s="7"/>
       <c r="C901" s="7"/>
@@ -27506,7 +27526,7 @@
       <c r="AA901" s="7"/>
       <c r="AB901" s="7"/>
     </row>
-    <row r="902">
+    <row r="902" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A902" s="7"/>
       <c r="B902" s="7"/>
       <c r="C902" s="7"/>
@@ -27536,7 +27556,7 @@
       <c r="AA902" s="7"/>
       <c r="AB902" s="7"/>
     </row>
-    <row r="903">
+    <row r="903" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A903" s="7"/>
       <c r="B903" s="7"/>
       <c r="C903" s="7"/>
@@ -27566,7 +27586,7 @@
       <c r="AA903" s="7"/>
       <c r="AB903" s="7"/>
     </row>
-    <row r="904">
+    <row r="904" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A904" s="7"/>
       <c r="B904" s="7"/>
       <c r="C904" s="7"/>
@@ -27596,7 +27616,7 @@
       <c r="AA904" s="7"/>
       <c r="AB904" s="7"/>
     </row>
-    <row r="905">
+    <row r="905" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A905" s="7"/>
       <c r="B905" s="7"/>
       <c r="C905" s="7"/>
@@ -27626,7 +27646,7 @@
       <c r="AA905" s="7"/>
       <c r="AB905" s="7"/>
     </row>
-    <row r="906">
+    <row r="906" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A906" s="7"/>
       <c r="B906" s="7"/>
       <c r="C906" s="7"/>
@@ -27656,7 +27676,7 @@
       <c r="AA906" s="7"/>
       <c r="AB906" s="7"/>
     </row>
-    <row r="907">
+    <row r="907" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A907" s="7"/>
       <c r="B907" s="7"/>
       <c r="C907" s="7"/>
@@ -27686,7 +27706,7 @@
       <c r="AA907" s="7"/>
       <c r="AB907" s="7"/>
     </row>
-    <row r="908">
+    <row r="908" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A908" s="7"/>
       <c r="B908" s="7"/>
       <c r="C908" s="7"/>
@@ -27716,7 +27736,7 @@
       <c r="AA908" s="7"/>
       <c r="AB908" s="7"/>
     </row>
-    <row r="909">
+    <row r="909" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A909" s="7"/>
       <c r="B909" s="7"/>
       <c r="C909" s="7"/>
@@ -27746,7 +27766,7 @@
       <c r="AA909" s="7"/>
       <c r="AB909" s="7"/>
     </row>
-    <row r="910">
+    <row r="910" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A910" s="7"/>
       <c r="B910" s="7"/>
       <c r="C910" s="7"/>
@@ -27776,7 +27796,7 @@
       <c r="AA910" s="7"/>
       <c r="AB910" s="7"/>
     </row>
-    <row r="911">
+    <row r="911" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A911" s="7"/>
       <c r="B911" s="7"/>
       <c r="C911" s="7"/>
@@ -27806,7 +27826,7 @@
       <c r="AA911" s="7"/>
       <c r="AB911" s="7"/>
     </row>
-    <row r="912">
+    <row r="912" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A912" s="7"/>
       <c r="B912" s="7"/>
       <c r="C912" s="7"/>
@@ -27836,7 +27856,7 @@
       <c r="AA912" s="7"/>
       <c r="AB912" s="7"/>
     </row>
-    <row r="913">
+    <row r="913" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A913" s="7"/>
       <c r="B913" s="7"/>
       <c r="C913" s="7"/>
@@ -27866,7 +27886,7 @@
       <c r="AA913" s="7"/>
       <c r="AB913" s="7"/>
     </row>
-    <row r="914">
+    <row r="914" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A914" s="7"/>
       <c r="B914" s="7"/>
       <c r="C914" s="7"/>
@@ -27896,7 +27916,7 @@
       <c r="AA914" s="7"/>
       <c r="AB914" s="7"/>
     </row>
-    <row r="915">
+    <row r="915" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A915" s="7"/>
       <c r="B915" s="7"/>
       <c r="C915" s="7"/>
@@ -27926,7 +27946,7 @@
       <c r="AA915" s="7"/>
       <c r="AB915" s="7"/>
     </row>
-    <row r="916">
+    <row r="916" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A916" s="7"/>
       <c r="B916" s="7"/>
       <c r="C916" s="7"/>
@@ -27956,7 +27976,7 @@
       <c r="AA916" s="7"/>
       <c r="AB916" s="7"/>
     </row>
-    <row r="917">
+    <row r="917" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A917" s="7"/>
       <c r="B917" s="7"/>
       <c r="C917" s="7"/>
@@ -27986,7 +28006,7 @@
       <c r="AA917" s="7"/>
       <c r="AB917" s="7"/>
     </row>
-    <row r="918">
+    <row r="918" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A918" s="7"/>
       <c r="B918" s="7"/>
       <c r="C918" s="7"/>
@@ -28016,7 +28036,7 @@
       <c r="AA918" s="7"/>
       <c r="AB918" s="7"/>
     </row>
-    <row r="919">
+    <row r="919" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A919" s="7"/>
       <c r="B919" s="7"/>
       <c r="C919" s="7"/>
@@ -28046,7 +28066,7 @@
       <c r="AA919" s="7"/>
       <c r="AB919" s="7"/>
     </row>
-    <row r="920">
+    <row r="920" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A920" s="7"/>
       <c r="B920" s="7"/>
       <c r="C920" s="7"/>
@@ -28076,7 +28096,7 @@
       <c r="AA920" s="7"/>
       <c r="AB920" s="7"/>
     </row>
-    <row r="921">
+    <row r="921" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A921" s="7"/>
       <c r="B921" s="7"/>
       <c r="C921" s="7"/>
@@ -28106,7 +28126,7 @@
       <c r="AA921" s="7"/>
       <c r="AB921" s="7"/>
     </row>
-    <row r="922">
+    <row r="922" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A922" s="7"/>
       <c r="B922" s="7"/>
       <c r="C922" s="7"/>
@@ -28136,7 +28156,7 @@
       <c r="AA922" s="7"/>
       <c r="AB922" s="7"/>
     </row>
-    <row r="923">
+    <row r="923" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A923" s="7"/>
       <c r="B923" s="7"/>
       <c r="C923" s="7"/>
@@ -28166,7 +28186,7 @@
       <c r="AA923" s="7"/>
       <c r="AB923" s="7"/>
     </row>
-    <row r="924">
+    <row r="924" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A924" s="7"/>
       <c r="B924" s="7"/>
       <c r="C924" s="7"/>
@@ -28196,7 +28216,7 @@
       <c r="AA924" s="7"/>
       <c r="AB924" s="7"/>
     </row>
-    <row r="925">
+    <row r="925" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A925" s="7"/>
       <c r="B925" s="7"/>
       <c r="C925" s="7"/>
@@ -28226,7 +28246,7 @@
       <c r="AA925" s="7"/>
       <c r="AB925" s="7"/>
     </row>
-    <row r="926">
+    <row r="926" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A926" s="7"/>
       <c r="B926" s="7"/>
       <c r="C926" s="7"/>
@@ -28256,7 +28276,7 @@
       <c r="AA926" s="7"/>
       <c r="AB926" s="7"/>
     </row>
-    <row r="927">
+    <row r="927" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A927" s="7"/>
       <c r="B927" s="7"/>
       <c r="C927" s="7"/>
@@ -28286,7 +28306,7 @@
       <c r="AA927" s="7"/>
       <c r="AB927" s="7"/>
     </row>
-    <row r="928">
+    <row r="928" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A928" s="7"/>
       <c r="B928" s="7"/>
       <c r="C928" s="7"/>
@@ -28316,7 +28336,7 @@
       <c r="AA928" s="7"/>
       <c r="AB928" s="7"/>
     </row>
-    <row r="929">
+    <row r="929" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A929" s="7"/>
       <c r="B929" s="7"/>
       <c r="C929" s="7"/>
@@ -28346,7 +28366,7 @@
       <c r="AA929" s="7"/>
       <c r="AB929" s="7"/>
     </row>
-    <row r="930">
+    <row r="930" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A930" s="7"/>
       <c r="B930" s="7"/>
       <c r="C930" s="7"/>
@@ -28376,7 +28396,7 @@
       <c r="AA930" s="7"/>
       <c r="AB930" s="7"/>
     </row>
-    <row r="931">
+    <row r="931" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A931" s="7"/>
       <c r="B931" s="7"/>
       <c r="C931" s="7"/>
@@ -28406,7 +28426,7 @@
       <c r="AA931" s="7"/>
       <c r="AB931" s="7"/>
     </row>
-    <row r="932">
+    <row r="932" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A932" s="7"/>
       <c r="B932" s="7"/>
       <c r="C932" s="7"/>
@@ -28436,7 +28456,7 @@
       <c r="AA932" s="7"/>
       <c r="AB932" s="7"/>
     </row>
-    <row r="933">
+    <row r="933" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A933" s="7"/>
       <c r="B933" s="7"/>
       <c r="C933" s="7"/>
@@ -28466,7 +28486,7 @@
       <c r="AA933" s="7"/>
       <c r="AB933" s="7"/>
     </row>
-    <row r="934">
+    <row r="934" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A934" s="7"/>
       <c r="B934" s="7"/>
       <c r="C934" s="7"/>
@@ -28496,7 +28516,7 @@
       <c r="AA934" s="7"/>
       <c r="AB934" s="7"/>
     </row>
-    <row r="935">
+    <row r="935" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A935" s="7"/>
       <c r="B935" s="7"/>
       <c r="C935" s="7"/>
@@ -28526,7 +28546,7 @@
       <c r="AA935" s="7"/>
       <c r="AB935" s="7"/>
     </row>
-    <row r="936">
+    <row r="936" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A936" s="7"/>
       <c r="B936" s="7"/>
       <c r="C936" s="7"/>
@@ -28556,7 +28576,7 @@
       <c r="AA936" s="7"/>
       <c r="AB936" s="7"/>
     </row>
-    <row r="937">
+    <row r="937" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A937" s="7"/>
       <c r="B937" s="7"/>
       <c r="C937" s="7"/>
@@ -28586,7 +28606,7 @@
       <c r="AA937" s="7"/>
       <c r="AB937" s="7"/>
     </row>
-    <row r="938">
+    <row r="938" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A938" s="7"/>
       <c r="B938" s="7"/>
       <c r="C938" s="7"/>
@@ -28616,7 +28636,7 @@
       <c r="AA938" s="7"/>
       <c r="AB938" s="7"/>
     </row>
-    <row r="939">
+    <row r="939" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A939" s="7"/>
       <c r="B939" s="7"/>
       <c r="C939" s="7"/>
@@ -28646,7 +28666,7 @@
       <c r="AA939" s="7"/>
       <c r="AB939" s="7"/>
     </row>
-    <row r="940">
+    <row r="940" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A940" s="7"/>
       <c r="B940" s="7"/>
       <c r="C940" s="7"/>
@@ -28676,7 +28696,7 @@
       <c r="AA940" s="7"/>
       <c r="AB940" s="7"/>
     </row>
-    <row r="941">
+    <row r="941" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A941" s="7"/>
       <c r="B941" s="7"/>
       <c r="C941" s="7"/>
@@ -28706,7 +28726,7 @@
       <c r="AA941" s="7"/>
       <c r="AB941" s="7"/>
     </row>
-    <row r="942">
+    <row r="942" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A942" s="7"/>
       <c r="B942" s="7"/>
       <c r="C942" s="7"/>
@@ -28736,7 +28756,7 @@
       <c r="AA942" s="7"/>
       <c r="AB942" s="7"/>
     </row>
-    <row r="943">
+    <row r="943" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A943" s="7"/>
       <c r="B943" s="7"/>
       <c r="C943" s="7"/>
@@ -28766,7 +28786,7 @@
       <c r="AA943" s="7"/>
       <c r="AB943" s="7"/>
     </row>
-    <row r="944">
+    <row r="944" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A944" s="7"/>
       <c r="B944" s="7"/>
       <c r="C944" s="7"/>
@@ -28796,7 +28816,7 @@
       <c r="AA944" s="7"/>
       <c r="AB944" s="7"/>
     </row>
-    <row r="945">
+    <row r="945" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A945" s="7"/>
       <c r="B945" s="7"/>
       <c r="C945" s="7"/>
@@ -28826,7 +28846,7 @@
       <c r="AA945" s="7"/>
       <c r="AB945" s="7"/>
     </row>
-    <row r="946">
+    <row r="946" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A946" s="7"/>
       <c r="B946" s="7"/>
       <c r="C946" s="7"/>
@@ -28856,7 +28876,7 @@
       <c r="AA946" s="7"/>
       <c r="AB946" s="7"/>
     </row>
-    <row r="947">
+    <row r="947" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A947" s="7"/>
       <c r="B947" s="7"/>
       <c r="C947" s="7"/>
@@ -28886,7 +28906,7 @@
       <c r="AA947" s="7"/>
       <c r="AB947" s="7"/>
     </row>
-    <row r="948">
+    <row r="948" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A948" s="7"/>
       <c r="B948" s="7"/>
       <c r="C948" s="7"/>
@@ -28916,7 +28936,7 @@
       <c r="AA948" s="7"/>
       <c r="AB948" s="7"/>
     </row>
-    <row r="949">
+    <row r="949" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A949" s="7"/>
       <c r="B949" s="7"/>
       <c r="C949" s="7"/>
@@ -28946,7 +28966,7 @@
       <c r="AA949" s="7"/>
       <c r="AB949" s="7"/>
     </row>
-    <row r="950">
+    <row r="950" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A950" s="7"/>
       <c r="B950" s="7"/>
       <c r="C950" s="7"/>
@@ -28976,7 +28996,7 @@
       <c r="AA950" s="7"/>
       <c r="AB950" s="7"/>
     </row>
-    <row r="951">
+    <row r="951" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A951" s="7"/>
       <c r="B951" s="7"/>
       <c r="C951" s="7"/>
@@ -29006,7 +29026,7 @@
       <c r="AA951" s="7"/>
       <c r="AB951" s="7"/>
     </row>
-    <row r="952">
+    <row r="952" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A952" s="7"/>
       <c r="B952" s="7"/>
       <c r="C952" s="7"/>
@@ -29036,7 +29056,7 @@
       <c r="AA952" s="7"/>
       <c r="AB952" s="7"/>
     </row>
-    <row r="953">
+    <row r="953" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A953" s="7"/>
       <c r="B953" s="7"/>
       <c r="C953" s="7"/>
@@ -29066,7 +29086,7 @@
       <c r="AA953" s="7"/>
       <c r="AB953" s="7"/>
     </row>
-    <row r="954">
+    <row r="954" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A954" s="7"/>
       <c r="B954" s="7"/>
       <c r="C954" s="7"/>
@@ -29096,7 +29116,7 @@
       <c r="AA954" s="7"/>
       <c r="AB954" s="7"/>
     </row>
-    <row r="955">
+    <row r="955" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A955" s="7"/>
       <c r="B955" s="7"/>
       <c r="C955" s="7"/>
@@ -29126,7 +29146,7 @@
       <c r="AA955" s="7"/>
       <c r="AB955" s="7"/>
     </row>
-    <row r="956">
+    <row r="956" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A956" s="7"/>
       <c r="B956" s="7"/>
       <c r="C956" s="7"/>
@@ -29156,7 +29176,7 @@
       <c r="AA956" s="7"/>
       <c r="AB956" s="7"/>
     </row>
-    <row r="957">
+    <row r="957" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A957" s="7"/>
       <c r="B957" s="7"/>
       <c r="C957" s="7"/>
@@ -29186,7 +29206,7 @@
       <c r="AA957" s="7"/>
       <c r="AB957" s="7"/>
     </row>
-    <row r="958">
+    <row r="958" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A958" s="7"/>
       <c r="B958" s="7"/>
       <c r="C958" s="7"/>
@@ -29216,7 +29236,7 @@
       <c r="AA958" s="7"/>
       <c r="AB958" s="7"/>
     </row>
-    <row r="959">
+    <row r="959" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A959" s="7"/>
       <c r="B959" s="7"/>
       <c r="C959" s="7"/>
@@ -29246,7 +29266,7 @@
       <c r="AA959" s="7"/>
       <c r="AB959" s="7"/>
     </row>
-    <row r="960">
+    <row r="960" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A960" s="7"/>
       <c r="B960" s="7"/>
       <c r="C960" s="7"/>
@@ -29276,7 +29296,7 @@
       <c r="AA960" s="7"/>
       <c r="AB960" s="7"/>
     </row>
-    <row r="961">
+    <row r="961" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A961" s="7"/>
       <c r="B961" s="7"/>
       <c r="C961" s="7"/>
@@ -29306,7 +29326,7 @@
       <c r="AA961" s="7"/>
       <c r="AB961" s="7"/>
     </row>
-    <row r="962">
+    <row r="962" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A962" s="7"/>
       <c r="B962" s="7"/>
       <c r="C962" s="7"/>
@@ -29336,7 +29356,7 @@
       <c r="AA962" s="7"/>
       <c r="AB962" s="7"/>
     </row>
-    <row r="963">
+    <row r="963" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A963" s="7"/>
       <c r="B963" s="7"/>
       <c r="C963" s="7"/>
@@ -29366,7 +29386,7 @@
       <c r="AA963" s="7"/>
       <c r="AB963" s="7"/>
     </row>
-    <row r="964">
+    <row r="964" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A964" s="7"/>
       <c r="B964" s="7"/>
       <c r="C964" s="7"/>
@@ -29396,7 +29416,7 @@
       <c r="AA964" s="7"/>
       <c r="AB964" s="7"/>
     </row>
-    <row r="965">
+    <row r="965" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A965" s="7"/>
       <c r="B965" s="7"/>
       <c r="C965" s="7"/>
@@ -29426,7 +29446,7 @@
       <c r="AA965" s="7"/>
       <c r="AB965" s="7"/>
     </row>
-    <row r="966">
+    <row r="966" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A966" s="7"/>
       <c r="B966" s="7"/>
       <c r="C966" s="7"/>
@@ -29456,7 +29476,7 @@
       <c r="AA966" s="7"/>
       <c r="AB966" s="7"/>
     </row>
-    <row r="967">
+    <row r="967" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A967" s="7"/>
       <c r="B967" s="7"/>
       <c r="C967" s="7"/>
@@ -29486,7 +29506,7 @@
       <c r="AA967" s="7"/>
       <c r="AB967" s="7"/>
     </row>
-    <row r="968">
+    <row r="968" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A968" s="7"/>
       <c r="B968" s="7"/>
       <c r="C968" s="7"/>
@@ -29516,7 +29536,7 @@
       <c r="AA968" s="7"/>
       <c r="AB968" s="7"/>
     </row>
-    <row r="969">
+    <row r="969" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A969" s="7"/>
       <c r="B969" s="7"/>
       <c r="C969" s="7"/>
@@ -29546,7 +29566,7 @@
       <c r="AA969" s="7"/>
       <c r="AB969" s="7"/>
     </row>
-    <row r="970">
+    <row r="970" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A970" s="7"/>
       <c r="B970" s="7"/>
       <c r="C970" s="7"/>
@@ -29576,7 +29596,7 @@
       <c r="AA970" s="7"/>
       <c r="AB970" s="7"/>
     </row>
-    <row r="971">
+    <row r="971" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A971" s="7"/>
       <c r="B971" s="7"/>
       <c r="C971" s="7"/>
@@ -29606,7 +29626,7 @@
       <c r="AA971" s="7"/>
       <c r="AB971" s="7"/>
     </row>
-    <row r="972">
+    <row r="972" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A972" s="7"/>
       <c r="B972" s="7"/>
       <c r="C972" s="7"/>
@@ -29636,7 +29656,7 @@
       <c r="AA972" s="7"/>
       <c r="AB972" s="7"/>
     </row>
-    <row r="973">
+    <row r="973" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A973" s="7"/>
       <c r="B973" s="7"/>
       <c r="C973" s="7"/>
@@ -29666,7 +29686,7 @@
       <c r="AA973" s="7"/>
       <c r="AB973" s="7"/>
     </row>
-    <row r="974">
+    <row r="974" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A974" s="7"/>
       <c r="B974" s="7"/>
       <c r="C974" s="7"/>
@@ -29696,7 +29716,7 @@
       <c r="AA974" s="7"/>
       <c r="AB974" s="7"/>
     </row>
-    <row r="975">
+    <row r="975" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A975" s="7"/>
       <c r="B975" s="7"/>
       <c r="C975" s="7"/>
@@ -29726,7 +29746,7 @@
       <c r="AA975" s="7"/>
       <c r="AB975" s="7"/>
     </row>
-    <row r="976">
+    <row r="976" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A976" s="7"/>
       <c r="B976" s="7"/>
       <c r="C976" s="7"/>
@@ -29756,7 +29776,7 @@
       <c r="AA976" s="7"/>
       <c r="AB976" s="7"/>
     </row>
-    <row r="977">
+    <row r="977" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A977" s="7"/>
       <c r="B977" s="7"/>
       <c r="C977" s="7"/>
@@ -29786,7 +29806,7 @@
       <c r="AA977" s="7"/>
       <c r="AB977" s="7"/>
     </row>
-    <row r="978">
+    <row r="978" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A978" s="7"/>
       <c r="B978" s="7"/>
       <c r="C978" s="7"/>
@@ -29816,7 +29836,7 @@
       <c r="AA978" s="7"/>
       <c r="AB978" s="7"/>
     </row>
-    <row r="979">
+    <row r="979" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A979" s="7"/>
       <c r="B979" s="7"/>
       <c r="C979" s="7"/>
@@ -29846,7 +29866,7 @@
       <c r="AA979" s="7"/>
       <c r="AB979" s="7"/>
     </row>
-    <row r="980">
+    <row r="980" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A980" s="7"/>
       <c r="B980" s="7"/>
       <c r="C980" s="7"/>
@@ -29876,7 +29896,7 @@
       <c r="AA980" s="7"/>
       <c r="AB980" s="7"/>
     </row>
-    <row r="981">
+    <row r="981" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A981" s="7"/>
       <c r="B981" s="7"/>
       <c r="C981" s="7"/>
@@ -29906,7 +29926,7 @@
       <c r="AA981" s="7"/>
       <c r="AB981" s="7"/>
     </row>
-    <row r="982">
+    <row r="982" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A982" s="7"/>
       <c r="B982" s="7"/>
       <c r="C982" s="7"/>
@@ -29936,7 +29956,7 @@
       <c r="AA982" s="7"/>
       <c r="AB982" s="7"/>
     </row>
-    <row r="983">
+    <row r="983" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A983" s="7"/>
       <c r="B983" s="7"/>
       <c r="C983" s="7"/>
@@ -29966,7 +29986,7 @@
       <c r="AA983" s="7"/>
       <c r="AB983" s="7"/>
     </row>
-    <row r="984">
+    <row r="984" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A984" s="7"/>
       <c r="B984" s="7"/>
       <c r="C984" s="7"/>
@@ -29996,7 +30016,7 @@
       <c r="AA984" s="7"/>
       <c r="AB984" s="7"/>
     </row>
-    <row r="985">
+    <row r="985" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A985" s="7"/>
       <c r="B985" s="7"/>
       <c r="C985" s="7"/>
@@ -30026,7 +30046,7 @@
       <c r="AA985" s="7"/>
       <c r="AB985" s="7"/>
     </row>
-    <row r="986">
+    <row r="986" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A986" s="7"/>
       <c r="B986" s="7"/>
       <c r="C986" s="7"/>
@@ -30056,7 +30076,7 @@
       <c r="AA986" s="7"/>
       <c r="AB986" s="7"/>
     </row>
-    <row r="987">
+    <row r="987" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A987" s="7"/>
       <c r="B987" s="7"/>
       <c r="C987" s="7"/>
@@ -30086,7 +30106,7 @@
       <c r="AA987" s="7"/>
       <c r="AB987" s="7"/>
     </row>
-    <row r="988">
+    <row r="988" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A988" s="7"/>
       <c r="B988" s="7"/>
       <c r="C988" s="7"/>
@@ -30116,7 +30136,7 @@
       <c r="AA988" s="7"/>
       <c r="AB988" s="7"/>
     </row>
-    <row r="989">
+    <row r="989" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A989" s="7"/>
       <c r="B989" s="7"/>
       <c r="C989" s="7"/>
@@ -30146,7 +30166,7 @@
       <c r="AA989" s="7"/>
       <c r="AB989" s="7"/>
     </row>
-    <row r="990">
+    <row r="990" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A990" s="7"/>
       <c r="B990" s="7"/>
       <c r="C990" s="7"/>
@@ -30176,7 +30196,7 @@
       <c r="AA990" s="7"/>
       <c r="AB990" s="7"/>
     </row>
-    <row r="991">
+    <row r="991" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A991" s="7"/>
       <c r="B991" s="7"/>
       <c r="C991" s="7"/>
@@ -30206,7 +30226,7 @@
       <c r="AA991" s="7"/>
       <c r="AB991" s="7"/>
     </row>
-    <row r="992">
+    <row r="992" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A992" s="7"/>
       <c r="B992" s="7"/>
       <c r="C992" s="7"/>
@@ -30236,7 +30256,7 @@
       <c r="AA992" s="7"/>
       <c r="AB992" s="7"/>
     </row>
-    <row r="993">
+    <row r="993" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A993" s="7"/>
       <c r="B993" s="7"/>
       <c r="C993" s="7"/>
@@ -30266,7 +30286,7 @@
       <c r="AA993" s="7"/>
       <c r="AB993" s="7"/>
     </row>
-    <row r="994">
+    <row r="994" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A994" s="7"/>
       <c r="B994" s="7"/>
       <c r="C994" s="7"/>
@@ -30296,7 +30316,7 @@
       <c r="AA994" s="7"/>
       <c r="AB994" s="7"/>
     </row>
-    <row r="995">
+    <row r="995" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A995" s="7"/>
       <c r="B995" s="7"/>
       <c r="C995" s="7"/>
@@ -30326,7 +30346,7 @@
       <c r="AA995" s="7"/>
       <c r="AB995" s="7"/>
     </row>
-    <row r="996">
+    <row r="996" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A996" s="7"/>
       <c r="B996" s="7"/>
       <c r="C996" s="7"/>
@@ -30356,7 +30376,7 @@
       <c r="AA996" s="7"/>
       <c r="AB996" s="7"/>
     </row>
-    <row r="997">
+    <row r="997" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A997" s="7"/>
       <c r="B997" s="7"/>
       <c r="C997" s="7"/>
@@ -30386,7 +30406,7 @@
       <c r="AA997" s="7"/>
       <c r="AB997" s="7"/>
     </row>
-    <row r="998">
+    <row r="998" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A998" s="7"/>
       <c r="B998" s="7"/>
       <c r="C998" s="7"/>
@@ -30416,7 +30436,7 @@
       <c r="AA998" s="7"/>
       <c r="AB998" s="7"/>
     </row>
-    <row r="999">
+    <row r="999" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A999" s="7"/>
       <c r="B999" s="7"/>
       <c r="C999" s="7"/>
@@ -30446,7 +30466,7 @@
       <c r="AA999" s="7"/>
       <c r="AB999" s="7"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1000" s="7"/>
       <c r="B1000" s="7"/>
       <c r="C1000" s="7"/>
@@ -30477,6 +30497,6 @@
       <c r="AB1000" s="7"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>